--- a/Naver/Results/FD_Crawling_Naver_Blog_Total.xlsx
+++ b/Naver/Results/FD_Crawling_Naver_Blog_Total.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H201"/>
+  <dimension ref="A1:H221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,32 +486,32 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>강남N타워 맛집 역삼 파스타바 파브란트</t>
+          <t>강남역고기집 우대포 먹방 유튜버도 반한 소갈비 맛집</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/winendine2017/223564698837</t>
+          <t>https://blog.naver.com/suzy_blog/223564812454</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>파브란트</t>
+          <t>우대포 강남역점</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>서울특별시 강남구 테헤란로 129 지하2층 B246호</t>
+          <t>서울특별시 강남구 강남대로94길 11 1층</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>#강남n타워맛집, #강남역파스타, #강남역소개팅, #역삼파스타, #역삼맛집, #파브란트, #강남역데이트, #역삼역데이트, #강남데이트, #강남맛집, #강남파스타, #역삼역파스타, #파스타바, #역삼파스타바, #강남역파스타바</t>
+          <t>#역삼문화공원제1호공영주차장, #우대포, #강남역맛집, #강남역고기집, #역삼동맛집, #강남역회식, #강남역소고기, #강남역고기, #강남역모임, #강남역저녁, #강남역11번출구맛집</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2024-08-29 11:30</t>
+          <t>2024-08-29 12:52</t>
         </is>
       </c>
     </row>
@@ -526,32 +526,32 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>영덕 강구항 대게 맛집 영덕대게궁 가격</t>
+          <t>오산 고기 맛집 소오산 오산대역 최고의 소고기 B세트 후기</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/ggoulggoul/223564649477</t>
+          <t>https://blog.naver.com/omytheo/223564807189</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>영덕대게궁</t>
+          <t>소오산</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>경상북도 영덕군 강구면 강구대게길 29 영덕대게궁</t>
+          <t>경기도 오산시 내삼미로79번길 26 107, 108호</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>#영덕대게맛집, #영덕강구항대게맛집, #강구항대게맛집, #강구항맛집, #영덕대게가격, #영덕대게궁가격, #영덕대게궁, #영덕강구항맛집, #영덕대게, #영덕가볼만한곳, #영덕대게거리, #대게코스요리, #영덕대게거리맛집, #대게宮, #대게궁</t>
+          <t>#소오산, #오산고기맛집, #오산대역맛집, #소갈비살, #오산소갈비살, #오산모임, #오산회식, #가성비회식장소, #숯불소고기</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2024-08-29 11:30</t>
+          <t>2024-08-29 12:52</t>
         </is>
       </c>
     </row>
@@ -566,32 +566,32 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>강남역 횟집 속초오징어어시장 가성비 횟집 추천 내돈내산</t>
+          <t>강남N타워 맛집 역삼 파스타바 파브란트</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/qnwkqortnn/223564770076</t>
+          <t>https://blog.naver.com/winendine2017/223564698837</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>속초오징어어시장 강남역점</t>
+          <t>파브란트</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>서울특별시 강남구 강남대로78길 16 1층</t>
+          <t>서울특별시 강남구 테헤란로 129 지하2층 B246호</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>#강남역횟집, #강남역가성비횟집, #속초오징어어시장강남역, #강남회식장소추천</t>
+          <t>#강남n타워맛집, #강남역파스타, #강남역소개팅, #역삼파스타, #역삼맛집, #파브란트, #강남역데이트, #역삼역데이트, #강남데이트, #강남맛집, #강남파스타, #역삼역파스타, #파스타바, #역삼파스타바, #강남역파스타바</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2024-08-29 11:30</t>
+          <t>2024-08-29 12:52</t>
         </is>
       </c>
     </row>
@@ -606,32 +606,32 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>원주 무실동 맛집 추천 점심 물회 부산횟집</t>
+          <t>영덕 강구항 대게 맛집 영덕대게궁 가격</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/s2ll27/223564642896</t>
+          <t>https://blog.naver.com/ggoulggoul/223564649477</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>부산횟집</t>
+          <t>영덕대게궁</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>강원특별자치도 원주시 만대공원길 56</t>
+          <t>경상북도 영덕군 강구면 강구대게길 29 영덕대게궁</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>#원주무실동맛집, #원주점심맛집, #원주물회맛집, #원주부산횟집, #원주맛집추천, #원주무실동맛집추천</t>
+          <t>#영덕대게맛집, #영덕강구항대게맛집, #강구항대게맛집, #강구항맛집, #영덕대게가격, #영덕대게궁가격, #영덕대게궁, #영덕강구항맛집, #영덕대게, #영덕가볼만한곳, #영덕대게거리, #대게코스요리, #영덕대게거리맛집, #대게宮, #대게궁</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2024-08-29 11:30</t>
+          <t>2024-08-29 12:52</t>
         </is>
       </c>
     </row>
@@ -646,32 +646,32 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>숙대입구역 맛집 마구로참치 특수부위까지 즐기는 지중해 생참치</t>
+          <t>동래 맛집 야키니쿠가 맛있는 현지 감성의 모토이시 공격 후기</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/enviableb/223564632129</t>
+          <t>https://blog.naver.com/ganzzajang/223562794470</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>마구로참치</t>
+          <t>모토이시 동래점</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>서울특별시 용산구 한강대로 271</t>
+          <t>부산광역시 동래구 충렬대로181번길 65 1~2층</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>#숙대입구역맛집, #마구로참치, #숙대입구맛집, #남영역맛집, #갈월동맛집, #용산참치, #남영동맛집, #숙대입구횟집, #남영역횟집, #용산횟집, #용산룸식당, #서울참치맛집</t>
+          <t>#동래맛집, #동래역맛집, #동래술집, #동래술집추천, #동래고기집, #동래역술집, #명륜동맛집, #동래역고깃집, #부산야끼니꾸, #동래야끼니꾸, #동래와규</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2024-08-29 11:30</t>
+          <t>2024-08-29 12:52</t>
         </is>
       </c>
     </row>
@@ -686,32 +686,32 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>강남역고기집 우대포 먹방 유튜버도 반한 소갈비 맛집</t>
+          <t>수원 행궁동 한옥 카페 카페도화 연무대점 행리단길 디저트 맛집</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/suzy_blog/223564812454</t>
+          <t>https://blog.naver.com/greenmoom46/223564828431</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>우대포 강남역점</t>
+          <t>카페도화 연무대점</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>서울특별시 강남구 강남대로94길 11 1층</t>
+          <t>경기도 수원시 팔달구 창룡대로103번길 8 2층</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>#역삼문화공원제1호공영주차장, #우대포, #강남역맛집, #강남역고기집, #역삼동맛집, #강남역회식, #강남역소고기, #강남역고기, #강남역모임, #강남역저녁, #강남역11번출구맛집</t>
+          <t>#행궁동브런치, #수원브런치, #행궁동와인바, #수원한옥카페, #행궁동한옥카페, #맛띠유, #맛집탐구기</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2024-08-29 11:30</t>
+          <t>2024-08-29 12:52</t>
         </is>
       </c>
     </row>
@@ -726,32 +726,32 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>오산 고기 맛집 소오산 오산대역 최고의 소고기 B세트 후기</t>
+          <t>석촌역 맛집, 청결하고 맛있는 숯불구이 '2층 통돼지집' 후기</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/omytheo/223564807189</t>
+          <t>https://blog.naver.com/gintonicdays/223564775499</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>소오산</t>
+          <t>2층 통돼지집</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>경기도 오산시 내삼미로79번길 26 107, 108호</t>
+          <t>서울특별시 송파구 백제고분로 384 2층 201호(송파동, 평화빌딩)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>#소오산, #오산고기맛집, #오산대역맛집, #소갈비살, #오산소갈비살, #오산모임, #오산회식, #가성비회식장소, #숯불소고기</t>
+          <t>#2층통돼지집, #잠실맛집, #송파맛집, #석촌역맛집, #돼지두루치기, #돼지숯불구이, #갈비살구이, #테진아제조, #벌집껍데기, #잠실회식장소, #잠실모임장소, #잠실고기맛집, #석촌역고기맛집, #송파동고기집, #송파동고기맛집, #송파동맛집, #롯데타워뷰</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2024-08-29 11:30</t>
+          <t>2024-08-29 12:52</t>
         </is>
       </c>
     </row>
@@ -766,32 +766,32 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>두툼한 통삼겹이 통째로 김치찌개 의정부맛집 오남매솥밥</t>
+          <t>강남역 횟집 속초오징어어시장 가성비 횟집 추천 내돈내산</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/hahadanro/223562750525</t>
+          <t>https://blog.naver.com/qnwkqortnn/223564770076</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>오남매솥밥</t>
+          <t>속초오징어어시장 강남역점</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>경기도 의정부시 오목로225번길 23-3 1층 오남매클라스</t>
+          <t>서울특별시 강남구 강남대로78길 16 1층</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>#오남매솥밥, #민락동맛집, #한식맛집, #의정부맛집, #의정부김치찌개, #김치찌개, #통삽겹김치찜</t>
+          <t>#강남역횟집, #강남역가성비횟집, #속초오징어어시장강남역, #강남회식장소추천</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2024-08-29 11:30</t>
+          <t>2024-08-29 12:52</t>
         </is>
       </c>
     </row>
@@ -806,32 +806,32 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>왕림휴게소 근처 동천홍 봉담점 마라 짬뽕 맛집</t>
+          <t>원주 무실동 맛집 추천 점심 물회 부산횟집</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/ddomuz/223564273757</t>
+          <t>https://blog.naver.com/s2ll27/223564642896</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>동천홍 봉담점</t>
+          <t>부산횟집</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>경기도 화성시 봉담읍 삼천병마로 1079-12</t>
+          <t>강원특별자치도 원주시 만대공원길 56</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>#동천홍, #동천홍봉담점, #왕림휴게소맛집, #봉담중국집, #봉담짬뽕맛집, #봉담마라짬뽕, #봉담짜장면, #봉담중식당, #봉담가족모임</t>
+          <t>#원주무실동맛집, #원주점심맛집, #원주물회맛집, #원주부산횟집, #원주맛집추천, #원주무실동맛집추천</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2024-08-29 11:30</t>
+          <t>2024-08-29 12:52</t>
         </is>
       </c>
     </row>
@@ -846,32 +846,32 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>양재역 맛집 미면정 양재본점 만두칼국수 가족모임 추천</t>
+          <t>숙대입구역 맛집 마구로참치 특수부위까지 즐기는 지중해 생참치</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/ykheeee9500/223564513957</t>
+          <t>https://blog.naver.com/enviableb/223564632129</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>미면정 양재본점</t>
+          <t>마구로참치</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>서울특별시 강남구 남부순환로365길 22 오이빌딩 2층</t>
+          <t>서울특별시 용산구 한강대로 271</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>#양재역맛집, #양재역맛집미면정, #미면정양재본점, #만두칼국수맛집, #한국음식장인이만드는미면정</t>
+          <t>#숙대입구역맛집, #마구로참치, #숙대입구맛집, #남영역맛집, #갈월동맛집, #용산참치, #남영동맛집, #숙대입구횟집, #남영역횟집, #용산횟집, #용산룸식당, #서울참치맛집</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2024-08-29 11:30</t>
+          <t>2024-08-29 12:52</t>
         </is>
       </c>
     </row>
@@ -886,32 +886,32 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>강남구청역 카페 트롬바커피 에그타르트맛집</t>
+          <t>두툼한 통삼겹이 통째로 김치찌개 의정부맛집 오남매솥밥</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/kcy2736/223564554138</t>
+          <t>https://blog.naver.com/hahadanro/223562750525</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>트롬바커피</t>
+          <t>오남매솥밥</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>서울특별시 강남구 선릉로126길 12 1층</t>
+          <t>경기도 의정부시 오목로225번길 23-3 1층 오남매클라스</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>#서이추환영, #삼성동카페, #강남구청대저트카페, #삼성동디저트카페</t>
+          <t>#오남매솥밥, #민락동맛집, #한식맛집, #의정부맛집, #의정부김치찌개, #김치찌개, #통삽겹김치찜</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2024-08-29 11:30</t>
+          <t>2024-08-29 12:52</t>
         </is>
       </c>
     </row>
@@ -922,28 +922,36 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>20240828</v>
+        <v>20240829</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>다양한 토핑의 매력 요아정 꿀조합 벌꿀 요거트아이스크림 오창점 배달</t>
+          <t>왕림휴게소 근처 동천홍 봉담점 마라 짬뽕 맛집</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/maboo37/223564409145</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
+          <t>https://blog.naver.com/ddomuz/223564273757</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>동천홍 봉담점</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>경기도 화성시 봉담읍 삼천병마로 1079-12</t>
+        </is>
+      </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>#협찬, #요거트아이스크림의정석, #요거트아이스크림, #생과일아이스크림, #요거트, #그릭요거트, #그릭요거트전문점, #요거트아이스크림전문점, #카페프랜차이즈, #요거트프랜차이즈, #yogurt, #greek, #디저트, #디저트맛집, #자사앱, #앱, #요아정앱, #할인쿠폰</t>
+          <t>#동천홍, #동천홍봉담점, #왕림휴게소맛집, #봉담중국집, #봉담짬뽕맛집, #봉담마라짬뽕, #봉담짜장면, #봉담중식당, #봉담가족모임</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2024-08-29 11:30</t>
+          <t>2024-08-29 12:52</t>
         </is>
       </c>
     </row>
@@ -958,32 +966,32 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>원주시청 근처 근사한 원주 한우 맛집 고기삼촌 후기</t>
+          <t>양재역 맛집 미면정 양재본점 만두칼국수 가족모임 추천</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/1115hq/223564798254</t>
+          <t>https://blog.naver.com/ykheeee9500/223564513957</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>고기삼촌</t>
+          <t>미면정 양재본점</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>강원특별자치도 원주시 시청로 24 105,106호</t>
+          <t>서울특별시 강남구 남부순환로365길 22 오이빌딩 2층</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>#원주한우맛집, #원주시청맛집</t>
+          <t>#양재역맛집, #양재역맛집미면정, #미면정양재본점, #만두칼국수맛집, #한국음식장인이만드는미면정</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2024-08-29 11:30</t>
+          <t>2024-08-29 12:52</t>
         </is>
       </c>
     </row>
@@ -998,32 +1006,32 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>한드케이크_노원 주문제작 예쁜 레터링 케이크 디자인도안 추천</t>
+          <t>강남구청역 카페 트롬바커피 에그타르트맛집</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/sophie242/223561781307</t>
+          <t>https://blog.naver.com/kcy2736/223564554138</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>한드케이크</t>
+          <t>트롬바커피</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>서울특별시 노원구 공릉로58다길 5 B1층 한드케이크</t>
+          <t>서울특별시 강남구 선릉로126길 12 1층</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>#노원주문제작케이크, #노원레터링케이크, #하계역케이크, #도시락케이크, #한드케이크, #레터링케이크디자인, #주문제작케이크, #주문제작케이크도안</t>
+          <t>#서이추환영, #삼성동카페, #강남구청대저트카페, #삼성동디저트카페</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2024-08-29 11:30</t>
+          <t>2024-08-29 12:52</t>
         </is>
       </c>
     </row>
@@ -1038,32 +1046,32 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>부천 캠핑식당 이색적인 옥상휴게소</t>
+          <t>원주시청 근처 근사한 원주 한우 맛집 고기삼촌 후기</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/buzafama/223561930435</t>
+          <t>https://blog.naver.com/1115hq/223564798254</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>옥상휴게소</t>
+          <t>고기삼촌</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>경기도 부천시 원미구 부천로 148 1층 전체</t>
+          <t>강원특별자치도 원주시 시청로 24 105,106호</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>#부천캠핑식당, #부천바베큐맛집, #부천캠핑바베큐, #부천캠핑바베큐식당</t>
+          <t>#원주한우맛집, #원주시청맛집</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2024-08-29 11:30</t>
+          <t>2024-08-29 12:52</t>
         </is>
       </c>
     </row>
@@ -1078,32 +1086,32 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>대구 수성구 술집 고퀄리티 안주에 분위기 좋은 범어동 맛집 한주</t>
+          <t>한드케이크_노원 주문제작 예쁜 레터링 케이크 디자인도안 추천</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/ejr8806/223564731432</t>
+          <t>https://blog.naver.com/sophie242/223561781307</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>한주</t>
+          <t>한드케이크</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>대구광역시 수성구 달구벌대로512길 10 1층 한주</t>
+          <t>서울특별시 노원구 공릉로58다길 5 B1층 한드케이크</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>#대구수성구술집, #수성구술집, #한주, #범어동한주, #범어동맛집</t>
+          <t>#노원주문제작케이크, #노원레터링케이크, #하계역케이크, #도시락케이크, #한드케이크, #레터링케이크디자인, #주문제작케이크, #주문제작케이크도안</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2024-08-29 11:30</t>
+          <t>2024-08-29 12:52</t>
         </is>
       </c>
     </row>
@@ -1118,32 +1126,32 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>판교 술집 하이네켄 생맥주 맛집 챠오바라이트</t>
+          <t>부천 캠핑식당 이색적인 옥상휴게소</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/darkyoon85/223564335342</t>
+          <t>https://blog.naver.com/buzafama/223561930435</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>챠오바라이트 판교점</t>
+          <t>옥상휴게소</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>경기도 성남시 분당구 대왕판교로 660 유스페이스1 1층 125호 챠오바라이트</t>
+          <t>경기도 부천시 원미구 부천로 148 1층 전체</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>#판교맛집, #판교술집, #하이네켄, #하이네켄생맥주, #하이네켄생맥주맛집, #챠오바라이트, #생맥주, #첫모금, #맛집추천, #광고</t>
+          <t>#부천캠핑식당, #부천바베큐맛집, #부천캠핑바베큐, #부천캠핑바베큐식당</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2024-08-29 11:30</t>
+          <t>2024-08-29 12:52</t>
         </is>
       </c>
     </row>
@@ -1158,32 +1166,32 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>연남동 국숯집 남발카세 팝업 - 젊고 내공 뛰어난 남발게 김준승 셰프님의 새롭고 기발하고 훌륭한 해산물 요리 잔치</t>
+          <t>대구 수성구 술집 고퀄리티 안주에 분위기 좋은 범어동 맛집 한주</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/zephyr122059/223559250507</t>
+          <t>https://blog.naver.com/ejr8806/223564731432</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>국숯집 연남점</t>
+          <t>한주</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>서울특별시 마포구 동교로34길 21 우측 지층</t>
+          <t>대구광역시 수성구 달구벌대로512길 10 1층 한주</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>#남발게님, #국숯집, #연남동국숯집, #남발카세, #해산물잔치, #국숯집팝업, #남발게님팝업, #연남동남발카세팝업</t>
+          <t>#대구수성구술집, #수성구술집, #한주, #범어동한주, #범어동맛집</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2024-08-29 11:30</t>
+          <t>2024-08-29 12:52</t>
         </is>
       </c>
     </row>
@@ -1198,32 +1206,32 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>전주 한옥마을 한정식 맛집 - 녹두꽃 건강한 한상차림 #1</t>
+          <t>판교 술집 하이네켄 생맥주 맛집 챠오바라이트</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/chuchus1216/223564623754</t>
+          <t>https://blog.naver.com/darkyoon85/223564335342</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>녹두꽃</t>
+          <t>챠오바라이트 판교점</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>전북특별자치도 전주시 완산구 팔달로 106-1 한옥마을 주차장 안쪽 1층</t>
+          <t>경기도 성남시 분당구 대왕판교로 660 유스페이스1 1층 125호 챠오바라이트</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>#전주한옥마을한정식맛집, #녹두꽃, #전주녹두꽃, #전주한옥마을한정식, #전주한정식맛집녹두꽃, #전주한옥마을한정식맛집녹두꽃, #전주한정식맛집, #전주한정식, #전주맛집, #전주한옥마을, #전주한옥마을맛집, #한옥마을맛집, #한옥마을한정식맛집, #한옥마을한정식, #전주한상, #전주한상차림, #한정식맛집, #전주, #맛집, #전주건강한맛집</t>
+          <t>#판교맛집, #판교술집, #하이네켄, #하이네켄생맥주, #하이네켄생맥주맛집, #챠오바라이트, #생맥주, #첫모금, #맛집추천, #광고</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2024-08-29 11:30</t>
+          <t>2024-08-29 12:52</t>
         </is>
       </c>
     </row>
@@ -1234,36 +1242,36 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>20240828</v>
+        <v>20240829</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>홍대 연남동중식당 중화복춘 살롱 시그니처 미쉐린가이드맛집 회식</t>
+          <t>연남동 국숯집 남발카세 팝업 - 젊고 내공 뛰어난 남발게 김준승 셰프님의 새롭고 기발하고 훌륭한 해산물 요리 잔치</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/rapunzelli3/223564429953</t>
+          <t>https://blog.naver.com/zephyr122059/223559250507</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>중화복춘 살롱 시그니처</t>
+          <t>국숯집 연남점</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>서울특별시 마포구 연남로 10 1층</t>
+          <t>서울특별시 마포구 동교로34길 21 우측 지층</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>#중화복춘, #중화복춘살롱시그니처, #남복춘쉐프, #연남데이트, #연남동중식당, #홍대중식당, #홍대회식, #연남동회식, #홍대미쉐린가이드, #연남동미쉐린가이드, #연남동맛집</t>
+          <t>#남발게님, #국숯집, #연남동국숯집, #남발카세, #해산물잔치, #국숯집팝업, #남발게님팝업, #연남동남발카세팝업</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2024-08-29 11:30</t>
+          <t>2024-08-29 12:52</t>
         </is>
       </c>
     </row>
@@ -1278,32 +1286,32 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>[여수] 특색있는 커피가 있는 뷰맛집_낭만카페</t>
+          <t>강남N타워 맛집 역삼 파스타바 파브란트</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/kimyoon3_/223564695760</t>
+          <t>https://blog.naver.com/winendine2017/223564698837</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>낭만카페</t>
+          <t>파브란트</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>전라남도 여수시 고소5길 11</t>
+          <t>서울특별시 강남구 테헤란로 129 지하2층 B246호</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>#낭만카페, #내돈내산, #여수낭만카페, #여수카페, #뷰맛집, #여수뷰카페, #여수뷰맛집, #여수벽화마을카페, #여수커피맛집, #여수여행, #고소동천사벽화마을, #고소동카페</t>
+          <t>#강남n타워맛집, #강남역파스타, #강남역소개팅, #역삼파스타, #역삼맛집, #파브란트, #강남역데이트, #역삼역데이트, #강남데이트, #강남맛집, #강남파스타, #역삼역파스타, #파스타바, #역삼파스타바, #강남역파스타바</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2024-08-29 10:41</t>
+          <t>2024-08-29 11:30</t>
         </is>
       </c>
     </row>
@@ -1318,32 +1326,32 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>[제주] 함덕 분위기 좋은 언더라운지 카페 &amp; 펍</t>
+          <t>영덕 강구항 대게 맛집 영덕대게궁 가격</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/dbfla7391/223564695618</t>
+          <t>https://blog.naver.com/ggoulggoul/223564649477</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>언더라운지 제주함덕점</t>
+          <t>영덕대게궁</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>제주특별자치도 제주시 조천읍 함덕로 40 5층, 6층</t>
+          <t>경상북도 영덕군 강구면 강구대게길 29 영덕대게궁</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>#제주, #제주시, #제주함덕, #제주함덕펍, #함덕술집, #함덕해수욕장근처, #함덕술집추천, #함덕칵테일, #함덕위스키, #서이추</t>
+          <t>#영덕대게맛집, #영덕강구항대게맛집, #강구항대게맛집, #강구항맛집, #영덕대게가격, #영덕대게궁가격, #영덕대게궁, #영덕강구항맛집, #영덕대게, #영덕가볼만한곳, #영덕대게거리, #대게코스요리, #영덕대게거리맛집, #대게宮, #대게궁</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2024-08-29 10:41</t>
+          <t>2024-08-29 11:30</t>
         </is>
       </c>
     </row>
@@ -1358,32 +1366,32 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>한솥 대구시내혼밥 치킨마요 가성비밥집 반월당혼밥 동성로혼밥</t>
+          <t>강남역 횟집 속초오징어어시장 가성비 횟집 추천 내돈내산</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/mimn0_/223562933467</t>
+          <t>https://blog.naver.com/qnwkqortnn/223564770076</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>한솥도시락 중앙로역점</t>
+          <t>속초오징어어시장 강남역점</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>대구광역시 중구 중앙대로 415 한솥도시락 중앙로역점</t>
+          <t>서울특별시 강남구 강남대로78길 16 1층</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>#한솥, #한솥혼밥, #대구, #대구맛집, #대구동성로, #동성로혼밥, #반월당혼밥</t>
+          <t>#강남역횟집, #강남역가성비횟집, #속초오징어어시장강남역, #강남회식장소추천</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2024-08-29 10:41</t>
+          <t>2024-08-29 11:30</t>
         </is>
       </c>
     </row>
@@ -1398,32 +1406,32 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>종각 술집 야장 감성 치킨 맛집 내돈내산 후기, 태성골뱅이 종각점</t>
+          <t>원주 무실동 맛집 추천 점심 물회 부산횟집</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/kaj5677/223564690255</t>
+          <t>https://blog.naver.com/s2ll27/223564642896</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>태성골뱅이신사 종각점</t>
+          <t>부산횟집</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>서울특별시 종로구 종로14길 19 1층</t>
+          <t>강원특별자치도 원주시 만대공원길 56</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>#종로술집, #종로야장, #종로내돈내산, #종로맛집, #종로모임, #종로회식, #종각술집, #종각야장, #종각내돈내산, #종각맛집, #종각모임, #종각회식, #젊음의거리맛집, #젊음의거리야장, #젊음의거리술집, #젊음의거리모임, #젊음의거리회식, #태성골뱅이, #태성골뱅이종각점</t>
+          <t>#원주무실동맛집, #원주점심맛집, #원주물회맛집, #원주부산횟집, #원주맛집추천, #원주무실동맛집추천</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2024-08-29 10:41</t>
+          <t>2024-08-29 11:30</t>
         </is>
       </c>
     </row>
@@ -1438,24 +1446,32 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>양양 하조대 맛집_내돈내산 : &lt;하조대순대국전문점&gt;</t>
+          <t>숙대입구역 맛집 마구로참치 특수부위까지 즐기는 지중해 생참치</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/choida92/223564687071</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
+          <t>https://blog.naver.com/enviableb/223564632129</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>마구로참치</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>서울특별시 용산구 한강대로 271</t>
+        </is>
+      </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>#하조대순대국전문점메뉴, #내돈내산, #양양맛집, #강원도여행, #하조대맛집, #하조대순대국전문점, #하조대순대국</t>
+          <t>#숙대입구역맛집, #마구로참치, #숙대입구맛집, #남영역맛집, #갈월동맛집, #용산참치, #남영동맛집, #숙대입구횟집, #남영역횟집, #용산횟집, #용산룸식당, #서울참치맛집</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2024-08-29 10:41</t>
+          <t>2024-08-29 11:30</t>
         </is>
       </c>
     </row>
@@ -1470,32 +1486,32 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>문래 알롱지서울 : 감성저격 디저트 카페</t>
+          <t>강남역고기집 우대포 먹방 유튜버도 반한 소갈비 맛집</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/ynncoco/223564686803</t>
+          <t>https://blog.naver.com/suzy_blog/223564812454</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>알롱지서울</t>
+          <t>우대포 강남역점</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>서울특별시 영등포구 도림로 485-1 3층</t>
+          <t>서울특별시 강남구 강남대로94길 11 1층</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>#문래동카페, #알롱드서울, #영등포카페, #문래카페, #문래역카페, #르꼬르동블루, #문래디저트</t>
+          <t>#역삼문화공원제1호공영주차장, #우대포, #강남역맛집, #강남역고기집, #역삼동맛집, #강남역회식, #강남역소고기, #강남역고기, #강남역모임, #강남역저녁, #강남역11번출구맛집</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2024-08-29 10:41</t>
+          <t>2024-08-29 11:30</t>
         </is>
       </c>
     </row>
@@ -1510,32 +1526,32 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>[루이스케이터링] 연세대학교 과학관 심포지엄 커피다과 케이터링서비스</t>
+          <t>오산 고기 맛집 소오산 오산대역 최고의 소고기 B세트 후기</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/louis8315/223564685744</t>
+          <t>https://blog.naver.com/omytheo/223564807189</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>연세대학교 신촌캠퍼스과학관</t>
+          <t>소오산</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>서울특별시 서대문구 연세로 50</t>
+          <t>경기도 오산시 내삼미로79번길 26 107, 108호</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>#연세대학교, #과학관, #심포지엄, #커피다과, #케이터링서비스, #케이터링가격, #다과케이터링, #워크숍케이터링, #대학교케이터링, #학회케이터링, #세미나케이터링, #신촌케이터링, #홍익대케이터링, #이화여대케이터링, #스타벅스케이터링, #던켄케이터링, #쿠키, #음료, #루이스프루타, #의전케이터링, #행사다과, #컨퍼런스케이터링, #아이스커피, #케이터링, #케이터링업체, #300잔, #500잔, #서울커피케이터링</t>
+          <t>#소오산, #오산고기맛집, #오산대역맛집, #소갈비살, #오산소갈비살, #오산모임, #오산회식, #가성비회식장소, #숯불소고기</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2024-08-29 10:41</t>
+          <t>2024-08-29 11:30</t>
         </is>
       </c>
     </row>
@@ -1550,32 +1566,32 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>[창원_상남동] 뱅가드 / 매장에서 먹고 반해서 포장까지</t>
+          <t>두툼한 통삼겹이 통째로 김치찌개 의정부맛집 오남매솥밥</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/th01-0/223562151184</t>
+          <t>https://blog.naver.com/hahadanro/223562750525</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>뱅가드 상남본점</t>
+          <t>오남매솥밥</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>경상남도 창원시 성산구 마디미로 39 1층 101호</t>
+          <t>경기도 의정부시 오목로225번길 23-3 1층 오남매클라스</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>#술집, #맛집, #신상술집, #안주맛집, #가성비, #재방문, #요리주점, #하이볼, #고량주, #창원술집, #창원맛집, #창원안주맛집, #창원뱅가드, #뱅가드, #상남동뱅가드, #창원새로오픈, #창원신상술집, #서이추, #서이추환영, #창원뱅가드동파육, #창원동파육, #창원유린기, #창원차돌짬뽕, #창원짬뽕, #상남동짬뽕, #창원해장, #창원술집추천</t>
+          <t>#오남매솥밥, #민락동맛집, #한식맛집, #의정부맛집, #의정부김치찌개, #김치찌개, #통삽겹김치찜</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2024-08-29 10:41</t>
+          <t>2024-08-29 11:30</t>
         </is>
       </c>
     </row>
@@ -1590,32 +1606,32 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>::서울역 칼국수:: 밀본 서울역점ㅣ내돈내신 혼밥ㅣ칼국수세트</t>
+          <t>왕림휴게소 근처 동천홍 봉담점 마라 짬뽕 맛집</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/star0827star/223564419915</t>
+          <t>https://blog.naver.com/ddomuz/223564273757</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>밀본 서울역점</t>
+          <t>동천홍 봉담점</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>서울특별시 용산구 청파로 378 3층 217호</t>
+          <t>경기도 화성시 봉담읍 삼천병마로 1079-12</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>#서울역점심, #서울역저녁, #서울역혼밥, #서울혼밥, #서울점심, #서울저녁, #밀본, #밀본서울역점, #밀본칼국수, #밀본만두, #밀본녹두전, #밀본미쉐린, #미쉐린빕구르망, #밀본칼국수만두, #밀본혼밥, #밀본점심, #밀본저녁, #서울칼국수, #서울역칼국수, #서울만두, #서울역만두, #서울한식, #서울역한식</t>
+          <t>#동천홍, #동천홍봉담점, #왕림휴게소맛집, #봉담중국집, #봉담짬뽕맛집, #봉담마라짬뽕, #봉담짜장면, #봉담중식당, #봉담가족모임</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2024-08-29 10:41</t>
+          <t>2024-08-29 11:30</t>
         </is>
       </c>
     </row>
@@ -1630,24 +1646,32 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>인천 용현동 토지금고 메밀막국수 맛집 "시골막국수n옹심이"</t>
+          <t>양재역 맛집 미면정 양재본점 만두칼국수 가족모임 추천</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/hji_jw/223564455507</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
+          <t>https://blog.naver.com/ykheeee9500/223564513957</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>미면정 양재본점</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>서울특별시 강남구 남부순환로365길 22 오이빌딩 2층</t>
+        </is>
+      </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>#인천용현동맛집, #인천용현동토지금고맛집, #용현동맛집, #토지금고맛집, #용현동메밀막국수, #토지금고메밀막국수, #서이추환영</t>
+          <t>#양재역맛집, #양재역맛집미면정, #미면정양재본점, #만두칼국수맛집, #한국음식장인이만드는미면정</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2024-08-29 10:41</t>
+          <t>2024-08-29 11:30</t>
         </is>
       </c>
     </row>
@@ -1658,32 +1682,36 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>20240828</v>
+        <v>20240829</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>파주 야당 맛집 키누카누 파주점 무한리필 초밥뷔페</t>
+          <t>강남구청역 카페 트롬바커피 에그타르트맛집</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/gomom75/223564333891</t>
+          <t>https://blog.naver.com/kcy2736/223564554138</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>야당역 경의중앙선</t>
+          <t>트롬바커피</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>경기도 파주시 소리천로 10</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr"/>
+          <t>서울특별시 강남구 선릉로126길 12 1층</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>#서이추환영, #삼성동카페, #강남구청대저트카페, #삼성동디저트카페</t>
+        </is>
+      </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2024-08-29 10:22</t>
+          <t>2024-08-29 11:30</t>
         </is>
       </c>
     </row>
@@ -1694,36 +1722,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>20240829</v>
+        <v>20240828</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>[안산/고잔동 맛집] 무더위엔 이열치열 전골전문점 '목육탕' 술집</t>
+          <t>다양한 토핑의 매력 요아정 꿀조합 벌꿀 요거트아이스크림 오창점 배달</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/nn125/223564758979</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>목육탕</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>경기도 안산시 단원구 광덕대로 154 1층 123호 ,124호</t>
-        </is>
-      </c>
+          <t>https://blog.naver.com/maboo37/223564409145</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>#고잔동맛집, #전골전문점, #수육전문점, #안산전골맛집, #안산수육전문점, #안산고잔동맛집, #고잔역맛집, #안산목육탕, #목육탕, #전골수육맛집, #회사스트레스, #고잔역목육탕, #중앙동맛집, #중앙역전골, #고잔역술집</t>
+          <t>#협찬, #요거트아이스크림의정석, #요거트아이스크림, #생과일아이스크림, #요거트, #그릭요거트, #그릭요거트전문점, #요거트아이스크림전문점, #카페프랜차이즈, #요거트프랜차이즈, #yogurt, #greek, #디저트, #디저트맛집, #자사앱, #앱, #요아정앱, #할인쿠폰</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2024-08-29 10:22</t>
+          <t>2024-08-29 11:30</t>
         </is>
       </c>
     </row>
@@ -1738,32 +1758,32 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>대구 동성로 라멘 맛집 멘지 토리파이탄 카라파이탄 후기</t>
+          <t>원주시청 근처 근사한 원주 한우 맛집 고기삼촌 후기</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/autumn_eve/223564756754</t>
+          <t>https://blog.naver.com/1115hq/223564798254</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>멘지 대구동성로점</t>
+          <t>고기삼촌</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>대구광역시 중구 동성로1길 12 1층</t>
+          <t>강원특별자치도 원주시 시청로 24 105,106호</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>#동성로맛집, #대구동성로맛집, #반월당맛집, #동성로밥집, #대구시내맛집, #동성로라멘, #대구동성로라멘맛집, #대구라멘맛집, #멘지대구동성로점</t>
+          <t>#원주한우맛집, #원주시청맛집</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2024-08-29 10:22</t>
+          <t>2024-08-29 11:30</t>
         </is>
       </c>
     </row>
@@ -1778,32 +1798,32 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>속초 맛집 추천 &lt;남경막국수 본점&gt; 혼밥, 메뉴, 주차, 주말 웨이팅</t>
+          <t>한드케이크_노원 주문제작 예쁜 레터링 케이크 디자인도안 추천</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/g_sorry/223564751884</t>
+          <t>https://blog.naver.com/sophie242/223561781307</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>남경막국수 본점</t>
+          <t>한드케이크</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>강원특별자치도 속초시 대포항희망길 47 남경막국수</t>
+          <t>서울특별시 노원구 공릉로58다길 5 B1층 한드케이크</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>#속초여행, #속초맛집, #대포항맛집, #속초대포항맛집, #강원도맛집, #속초막국수맛집, #강원도막국수맛집, #대포항막국수맛집, #속초남경막국수, #남경막국수본점, #강원도남경막국수, #남경막국수혼밥, #남경막국수메뉴, #남경막국수주차, #내돈내산, #속초혼자여행, #속초가볼만한곳</t>
+          <t>#노원주문제작케이크, #노원레터링케이크, #하계역케이크, #도시락케이크, #한드케이크, #레터링케이크디자인, #주문제작케이크, #주문제작케이크도안</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2024-08-29 10:22</t>
+          <t>2024-08-29 11:30</t>
         </is>
       </c>
     </row>
@@ -1818,32 +1838,32 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>거제고현시장 가볼만한곳 순대리아먹고 로또사고</t>
+          <t>부천 캠핑식당 이색적인 옥상휴게소</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/jeonju1400/223564747751</t>
+          <t>https://blog.naver.com/buzafama/223561930435</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>거제고현시장</t>
+          <t>옥상휴게소</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>경상남도 거제시 거제중앙로17길 6</t>
+          <t>경기도 부천시 원미구 부천로 148 1층 전체</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>#거제고현시장, #거제고현시장가볼만한곳, #거제순대리아, #거제고현시장순대리아, #거제고현시장순대</t>
+          <t>#부천캠핑식당, #부천바베큐맛집, #부천캠핑바베큐, #부천캠핑바베큐식당</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2024-08-29 10:22</t>
+          <t>2024-08-29 11:30</t>
         </is>
       </c>
     </row>
@@ -1858,32 +1878,32 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>성수 술집 포도젝트 감각적인 분위기의 와인바 퓨전한식 맛집 후기</t>
+          <t>대구 수성구 술집 고퀄리티 안주에 분위기 좋은 범어동 맛집 한주</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/rose_s_blog/223564743294</t>
+          <t>https://blog.naver.com/ejr8806/223564731432</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>포도젝트</t>
+          <t>한주</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>서울특별시 성동구 뚝섬로7길 7-1 1층(성수동2가)</t>
+          <t>대구광역시 수성구 달구벌대로512길 10 1층 한주</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>#성수술집, #성수동술집, #성수동와인바, #성수와인바, #성수핫플, #성수맛집, #성수와인, #성수동와인, #성수루프탑, #성수루프탑술집, #성수술집추천, #성수소개팅, #성수데이트맛집, #성수동맛집, #성수핫플술집, #성수가볼만한곳, #성수분위기좋은술집, #포도젝트, #성수포도젝트, #성수놀거리, #상수칵테일</t>
+          <t>#대구수성구술집, #수성구술집, #한주, #범어동한주, #범어동맛집</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2024-08-29 10:22</t>
+          <t>2024-08-29 11:30</t>
         </is>
       </c>
     </row>
@@ -1898,32 +1918,32 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>[수유역 술집] 수유 룸술집 프라이빗한 와인바 안주 맛집 아이엠</t>
+          <t>판교 술집 하이네켄 생맥주 맛집 챠오바라이트</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/cbs0519/223564740594</t>
+          <t>https://blog.naver.com/darkyoon85/223564335342</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>아이엠</t>
+          <t>챠오바라이트 판교점</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>서울특별시 강북구 노해로 41 동아빌딩 2층</t>
+          <t>경기도 성남시 분당구 대왕판교로 660 유스페이스1 1층 125호 챠오바라이트</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>#수유역맛집, #수유역술집, #아이엠, #수유아이엠, #수유역와인바, #수유역전통주, #트러플크림뇨끼, #라구파스타, #수유와인바, #수유전통주, #수유룸술집</t>
+          <t>#판교맛집, #판교술집, #하이네켄, #하이네켄생맥주, #하이네켄생맥주맛집, #챠오바라이트, #생맥주, #첫모금, #맛집추천, #광고</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2024-08-29 10:22</t>
+          <t>2024-08-29 11:30</t>
         </is>
       </c>
     </row>
@@ -1938,28 +1958,32 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>ㅎㅂㅈ시리즈4) 인천 차이나타운 옆 역사깊은 간짜장 노포 ㅡ 혜빈장</t>
+          <t>연남동 국숯집 남발카세 팝업 - 젊고 내공 뛰어난 남발게 김준승 셰프님의 새롭고 기발하고 훌륭한 해산물 요리 잔치</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/nutz/223564716593</t>
+          <t>https://blog.naver.com/zephyr122059/223559250507</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>혜빈장</t>
+          <t>국숯집 연남점</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>인천광역시 중구 참외전로13번길 21</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr"/>
+          <t>서울특별시 마포구 동교로34길 21 우측 지층</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>#남발게님, #국숯집, #연남동국숯집, #남발카세, #해산물잔치, #국숯집팝업, #남발게님팝업, #연남동남발카세팝업</t>
+        </is>
+      </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2024-08-29 10:22</t>
+          <t>2024-08-29 11:30</t>
         </is>
       </c>
     </row>
@@ -1974,28 +1998,32 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>[일상] 출산 전 마지막 용산 데이트 화덕피자 맛집 도만다</t>
+          <t>전주 한옥마을 한정식 맛집 - 녹두꽃 건강한 한상차림 #1</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/mrsmanzae/223564714610</t>
+          <t>https://blog.naver.com/chuchus1216/223564623754</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>도만다 신용산점</t>
+          <t>녹두꽃</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>서울특별시 용산구 한강대로 100 지하1층 B103호</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr"/>
+          <t>전북특별자치도 전주시 완산구 팔달로 106-1 한옥마을 주차장 안쪽 1층</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>#전주한옥마을한정식맛집, #녹두꽃, #전주녹두꽃, #전주한옥마을한정식, #전주한정식맛집녹두꽃, #전주한옥마을한정식맛집녹두꽃, #전주한정식맛집, #전주한정식, #전주맛집, #전주한옥마을, #전주한옥마을맛집, #한옥마을맛집, #한옥마을한정식맛집, #한옥마을한정식, #전주한상, #전주한상차림, #한정식맛집, #전주, #맛집, #전주건강한맛집</t>
+        </is>
+      </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2024-08-29 10:22</t>
+          <t>2024-08-29 11:30</t>
         </is>
       </c>
     </row>
@@ -2006,36 +2034,36 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>20240829</v>
+        <v>20240828</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>말차맛집찾아 급으로 찾아간 북한강변 예쁜카페 녹화(綠化)</t>
+          <t>홍대 연남동중식당 중화복춘 살롱 시그니처 미쉐린가이드맛집 회식</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/aziraelhs/223564709624</t>
+          <t>https://blog.naver.com/rapunzelli3/223564429953</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>녹화</t>
+          <t>중화복춘 살롱 시그니처</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>경기도 남양주시 화도읍 북한강로 1171 녹화</t>
+          <t>서울특별시 마포구 연남로 10 1층</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>#녹화, #녹화카페, #남양주카페, #북한강변카페, #북한강녹화, #북한강녹화카페, #나만알고싶은카페, #말차빙수, #말차라떼, #말차빙수맛집, #말차라떼맛집, #말차치즈케이크, #북한걍뷰, #뷰맛집, #애견동반카페</t>
+          <t>#중화복춘, #중화복춘살롱시그니처, #남복춘쉐프, #연남데이트, #연남동중식당, #홍대중식당, #홍대회식, #연남동회식, #홍대미쉐린가이드, #연남동미쉐린가이드, #연남동맛집</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2024-08-29 10:22</t>
+          <t>2024-08-29 11:30</t>
         </is>
       </c>
     </row>
@@ -2046,36 +2074,36 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>20240827</v>
+        <v>20240829</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>여의도 한우 오마카세 데이트 맛집 고청담 최고였어요</t>
+          <t>[여수] 특색있는 커피가 있는 뷰맛집_낭만카페</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/stiearth/223562147099</t>
+          <t>https://blog.naver.com/kimyoon3_/223564695760</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>고청담 여의도점</t>
+          <t>낭만카페</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>서울특별시 영등포구 국제금융로 39 지하1층 101호</t>
+          <t>전라남도 여수시 고소5길 11</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>#여의도데이트맛집고청담, #여의도데이트맛집, #여의도더현대근처맛집, #여의도더현대맛집, #여의도룸식당, #서이추, #서로이웃환영, #소통, #여의도한우오마카세, #여의도한우오마카세맛집</t>
+          <t>#낭만카페, #내돈내산, #여수낭만카페, #여수카페, #뷰맛집, #여수뷰카페, #여수뷰맛집, #여수벽화마을카페, #여수커피맛집, #여수여행, #고소동천사벽화마을, #고소동카페</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2024-08-27 19:59</t>
+          <t>2024-08-29 10:41</t>
         </is>
       </c>
     </row>
@@ -2086,36 +2114,36 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>20240827</v>
+        <v>20240829</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>부산 중구 남포동맛집 화덕피자 파스타 데이트 맛집 루아앤티그리 광복점 찐후기</t>
+          <t>[제주] 함덕 분위기 좋은 언더라운지 카페 &amp; 펍</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/imthankful_/223562770661</t>
+          <t>https://blog.naver.com/dbfla7391/223564695618</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>루아앤티그리 광복점</t>
+          <t>언더라운지 제주함덕점</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>부산광역시 중구 용미길10번길 1 1, 2층</t>
+          <t>제주특별자치도 제주시 조천읍 함덕로 40 5층, 6층</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>#부산중구맛집, #부산남포동맛집, #남포동화덕피자, #남포동파스타, #남포동데이트, #루아앤티그리광복점, #서이추환영, #소통</t>
+          <t>#제주, #제주시, #제주함덕, #제주함덕펍, #함덕술집, #함덕해수욕장근처, #함덕술집추천, #함덕칵테일, #함덕위스키, #서이추</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2024-08-27 19:59</t>
+          <t>2024-08-29 10:41</t>
         </is>
       </c>
     </row>
@@ -2126,36 +2154,36 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>20240827</v>
+        <v>20240829</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>광주 광천터미널 맛집 20년 전통 로컬 엄마 손맛 한식 집밥 추천 농성동 시골집</t>
+          <t>한솥 대구시내혼밥 치킨마요 가성비밥집 반월당혼밥 동성로혼밥</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/panic9861/223562696835</t>
+          <t>https://blog.naver.com/mimn0_/223562933467</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>시골집</t>
+          <t>한솥도시락 중앙로역점</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>광주광역시 서구 내방로398번길 4</t>
+          <t>대구광역시 중구 중앙대로 415 한솥도시락 중앙로역점</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>#광천터미널맛집, #광천터미널근처맛집, #광주광천맛집, #광천터미널점심, #농성동맛집, #시골집, #광주맛집, #광주한식, #광주단체식당, #광주엄마손맛</t>
+          <t>#한솥, #한솥혼밥, #대구, #대구맛집, #대구동성로, #동성로혼밥, #반월당혼밥</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2024-08-27 19:59</t>
+          <t>2024-08-29 10:41</t>
         </is>
       </c>
     </row>
@@ -2166,36 +2194,36 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>20240827</v>
+        <v>20240829</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>연남 횟집 신선한 회와 가성비 연남광안리</t>
+          <t>종각 술집 야장 감성 치킨 맛집 내돈내산 후기, 태성골뱅이 종각점</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/gyunghoony/223562442199</t>
+          <t>https://blog.naver.com/kaj5677/223564690255</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>연남광안리</t>
+          <t>태성골뱅이신사 종각점</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>서울특별시 마포구 동교로 258-1 1층 연남광안리</t>
+          <t>서울특별시 종로구 종로14길 19 1층</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>#연남횟집, #연남광안리</t>
+          <t>#종로술집, #종로야장, #종로내돈내산, #종로맛집, #종로모임, #종로회식, #종각술집, #종각야장, #종각내돈내산, #종각맛집, #종각모임, #종각회식, #젊음의거리맛집, #젊음의거리야장, #젊음의거리술집, #젊음의거리모임, #젊음의거리회식, #태성골뱅이, #태성골뱅이종각점</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2024-08-27 19:59</t>
+          <t>2024-08-29 10:41</t>
         </is>
       </c>
     </row>
@@ -2206,36 +2234,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>20240827</v>
+        <v>20240829</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>청주 옥산 빵집 3대째 운영중인 빵굽는마을 내돈내먹</t>
+          <t>양양 하조대 맛집_내돈내산 : &lt;하조대순대국전문점&gt;</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/ss2ung/223562112242</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>빵굽는마을</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>충청북도 청주시 흥덕구 옥산면 옥산시내1길 37</t>
-        </is>
-      </c>
+          <t>https://blog.naver.com/choida92/223564687071</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>#빵지순례, #전국빵지순례, #청주빵지순례, #청주빵집, #청주빵굽는마을, #빵굽는마을, #옥산빵굽는마을, #옥산빵집</t>
+          <t>#하조대순대국전문점메뉴, #내돈내산, #양양맛집, #강원도여행, #하조대맛집, #하조대순대국전문점, #하조대순대국</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2024-08-27 19:59</t>
+          <t>2024-08-29 10:41</t>
         </is>
       </c>
     </row>
@@ -2246,36 +2266,36 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>20240827</v>
+        <v>20240829</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>홍대 동교동 맛집 돈까스튀기는형</t>
+          <t>문래 알롱지서울 : 감성저격 디저트 카페</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/winendine2017/223562093859</t>
+          <t>https://blog.naver.com/ynncoco/223564686803</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>돈까스튀기는형 홍대점</t>
+          <t>알롱지서울</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>서울특별시 마포구 동교로 182-3 2층</t>
+          <t>서울특별시 영등포구 도림로 485-1 3층</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>#홍대맛집, #동교동맛집, #돈까스튀기는형, #홍대돈까스, #돈까스맛집, #홍대데이트, #홍대점심</t>
+          <t>#문래동카페, #알롱드서울, #영등포카페, #문래카페, #문래역카페, #르꼬르동블루, #문래디저트</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2024-08-27 19:59</t>
+          <t>2024-08-29 10:41</t>
         </is>
       </c>
     </row>
@@ -2286,36 +2306,36 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>20240827</v>
+        <v>20240829</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>부산 해운대 단체로 가기 좋은 회식 모임 장소 추천 (대관 가능)</t>
+          <t>[루이스케이터링] 연세대학교 과학관 심포지엄 커피다과 케이터링서비스</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/shgagu/223562309238</t>
+          <t>https://blog.naver.com/louis8315/223564685744</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>별밤 라이브</t>
+          <t>연세대학교 신촌캠퍼스과학관</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>부산광역시 해운대구 해운대해변로 293 3층</t>
+          <t>서울특별시 서대문구 연세로 50</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>#해운대회식, #해운대맛집, #해운대단체, #해운대단체모임, #해운대단체장소, #해운대단체회식, #해운대단체대관, #해운대대관, #해운대모임, #해운대회식장소, #해운대모임장소, #부산모임, #부산모임장소, #부산회식, #부산회식장소, #부산단체모임, #부산단체회식, #부산대관, #부산대관장소, #부산회식대관, #부산모임대관, #부산단체대관, #해운대별밤, #별밤라이브, #해운대별밤라이브</t>
+          <t>#연세대학교, #과학관, #심포지엄, #커피다과, #케이터링서비스, #케이터링가격, #다과케이터링, #워크숍케이터링, #대학교케이터링, #학회케이터링, #세미나케이터링, #신촌케이터링, #홍익대케이터링, #이화여대케이터링, #스타벅스케이터링, #던켄케이터링, #쿠키, #음료, #루이스프루타, #의전케이터링, #행사다과, #컨퍼런스케이터링, #아이스커피, #케이터링, #케이터링업체, #300잔, #500잔, #서울커피케이터링</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2024-08-27 19:59</t>
+          <t>2024-08-29 10:41</t>
         </is>
       </c>
     </row>
@@ -2326,36 +2346,36 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>20240827</v>
+        <v>20240829</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>공주떡볶이 스텔라맛있다 주현영떡볶이 신상차돌마라떡볶이</t>
+          <t>[창원_상남동] 뱅가드 / 매장에서 먹고 반해서 포장까지</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/yangz07/223562196319</t>
+          <t>https://blog.naver.com/th01-0/223562151184</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>스텔라떡볶이 충남공주점</t>
+          <t>뱅가드 상남본점</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>충청남도 공주시 무령로 222</t>
+          <t>경상남도 창원시 성산구 마디미로 39 1층 101호</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>#공주떡볶이, #공주튀김, #공주떡볶이맛집, #공주튀김맛집, #주현영떡볶이, #차돌마라떡볶이, #스텔라떡볶이충남공주점, #치즈가폭포처럼떡볶이, #스텔라떡볶이, #공주맛집, #공주분식맛집, #공주라볶이맛집, #공주마라떡볶이맛집, #공주마라로제떡볶이</t>
+          <t>#술집, #맛집, #신상술집, #안주맛집, #가성비, #재방문, #요리주점, #하이볼, #고량주, #창원술집, #창원맛집, #창원안주맛집, #창원뱅가드, #뱅가드, #상남동뱅가드, #창원새로오픈, #창원신상술집, #서이추, #서이추환영, #창원뱅가드동파육, #창원동파육, #창원유린기, #창원차돌짬뽕, #창원짬뽕, #상남동짬뽕, #창원해장, #창원술집추천</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2024-08-27 19:59</t>
+          <t>2024-08-29 10:41</t>
         </is>
       </c>
     </row>
@@ -2366,36 +2386,36 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>20240827</v>
+        <v>20240829</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>[창원 용호]창원 맛집 더램키친 호텔에비뉴본점, 북해도식 숯불양갈비 창원 회식장소 추천</t>
+          <t>::서울역 칼국수:: 밀본 서울역점ㅣ내돈내신 혼밥ㅣ칼국수세트</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/tearlessly/223562654568</t>
+          <t>https://blog.naver.com/star0827star/223564419915</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>더램키친 호텔에비뉴본점</t>
+          <t>밀본 서울역점</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>경상남도 창원시 성산구 용지로169번길 5 1층 램키친</t>
+          <t>서울특별시 용산구 청파로 378 3층 217호</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>#더램키친, #더램키친호텔에비뉴본점, #창원맛집, #창원용호동맛집, #용지호수맛집, #창원회식, #마산회식, #진해회식, #창원호텔에비뉴맛집</t>
+          <t>#서울역점심, #서울역저녁, #서울역혼밥, #서울혼밥, #서울점심, #서울저녁, #밀본, #밀본서울역점, #밀본칼국수, #밀본만두, #밀본녹두전, #밀본미쉐린, #미쉐린빕구르망, #밀본칼국수만두, #밀본혼밥, #밀본점심, #밀본저녁, #서울칼국수, #서울역칼국수, #서울만두, #서울역만두, #서울한식, #서울역한식</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2024-08-27 19:59</t>
+          <t>2024-08-29 10:41</t>
         </is>
       </c>
     </row>
@@ -2406,36 +2426,28 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>20240827</v>
+        <v>20240829</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>대구 대봉동 신상 카페 피플스커피랩 후기</t>
+          <t>인천 용현동 토지금고 메밀막국수 맛집 "시골막국수n옹심이"</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/donggue918/223562318679</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>피플스커피랩</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>대구광역시 중구 명륜로 120-1 1층 피플스커피 랩</t>
-        </is>
-      </c>
+          <t>https://blog.naver.com/hji_jw/223564455507</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>#대구카페, #대구커피맛집, #피플스커피랩, #피플스커피, #대봉동카페, #대구신상카페, #대구가오픈카페, #봉산동카페, #대구핫플</t>
+          <t>#인천용현동맛집, #인천용현동토지금고맛집, #용현동맛집, #토지금고맛집, #용현동메밀막국수, #토지금고메밀막국수, #서이추환영</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2024-08-27 19:59</t>
+          <t>2024-08-29 10:41</t>
         </is>
       </c>
     </row>
@@ -2446,36 +2458,32 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>20240826</v>
+        <v>20240828</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>동탄 낙지 맛집 리베라CC 근처에서 만난 매콤한 전골 빨간거짱구네</t>
+          <t>파주 야당 맛집 키누카누 파주점 무한리필 초밥뷔페</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/omytheo/223560996723</t>
+          <t>https://blog.naver.com/gomom75/223564333891</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>빨간거짱구네 동탄점</t>
+          <t>야당역 경의중앙선</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>경기도 화성시 동탄대로21가길 14-12 1층</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>['#빨간거짱구네', '#빨간거짱구네동탄', '#동탄낙지', '#동탄연포탕', '#동탄전골', '#동탄산낙지', '#동탄낙지맛집', '#화성산낙지', '#화성산낙지연포탕', '#화성맛집', '#영천동맛집', '#영천동산낙지', '#영천동산낙지연포탕', '#동탄낙지전골', '#동탄낙지요리', '#리베라CC', '#리베라CC맛집', '#리베라CC근처맛집', '#동탄회식', '#동탄모임', '#동탄단체']</t>
-        </is>
-      </c>
+          <t>경기도 파주시 소리천로 10</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2024-08-26 21:15</t>
+          <t>2024-08-29 10:22</t>
         </is>
       </c>
     </row>
@@ -2486,36 +2494,36 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>20240826</v>
+        <v>20240829</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>오류동 맛집 87닭강정 BTS도 배달시켜먹은 고척돔구장먹거리</t>
+          <t>[안산/고잔동 맛집] 무더위엔 이열치열 전골전문점 '목육탕' 술집</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/sconesss/223561515228</t>
+          <t>https://blog.naver.com/nn125/223564758979</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>87닭강정 오류동본점</t>
+          <t>목육탕</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>서울특별시 구로구 서해안로30길 17 87닭강정 오류동본점</t>
+          <t>경기도 안산시 단원구 광덕대로 154 1층 123호 ,124호</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>['#87닭강정', '#오류동맛집', '#오류동술집', '#오류동닭강정', '#오류동배달', '#고척돔포장', '#고척돔구장먹거리']</t>
+          <t>#고잔동맛집, #전골전문점, #수육전문점, #안산전골맛집, #안산수육전문점, #안산고잔동맛집, #고잔역맛집, #안산목육탕, #목육탕, #전골수육맛집, #회사스트레스, #고잔역목육탕, #중앙동맛집, #중앙역전골, #고잔역술집</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2024-08-26 21:15</t>
+          <t>2024-08-29 10:22</t>
         </is>
       </c>
     </row>
@@ -2526,36 +2534,36 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>20240826</v>
+        <v>20240829</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>진해 석동 고기집, 소금깎이ㅣ우대갈비 맛집</t>
+          <t>대구 동성로 라멘 맛집 멘지 토리파이탄 카라파이탄 후기</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/rwg1326/223561168488</t>
+          <t>https://blog.naver.com/autumn_eve/223564756754</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>소고기집 소금깎이 창원진해본점</t>
+          <t>멘지 대구동성로점</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>경상남도 창원시 진해구 동진로61번길 6 소고기집 소금깎이 창원진해본점</t>
+          <t>대구광역시 중구 동성로1길 12 1층</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>['#진해석동고기집', '#석동고기집', '#진해석동맛집', '#소금깎이', '#진해소금깎이', '#진해고기집']</t>
+          <t>#동성로맛집, #대구동성로맛집, #반월당맛집, #동성로밥집, #대구시내맛집, #동성로라멘, #대구동성로라멘맛집, #대구라멘맛집, #멘지대구동성로점</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2024-08-26 21:15</t>
+          <t>2024-08-29 10:22</t>
         </is>
       </c>
     </row>
@@ -2566,28 +2574,36 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>20240826</v>
+        <v>20240829</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>정관장 홍삼원기&amp;력 솔직후기! 부모님 건강 선물 추천 아이템♥</t>
+          <t>속초 맛집 추천 &lt;남경막국수 본점&gt; 혼밥, 메뉴, 주차, 주말 웨이팅</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/goldtime30/223561104334</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
+          <t>https://blog.naver.com/g_sorry/223564751884</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>남경막국수 본점</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>강원특별자치도 속초시 대포항희망길 47 남경막국수</t>
+        </is>
+      </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>['#정관장홍삼원기', '#정관장홍삼원력']</t>
+          <t>#속초여행, #속초맛집, #대포항맛집, #속초대포항맛집, #강원도맛집, #속초막국수맛집, #강원도막국수맛집, #대포항막국수맛집, #속초남경막국수, #남경막국수본점, #강원도남경막국수, #남경막국수혼밥, #남경막국수메뉴, #남경막국수주차, #내돈내산, #속초혼자여행, #속초가볼만한곳</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2024-08-26 21:15</t>
+          <t>2024-08-29 10:22</t>
         </is>
       </c>
     </row>
@@ -2598,36 +2614,36 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>20240826</v>
+        <v>20240829</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>구디 곱창 힙한 레트로 감성과 뛰어난 맛 세광양대창</t>
+          <t>거제고현시장 가볼만한곳 순대리아먹고 로또사고</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/gyunghoony/223561089849</t>
+          <t>https://blog.naver.com/jeonju1400/223564747751</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>세광양대창 구로디지털점</t>
+          <t>거제고현시장</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>서울특별시 구로구 디지털로32나길 7 2층</t>
+          <t>경상남도 거제시 거제중앙로17길 6</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>['#구디곱창', '#깔깔거리', '#세광양대창']</t>
+          <t>#거제고현시장, #거제고현시장가볼만한곳, #거제순대리아, #거제고현시장순대리아, #거제고현시장순대</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2024-08-26 21:15</t>
+          <t>2024-08-29 10:22</t>
         </is>
       </c>
     </row>
@@ -2638,28 +2654,36 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>20240826</v>
+        <v>20240829</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>특급이던 강남 맛집</t>
+          <t>성수 술집 포도젝트 감각적인 분위기의 와인바 퓨전한식 맛집 후기</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/looosajoo/223561058821</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
+          <t>https://blog.naver.com/rose_s_blog/223564743294</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>포도젝트</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>서울특별시 성동구 뚝섬로7길 7-1 1층(성수동2가)</t>
+        </is>
+      </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>['#강남맛집', '#태양곱창신논현']</t>
+          <t>#성수술집, #성수동술집, #성수동와인바, #성수와인바, #성수핫플, #성수맛집, #성수와인, #성수동와인, #성수루프탑, #성수루프탑술집, #성수술집추천, #성수소개팅, #성수데이트맛집, #성수동맛집, #성수핫플술집, #성수가볼만한곳, #성수분위기좋은술집, #포도젝트, #성수포도젝트, #성수놀거리, #상수칵테일</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2024-08-26 21:15</t>
+          <t>2024-08-29 10:22</t>
         </is>
       </c>
     </row>
@@ -2670,36 +2694,36 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>20240826</v>
+        <v>20240829</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>하남미사 잡내없이 부드러운 양꼬치맛집 어린양양꼬치 하남미사점 내돈내산 | 맛추천</t>
+          <t>[수유역 술집] 수유 룸술집 프라이빗한 와인바 안주 맛집 아이엠</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/eating_review/223561653511</t>
+          <t>https://blog.naver.com/cbs0519/223564740594</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>어린양양꼬치 하남미사점</t>
+          <t>아이엠</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>경기도 하남시 미사강변중앙로 174 효성해링턴타워레이크파크 2층 205호, 206호</t>
+          <t>서울특별시 강북구 노해로 41 동아빌딩 2층</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>['#어린양양꼬치하남미사', '#어린양양꼬치하남미사점', '#어린양양꼬치', '#양꼬치맛집', '#미사양꼬치맛집', '#하남양꼬치맛집', '#미사양꼬치', '#하남양꼬치', '#미사꿔바로우맛집', '#하남꿔바로우맛집', '#하남양고기맛집', '#미사양고기맛집']</t>
+          <t>#수유역맛집, #수유역술집, #아이엠, #수유아이엠, #수유역와인바, #수유역전통주, #트러플크림뇨끼, #라구파스타, #수유와인바, #수유전통주, #수유룸술집</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2024-08-26 21:15</t>
+          <t>2024-08-29 10:22</t>
         </is>
       </c>
     </row>
@@ -2710,36 +2734,32 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>20240826</v>
+        <v>20240829</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>부평맛집, 돈까스맛집 추천 솜솜카츠 부평본점! 혼밥가능</t>
+          <t>ㅎㅂㅈ시리즈4) 인천 차이나타운 옆 역사깊은 간짜장 노포 ㅡ 혜빈장</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/gkqvl12/223561472014</t>
+          <t>https://blog.naver.com/nutz/223564716593</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>솜솜카츠 부평본점</t>
+          <t>혜빈장</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>인천광역시 부평구 부평대로20번길 21 2층</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>['#부평맛집', '#돈까스맛집', '#부평문화의거리맛집', '#솜솜카츠부평본점', '#부평돈까스맛집', '#부평돈까스', '#부평데이트', '#부평문화의거리', '#로제우동카츠', '#가쓰오새우튀김우동카츠', '#짬뽕카츠']</t>
-        </is>
-      </c>
+          <t>인천광역시 중구 참외전로13번길 21</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2024-08-26 21:15</t>
+          <t>2024-08-29 10:22</t>
         </is>
       </c>
     </row>
@@ -2750,36 +2770,32 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>20240814</v>
+        <v>20240829</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>장성동 냉면 맛집 장성면옥 해물타운(구 교동면옥)</t>
+          <t>[일상] 출산 전 마지막 용산 데이트 화덕피자 맛집 도만다</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/happy__963/223561361371</t>
+          <t>https://blog.naver.com/mrsmanzae/223564714610</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>장성면옥해물타운</t>
+          <t>도만다 신용산점</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t xml:space="preserve">경상북도 포항시 북구 신덕로 291 </t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>['#포항북구맛집', '#장성동맛집', '#북구밥집', '#장성동밥집', '#포항북구냉면', '#장성면옥', '#장성면옥해물타운', '#포항양덕냉면']</t>
-        </is>
-      </c>
+          <t>서울특별시 용산구 한강대로 100 지하1층 B103호</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2024-08-26 21:15</t>
+          <t>2024-08-29 10:22</t>
         </is>
       </c>
     </row>
@@ -2790,36 +2806,36 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>20240826</v>
+        <v>20240829</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>평택 서정리 맛집 보양식 싱싱한 해물 바다를 품은 해적선</t>
+          <t>말차맛집찾아 급으로 찾아간 북한강변 예쁜카페 녹화(綠化)</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/juuu-s/223561347292</t>
+          <t>https://blog.naver.com/aziraelhs/223564709624</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>바다를 품은 해적선 평택본점</t>
+          <t>녹화</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>경기도 평택시 서정역로 3-1 풍대빌딩 1층 바다를품은해적선</t>
+          <t>경기도 남양주시 화도읍 북한강로 1171 녹화</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>['#평택맛집', '#고덕맛집', '#서정리맛집', '#바다를품은해적선', '#평택보여양식', '#평택해물탕']</t>
+          <t>#녹화, #녹화카페, #남양주카페, #북한강변카페, #북한강녹화, #북한강녹화카페, #나만알고싶은카페, #말차빙수, #말차라떼, #말차빙수맛집, #말차라떼맛집, #말차치즈케이크, #북한걍뷰, #뷰맛집, #애견동반카페</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2024-08-26 21:15</t>
+          <t>2024-08-29 10:22</t>
         </is>
       </c>
     </row>
@@ -2830,36 +2846,36 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>20240826</v>
+        <v>20240827</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>대전 성심당 케익부띠크 빵 추천 순수마들렌</t>
+          <t>여의도 한우 오마카세 데이트 맛집 고청담 최고였어요</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/ggoulggoul/223561240064</t>
+          <t>https://blog.naver.com/stiearth/223562147099</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>성심당 케익부띠끄</t>
+          <t>고청담 여의도점</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>대전광역시 중구 대종로 480</t>
+          <t>서울특별시 영등포구 국제금융로 39 지하1층 101호</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>['#대전성심당', '#대전성심당케익부띠끄', '#케익부띠끄명예의전당', '#성심당케익부띠끄줄', '#성심당케익부띠끄빵', '#성심당케익부띠끄메뉴', '#순수마들렌', '#성심당순수마들렌', '#케익부띠끄빵추천', '#성심당빵추천', '#초코미마들렌', '#2024명예의전당', '#순수마들렌가격']</t>
+          <t>#여의도데이트맛집고청담, #여의도데이트맛집, #여의도더현대근처맛집, #여의도더현대맛집, #여의도룸식당, #서이추, #서로이웃환영, #소통, #여의도한우오마카세, #여의도한우오마카세맛집</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2024-08-26 21:15</t>
+          <t>2024-08-27 19:59</t>
         </is>
       </c>
     </row>
@@ -2870,36 +2886,36 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>20240826</v>
+        <v>20240827</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>홍대 술집, '락소울윙'에서 즐기는 맞춤형 칵테일</t>
+          <t>부산 중구 남포동맛집 화덕피자 파스타 데이트 맛집 루아앤티그리 광복점 찐후기</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/gintonicdays/223560924564</t>
+          <t>https://blog.naver.com/imthankful_/223562770661</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>락소울윙</t>
+          <t>루아앤티그리 광복점</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>서울특별시 마포구 와우산로21길 26 2층</t>
+          <t>부산광역시 중구 용미길10번길 1 1, 2층</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>['#락소울윙', '#홍대술집', '#홍대칵테일', '#홍대칵테일바', '#홍대데이트', '#홍대이색데이트', '#홍대핫플레이스', '#칵테일오마카세', '#커스텀칵테일', '#포토존술집', '#홍대이색술집', '#데킬라샷']</t>
+          <t>#부산중구맛집, #부산남포동맛집, #남포동화덕피자, #남포동파스타, #남포동데이트, #루아앤티그리광복점, #서이추환영, #소통</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2024-08-26 21:15</t>
+          <t>2024-08-27 19:59</t>
         </is>
       </c>
     </row>
@@ -2910,28 +2926,36 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>20240826</v>
+        <v>20240827</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>추석 명절 장어 선물세트 추천</t>
+          <t>광주 광천터미널 맛집 20년 전통 로컬 엄마 손맛 한식 집밥 추천 농성동 시골집</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/mming_19/223560894360</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
+          <t>https://blog.naver.com/panic9861/223562696835</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>시골집</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>광주광역시 서구 내방로398번길 4</t>
+        </is>
+      </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>['#장어선물세트', '#명절선물세트', '#여름보양식', '#장어구이', '#초벌장어', '#자포니카장어', '#상견례선물', '#장어초벌구이', '#손질장어', '#민물장어구이', '#집에서장어구이', '#장어맛집', '#민물장어1KG', '#집들이음식', '#밀키트']</t>
+          <t>#광천터미널맛집, #광천터미널근처맛집, #광주광천맛집, #광천터미널점심, #농성동맛집, #시골집, #광주맛집, #광주한식, #광주단체식당, #광주엄마손맛</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2024-08-26 21:15</t>
+          <t>2024-08-27 19:59</t>
         </is>
       </c>
     </row>
@@ -2942,36 +2966,36 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>20240826</v>
+        <v>20240827</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>여의도 한식 맛집 저녁 룸식당 단체 회식 장소 추천 고우가 오마카세</t>
+          <t>연남 횟집 신선한 회와 가성비 연남광안리</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/banglang93/223560853662</t>
+          <t>https://blog.naver.com/gyunghoony/223562442199</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>고우가 여의도점</t>
+          <t>연남광안리</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>서울특별시 영등포구 여의대로 24 FKI타워 B1</t>
+          <t>서울특별시 마포구 동교로 258-1 1층 연남광안리</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>['#여의도한식', '#여의도맛집', '#여의도룸식당', '#여의도단체회식', '#더현대맛집', '#IFC몰맛집', '#여의도소고기', '#한우오마카세', '#고우가']</t>
+          <t>#연남횟집, #연남광안리</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2024-08-26 21:15</t>
+          <t>2024-08-27 19:59</t>
         </is>
       </c>
     </row>
@@ -2982,36 +3006,36 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>20240826</v>
+        <v>20240827</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>경산 옥곡동 맛집 류일관 백짬뽕 탕수육 후기 주차꿀팁까지</t>
+          <t>청주 옥산 빵집 3대째 운영중인 빵굽는마을 내돈내먹</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/seoyae9722/223561653553</t>
+          <t>https://blog.naver.com/ss2ung/223562112242</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>류일관 경산점</t>
+          <t>빵굽는마을</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>경상북도 경산시 경산로7길 14-3 1층</t>
+          <t>충청북도 청주시 흥덕구 옥산면 옥산시내1길 37</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>['#옥곡동맛집', '#옥곡동중식맛집', '#옥곡동류일관']</t>
+          <t>#빵지순례, #전국빵지순례, #청주빵지순례, #청주빵집, #청주빵굽는마을, #빵굽는마을, #옥산빵굽는마을, #옥산빵집</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2024-08-26 21:15</t>
+          <t>2024-08-27 19:59</t>
         </is>
       </c>
     </row>
@@ -3022,28 +3046,36 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>20240826</v>
+        <v>20240827</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>이영자매운마늘갈비찜 온작 추천</t>
+          <t>홍대 동교동 맛집 돈까스튀기는형</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/kyung2ziyo/223561596310</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
+          <t>https://blog.naver.com/winendine2017/223562093859</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>돈까스튀기는형 홍대점</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>서울특별시 마포구 동교로 182-3 2층</t>
+        </is>
+      </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>['#매운마늘갈비찜', '#매운갈비찜', '#이영자매운마늘갈비찜', '#이영자갈비찜', '#대구매운갈비찜', '#동인동찜갈비', '#갈비찜추천']</t>
+          <t>#홍대맛집, #동교동맛집, #돈까스튀기는형, #홍대돈까스, #돈까스맛집, #홍대데이트, #홍대점심</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2024-08-26 21:15</t>
+          <t>2024-08-27 19:59</t>
         </is>
       </c>
     </row>
@@ -3054,36 +3086,36 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>20240826</v>
+        <v>20240827</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>인천몸보신 삼계탕 맛집 이우철한방누룽지삼계탕</t>
+          <t>부산 해운대 단체로 가기 좋은 회식 모임 장소 추천 (대관 가능)</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/bigcatchloe/223561551918</t>
+          <t>https://blog.naver.com/shgagu/223562309238</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>이우철한방누룽지삼계탕 서구가좌점</t>
+          <t>별밤 라이브</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>인천광역시 서구 건지로399번길 28 1층</t>
+          <t>부산광역시 해운대구 해운대해변로 293 3층</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>['#1', '#2', '#3', '#4', '#인천삼계탕맛집', '#인천산곡동맛집', '#인천가좌동맛집', '#인천몸보신', '#초복', '#중복', '#말복', '#인천가족외식', '#인천모임장소', '#인천가성비맛집', '#이우철한방누룽지삼계탕']</t>
+          <t>#해운대회식, #해운대맛집, #해운대단체, #해운대단체모임, #해운대단체장소, #해운대단체회식, #해운대단체대관, #해운대대관, #해운대모임, #해운대회식장소, #해운대모임장소, #부산모임, #부산모임장소, #부산회식, #부산회식장소, #부산단체모임, #부산단체회식, #부산대관, #부산대관장소, #부산회식대관, #부산모임대관, #부산단체대관, #해운대별밤, #별밤라이브, #해운대별밤라이브</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2024-08-26 21:15</t>
+          <t>2024-08-27 19:59</t>
         </is>
       </c>
     </row>
@@ -3094,36 +3126,36 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>20240826</v>
+        <v>20240827</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>경기광주 대형카페 베이커리 찐맛집 신현동 제주베어하우스</t>
+          <t>공주떡볶이 스텔라맛있다 주현영떡볶이 신상차돌마라떡볶이</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/matcumentary/223561424643</t>
+          <t>https://blog.naver.com/yangz07/223562196319</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>제주베어하우스</t>
+          <t>스텔라떡볶이 충남공주점</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>경기도 광주시 머루숯길 91-29 제주베어하우스</t>
+          <t>충청남도 공주시 무령로 222</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>['#경기광주카페', '#경기광주대형카페', '#경기광주베이커리', '#신현동카페', '#제주베어하우스']</t>
+          <t>#공주떡볶이, #공주튀김, #공주떡볶이맛집, #공주튀김맛집, #주현영떡볶이, #차돌마라떡볶이, #스텔라떡볶이충남공주점, #치즈가폭포처럼떡볶이, #스텔라떡볶이, #공주맛집, #공주분식맛집, #공주라볶이맛집, #공주마라떡볶이맛집, #공주마라로제떡볶이</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2024-08-26 21:15</t>
+          <t>2024-08-27 19:59</t>
         </is>
       </c>
     </row>
@@ -3134,36 +3166,36 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>20240826</v>
+        <v>20240827</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>인천퍼스널컬러 메이크업 체형 솔루션까지 꼼꼼한 퍼스널컬러리스타 부천점</t>
+          <t>[창원 용호]창원 맛집 더램키친 호텔에비뉴본점, 북해도식 숯불양갈비 창원 회식장소 추천</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/ss2ung/223561190149</t>
+          <t>https://blog.naver.com/tearlessly/223562654568</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>퍼스널컬러리스타 부천본점</t>
+          <t>더램키친 호텔에비뉴본점</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>경기도 부천시 원미구 부일로 204</t>
+          <t>경상남도 창원시 성산구 용지로169번길 5 1층 램키친</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>['#인천퍼스널컬러', '#부천퍼스널컬러', '#퍼스널컬러', '#겨울쿨톤', '#겨울쿨톤브라이트', '#퍼스널컬러리스타부천본점', '#부천메이크업', '#부천체형컨설팅', '#퍼스널컬러컨설팅']</t>
+          <t>#더램키친, #더램키친호텔에비뉴본점, #창원맛집, #창원용호동맛집, #용지호수맛집, #창원회식, #마산회식, #진해회식, #창원호텔에비뉴맛집</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2024-08-26 21:15</t>
+          <t>2024-08-27 19:59</t>
         </is>
       </c>
     </row>
@@ -3174,36 +3206,36 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>20240826</v>
+        <v>20240827</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>상암 DMC 맛집 단체회식 고기집 월화고기 무주 표고삼합</t>
+          <t>대구 대봉동 신상 카페 피플스커피랩 후기</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/piil/223560991597</t>
+          <t>https://blog.naver.com/donggue918/223562318679</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>월화고기 상암 직영1호점</t>
+          <t>피플스커피랩</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>서울특별시 마포구 매봉산로2안길 12-6</t>
+          <t>대구광역시 중구 명륜로 120-1 1층 피플스커피 랩</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>['#상암DMC맛집', '#고기집', '#단체회식', '#상암DMC고기집', '#상암DMC단체회식', '#상암동맛집', '#상암디엠씨맛집', '#월화고기']</t>
+          <t>#대구카페, #대구커피맛집, #피플스커피랩, #피플스커피, #대봉동카페, #대구신상카페, #대구가오픈카페, #봉산동카페, #대구핫플</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2024-08-26 21:15</t>
+          <t>2024-08-27 19:59</t>
         </is>
       </c>
     </row>
@@ -3218,27 +3250,27 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>잠실 돼지갈비 맛집 담은갈비 주차 점심특선 솔직 후기</t>
+          <t>동탄 낙지 맛집 리베라CC 근처에서 만난 매콤한 전골 빨간거짱구네</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/yessed/223561133050</t>
+          <t>https://blog.naver.com/omytheo/223560996723</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>담은갈비</t>
+          <t>빨간거짱구네 동탄점</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>서울특별시 송파구 삼전로 93 태정빌딩</t>
+          <t>경기도 화성시 동탄대로21가길 14-12 1층</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['#빨간거짱구네', '#빨간거짱구네동탄', '#동탄낙지', '#동탄연포탕', '#동탄전골', '#동탄산낙지', '#동탄낙지맛집', '#화성산낙지', '#화성산낙지연포탕', '#화성맛집', '#영천동맛집', '#영천동산낙지', '#영천동산낙지연포탕', '#동탄낙지전골', '#동탄낙지요리', '#리베라CC', '#리베라CC맛집', '#리베라CC근처맛집', '#동탄회식', '#동탄모임', '#동탄단체']</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3258,27 +3290,27 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>선릉역 고기집 김돈이 본점 단체회식으로 좋은 제주 흑돼지 맛집</t>
+          <t>오류동 맛집 87닭강정 BTS도 배달시켜먹은 고척돔구장먹거리</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/yblove-/223561094263</t>
+          <t>https://blog.naver.com/sconesss/223561515228</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>김돈이 본점</t>
+          <t>87닭강정 오류동본점</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>서울특별시 강남구 선릉로94길 9</t>
+          <t>서울특별시 구로구 서해안로30길 17 87닭강정 오류동본점</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['#87닭강정', '#오류동맛집', '#오류동술집', '#오류동닭강정', '#오류동배달', '#고척돔포장', '#고척돔구장먹거리']</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3298,27 +3330,27 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>강남역 소고기 룸식당 한우부티크 서울 강남역 5번출구 맛집</t>
+          <t>진해 석동 고기집, 소금깎이ㅣ우대갈비 맛집</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/dkssudh1004/223561078699</t>
+          <t>https://blog.naver.com/rwg1326/223561168488</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>한우부티크 강남점</t>
+          <t>소고기집 소금깎이 창원진해본점</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>서울특별시 서초구 서초대로78길 38 8층</t>
+          <t>경상남도 창원시 진해구 동진로61번길 6 소고기집 소금깎이 창원진해본점</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>['#강남역소고기', '#강남역맛집', '#강남역소고기맛집', '#한우부티크', '#강남역5번출구맛집']</t>
+          <t>['#진해석동고기집', '#석동고기집', '#진해석동맛집', '#소금깎이', '#진해소금깎이', '#진해고기집']</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3338,27 +3370,19 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>부산 장어덮밥 맛집 광안리 밥집 추천 고옥 히츠마부시</t>
+          <t>정관장 홍삼원기&amp;력 솔직후기! 부모님 건강 선물 추천 아이템♥</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/1_nly/223560967092</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>고옥</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>부산광역시 수영구 광남로 6</t>
-        </is>
-      </c>
+          <t>https://blog.naver.com/goldtime30/223561104334</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
-          <t>['#부산장어덮밥', '#부산장어덮밥맛집', '#부산맛집', '#부산밥집', '#부산광안리밥집', '#광안리밥집', '#광안리맛집', '#고옥', '#부산고옥', '#부산히츠마부시', '#고옥히츠마부시', '#부산장어덮밥고옥', '#광안리밥집추천']</t>
+          <t>['#정관장홍삼원기', '#정관장홍삼원력']</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3378,27 +3402,27 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>쌍문역 샤브샤브 샤브마을 무제한 신선한 샤브맛집</t>
+          <t>구디 곱창 힙한 레트로 감성과 뛰어난 맛 세광양대창</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/1-986/223560885252</t>
+          <t>https://blog.naver.com/gyunghoony/223561089849</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>샤브마을</t>
+          <t>세광양대창 구로디지털점</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>서울특별시 도봉구 도봉로 445 지상1층 101호</t>
+          <t>서울특별시 구로구 디지털로32나길 7 2층</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['#구디곱창', '#깔깔거리', '#세광양대창']</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -3418,27 +3442,19 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>대전 둔산동 한식 쭈꾸미 칼국수 단골 맛집 보끄미 추천</t>
+          <t>특급이던 강남 맛집</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/bible3544/223561534463</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>보끄미 둔산점</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>대전광역시 서구 대덕대로242번길 15 둔산의 아침</t>
-        </is>
-      </c>
+          <t>https://blog.naver.com/looosajoo/223561058821</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
-          <t>['#대전맛집', '#대전둔산동맛집', '#둔산동맛집', '#둔산동칼국수', '#대전쭈꾸미', '#쭈꾸미맛집', '#대전쭈꾸미맛집', '#대전둔산동칼국수', '#대전둔산동데이트', '#한식맛집', '#둔산동쭈꾸미맛집', '#보끄미', '#쭈꾸미칼국수', '#둔산동단골맛집', '#둔산동맛집추천', '#대전맛집추천']</t>
+          <t>['#강남맛집', '#태양곱창신논현']</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -3458,27 +3474,27 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>강남 신세계백화점 맛집 고속터미널 파미에스테이션 맛집 하우스오브신세계 장어덮밥 키쿠카와</t>
+          <t>하남미사 잡내없이 부드러운 양꼬치맛집 어린양양꼬치 하남미사점 내돈내산 | 맛추천</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/yen_tudio/223561445499</t>
+          <t>https://blog.naver.com/eating_review/223561653511</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>우나기 욘다이메 키쿠카와</t>
+          <t>어린양양꼬치 하남미사점</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>서울특별시 서초구 신반포로 176 지하1층 식품관 하우스 오브 신세계</t>
+          <t>경기도 하남시 미사강변중앙로 174 효성해링턴타워레이크파크 2층 205호, 206호</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>['#강남신세계백화점맛집', '#고속터미널파미에스테이션맛집', '#고터파미에스테이션맛집', '#하우스오브신세계', '#강남신세계장어덮밥', '#키쿠카와', '#키쿠카와장어덮밥', '#파미에스테이션장어덮밥', '#파미에스테이션맛집', '#하우스오브신세계맛집']</t>
+          <t>['#어린양양꼬치하남미사', '#어린양양꼬치하남미사점', '#어린양양꼬치', '#양꼬치맛집', '#미사양꼬치맛집', '#하남양꼬치맛집', '#미사양꼬치', '#하남양꼬치', '#미사꿔바로우맛집', '#하남꿔바로우맛집', '#하남양고기맛집', '#미사양고기맛집']</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -3498,27 +3514,27 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>인천 부평시장역 맛집 세겹살 단골 부평 고기집</t>
+          <t>부평맛집, 돈까스맛집 추천 솜솜카츠 부평본점! 혼밥가능</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/tomorrow_2/223561112495</t>
+          <t>https://blog.naver.com/gkqvl12/223561472014</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>세겹살</t>
+          <t>솜솜카츠 부평본점</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>인천광역시 부평구 부흥로 257-11 1층</t>
+          <t>인천광역시 부평구 부평대로20번길 21 2층</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>['#포토덤프챌린지', '#스페셜포토덤프', '#세겹살', '#부평세겹살', '#부평시장역맛집', '#부평고기집', '#부평시장맛집', '#부평역고기집']</t>
+          <t>['#부평맛집', '#돈까스맛집', '#부평문화의거리맛집', '#솜솜카츠부평본점', '#부평돈까스맛집', '#부평돈까스', '#부평데이트', '#부평문화의거리', '#로제우동카츠', '#가쓰오새우튀김우동카츠', '#짬뽕카츠']</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -3534,31 +3550,31 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>20240826</v>
+        <v>20240814</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>강남역 소고기맛집 프라이빗 룸식당 데이트코스 추천 한우부티크</t>
+          <t>장성동 냉면 맛집 장성면옥 해물타운(구 교동면옥)</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/jo_hee___/223561077772</t>
+          <t>https://blog.naver.com/happy__963/223561361371</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>한우부티크 강남점</t>
+          <t>장성면옥해물타운</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>서울특별시 서초구 서초대로78길 38 8층</t>
+          <t xml:space="preserve">경상북도 포항시 북구 신덕로 291 </t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>['#강남역소고기맛집', '#강남데이트코스', '#강남역룸식당', '#강남역데이트', '#강남한우맛집', '#한우부티크', '#강남역맛집추천']</t>
+          <t>['#포항북구맛집', '#장성동맛집', '#북구밥집', '#장성동밥집', '#포항북구냉면', '#장성면옥', '#장성면옥해물타운', '#포항양덕냉면']</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -3578,27 +3594,27 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>인천 삼산동 점심 맛집 파스타1번지 저녁에는 생맥주이벤트래요</t>
+          <t>평택 서정리 맛집 보양식 싱싱한 해물 바다를 품은 해적선</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/hahahasystem/223561068973</t>
+          <t>https://blog.naver.com/juuu-s/223561347292</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>파스타1번지 삼산점</t>
+          <t>바다를 품은 해적선 평택본점</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>인천광역시 부평구 충선로209번길 13 SM프라자 2층 파스타1번지</t>
+          <t>경기도 평택시 서정역로 3-1 풍대빌딩 1층 바다를품은해적선</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>['#삼산동맛집', '#부평구청맛집', '#굴포천맛집', '#삼산동파스타', '#굴포천피자', '#굴포천데이트', '#삼산동데이트']</t>
+          <t>['#평택맛집', '#고덕맛집', '#서정리맛집', '#바다를품은해적선', '#평택보여양식', '#평택해물탕']</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -3618,27 +3634,27 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>인천 삼산동 점심 맛집 파스타1번지 저녁에는 생맥주이벤트래요</t>
+          <t>대전 성심당 케익부띠크 빵 추천 순수마들렌</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/hahahasystem/223561068973</t>
+          <t>https://blog.naver.com/ggoulggoul/223561240064</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>파스타1번지 삼산점</t>
+          <t>성심당 케익부띠끄</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>인천광역시 부평구 충선로209번길 13 SM프라자 2층 파스타1번지</t>
+          <t>대전광역시 중구 대종로 480</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>['#삼산동맛집', '#부평구청맛집', '#굴포천맛집', '#삼산동파스타', '#굴포천피자', '#굴포천데이트', '#삼산동데이트']</t>
+          <t>['#대전성심당', '#대전성심당케익부띠끄', '#케익부띠끄명예의전당', '#성심당케익부띠끄줄', '#성심당케익부띠끄빵', '#성심당케익부띠끄메뉴', '#순수마들렌', '#성심당순수마들렌', '#케익부띠끄빵추천', '#성심당빵추천', '#초코미마들렌', '#2024명예의전당', '#순수마들렌가격']</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -3658,27 +3674,27 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>하안동 국수 생각보다 맛있는집 냉콩국수 후기</t>
+          <t>홍대 술집, '락소울윙'에서 즐기는 맞춤형 칵테일</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/sconesss/223561034972</t>
+          <t>https://blog.naver.com/gintonicdays/223560924564</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>생각보다맛있는집 광명점</t>
+          <t>락소울윙</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>경기도 광명시 범안로 1030 1층</t>
+          <t>서울특별시 마포구 와우산로21길 26 2층</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>['#생각보다맛있는집', '#광명맛집', '#광명점심', '#하안동맛집', '#하안동점심', '#하안동포장', '#광명국수']</t>
+          <t>['#락소울윙', '#홍대술집', '#홍대칵테일', '#홍대칵테일바', '#홍대데이트', '#홍대이색데이트', '#홍대핫플레이스', '#칵테일오마카세', '#커스텀칵테일', '#포토존술집', '#홍대이색술집', '#데킬라샷']</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -3698,27 +3714,19 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>제주 중문맛집 중문고등어쌈밥 관광객 단체식당 추천</t>
+          <t>추석 명절 장어 선물세트 추천</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/asdre74/223560960808</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>중문고등어쌈밥</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>제주특별자치도 서귀포시 일주서로 1240 1층</t>
-        </is>
-      </c>
+          <t>https://blog.naver.com/mming_19/223560894360</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr">
         <is>
-          <t>['#제주맛집', '#제주중문맛집', '#제주단체식당', '#중문단체식당', '#서귀포맛집', '#고등어쌈밥', '#중문고등어쌈밥', '#제주고등어조림', '#제주조림맛집', '#제주고등어쌈밥', '#제주서귀포맛집', '#서귀포고등어조림', '#서귀포단체식당', '#서귀포단체예약']</t>
+          <t>['#장어선물세트', '#명절선물세트', '#여름보양식', '#장어구이', '#초벌장어', '#자포니카장어', '#상견례선물', '#장어초벌구이', '#손질장어', '#민물장어구이', '#집에서장어구이', '#장어맛집', '#민물장어1KG', '#집들이음식', '#밀키트']</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -3738,27 +3746,27 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>천안독립기념관맛집 브런치하기 좋은 곳 어나더카페</t>
+          <t>여의도 한식 맛집 저녁 룸식당 단체 회식 장소 추천 고우가 오마카세</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/localdaek/223560876726</t>
+          <t>https://blog.naver.com/banglang93/223560853662</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>어나더카페</t>
+          <t>고우가 여의도점</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>충청남도 천안시 동남구 목천읍 서리1길 89 1층</t>
+          <t>서울특별시 영등포구 여의대로 24 FKI타워 B1</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>['#천안목천카페어나더카페', '#천안독립기념관맛집', '#어나더카페']</t>
+          <t>['#여의도한식', '#여의도맛집', '#여의도룸식당', '#여의도단체회식', '#더현대맛집', '#IFC몰맛집', '#여의도소고기', '#한우오마카세', '#고우가']</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -3778,27 +3786,27 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>[모두랑 수제 찹쌀떡] 운정 해오름 마을 떡 맛집 파주쌀로 만든 수제 크림 찹쌀떡</t>
+          <t>경산 옥곡동 맛집 류일관 백짬뽕 탕수육 후기 주차꿀팁까지</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/alwaysbehappy8493/223561499026</t>
+          <t>https://blog.naver.com/seoyae9722/223561653553</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>모두랑 수제 찹쌀떡</t>
+          <t>류일관 경산점</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>경기도 파주시 해올1길 31 이타워2 지하1층 B03호</t>
+          <t>경상북도 경산시 경산로7길 14-3 1층</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>['#파주떡집', '#파주교하떡집', '#파주찹쌀떡', '#운정찹쌀떡', '#운정인절미', '#운정찐빵', '#파주찐빵', '#다율동떡집', '#파주인절미', '#파주간식', '#파주답례떡', '#운정답례떡', '#운정떡집', '#운정맛집', '#교하맛집', '#수제찹쌀떡', '#수제인절미', '#수제찐빵']</t>
+          <t>['#옥곡동맛집', '#옥곡동중식맛집', '#옥곡동류일관']</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -3818,27 +3826,19 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>신사역술집 가로수길술집추천 갓성비술집 생맥주 1900원 단체회식장소로도 좋은 mz느낌 트렌디한 한식주점 도산회동</t>
+          <t>이영자매운마늘갈비찜 온작 추천</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/dope_guy/223561458599</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>도산회동</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>서울특별시 강남구 강남대로156길 46 2층3층(신사동)</t>
-        </is>
-      </c>
+          <t>https://blog.naver.com/kyung2ziyo/223561596310</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr">
         <is>
-          <t>['#가로수길맛집', '#신사술집', '#신사역술집', '#가로수길술집추천', '#갓성비술집', '#가성비술집', '#신사역데이트코스', '#신사역단체회식장소', '#신사단체회식', '#신사동단체회식', '#신사동모임장소', '#신사동한식', '#신사역핫플레이스', '#신사동핫플', '#신사동핫플레이스', '#신사애견동반', '#가로수길모임', '#가로수길모임장소', '#신사역핫플', '#도산회동', '#가로수길핫플', '#가로수길맛집추천', '#가로수길데이트코스', '#가로수길단체술집', '#가로수길회식장소', '#가로수길뜨는맛집', '#가로수길뜨는술집']</t>
+          <t>['#매운마늘갈비찜', '#매운갈비찜', '#이영자매운마늘갈비찜', '#이영자갈비찜', '#대구매운갈비찜', '#동인동찜갈비', '#갈비찜추천']</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -3858,27 +3858,27 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>안성 돈까스 맛집 파스타 한경대 아양동 경양카츠</t>
+          <t>인천몸보신 삼계탕 맛집 이우철한방누룽지삼계탕</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/taengbong89/223561311877</t>
+          <t>https://blog.naver.com/bigcatchloe/223561551918</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>경양카츠 안성점</t>
+          <t>이우철한방누룽지삼계탕 서구가좌점</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>경기도 안성시 아양1로 77-31 1층 112호</t>
+          <t>인천광역시 서구 건지로399번길 28 1층</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>['#안성한경대파스타', '#안성아양동파스타', '#안성경양카츠', '#안성파스타맛집', '#안성돈까스맛집', '#안성파스타', '#안성돈까스']</t>
+          <t>['#1', '#2', '#3', '#4', '#인천삼계탕맛집', '#인천산곡동맛집', '#인천가좌동맛집', '#인천몸보신', '#초복', '#중복', '#말복', '#인천가족외식', '#인천모임장소', '#인천가성비맛집', '#이우철한방누룽지삼계탕']</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -3898,27 +3898,27 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>제천 리솜 포레스트 식당 바베큐 삼겹살 맛집 더그릴720</t>
+          <t>경기광주 대형카페 베이커리 찐맛집 신현동 제주베어하우스</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/danjaya/223561240178</t>
+          <t>https://blog.naver.com/matcumentary/223561424643</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>더그릴720</t>
+          <t>제주베어하우스</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>충청북도 제천시 백운면 평동리 산67-10 해브나인 힐링센터 4층</t>
+          <t>경기도 광주시 머루숯길 91-29 제주베어하우스</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['#경기광주카페', '#경기광주대형카페', '#경기광주베이커리', '#신현동카페', '#제주베어하우스']</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -3938,27 +3938,27 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>서울호텔뷔페 추천 페어몬트 앰버서더 서울 스펙트럼 디너 가격 여의도 데이트코스</t>
+          <t>인천퍼스널컬러 메이크업 체형 솔루션까지 꼼꼼한 퍼스널컬러리스타 부천점</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/lyj9699/223561233871</t>
+          <t>https://blog.naver.com/ss2ung/223561190149</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>페어몬트 앰배서더 서울 스펙트럼</t>
+          <t>퍼스널컬러리스타 부천본점</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>서울특별시 영등포구 여의대로 108 페어몬트 앰배서더 서울 5층</t>
+          <t>경기도 부천시 원미구 부일로 204</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>['#여의도뷔페추천', '#서울호텔뷔페', '#여의도호텔뷔페', '#페어몬트앰버서더서울뷔페', '#스펙트럼뷔페메뉴', '#페어몬트앰버서더스펙트럼디너', '#서울호텔뷔페추천', '#내돈내산', '#여의도데이트코스', '#서울기념일데이트']</t>
+          <t>['#인천퍼스널컬러', '#부천퍼스널컬러', '#퍼스널컬러', '#겨울쿨톤', '#겨울쿨톤브라이트', '#퍼스널컬러리스타부천본점', '#부천메이크업', '#부천체형컨설팅', '#퍼스널컬러컨설팅']</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -3978,27 +3978,27 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>성수뚝섬맛집 점심 브런치 데이트하기 좋은 성수다락</t>
+          <t>상암 DMC 맛집 단체회식 고기집 월화고기 무주 표고삼합</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/aria9412/223561051709</t>
+          <t>https://blog.naver.com/piil/223560991597</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>성수다락</t>
+          <t>월화고기 상암 직영1호점</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>서울특별시 성동구 뚝섬로9길 20 2층</t>
+          <t>서울특별시 마포구 매봉산로2안길 12-6</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>['#성수맛집', '#성수브런치', '#성수파스타', '#성수뚝섬맛집', '#성수양식', '#성수데이트코스', '#성수하이볼', '#성수점심식사']</t>
+          <t>['#상암DMC맛집', '#고기집', '#단체회식', '#상암DMC고기집', '#상암DMC단체회식', '#상암동맛집', '#상암디엠씨맛집', '#월화고기']</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4018,27 +4018,27 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>평택 고덕 돈카츠 이자카야 스고이 등심 안심 모듬카츠</t>
+          <t>잠실 돼지갈비 맛집 담은갈비 주차 점심특선 솔직 후기</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/qqltbsl/223561651961</t>
+          <t>https://blog.naver.com/yessed/223561133050</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>스고이</t>
+          <t>담은갈비</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>경기도 평택시 고덕갈평7길 10 1층 스고이</t>
+          <t>서울특별시 송파구 삼전로 93 태정빌딩</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>['#협찬', '#하이라이트챌린지', '#체크인', '#체크인챌린지', '#네이버클립', '#네이버숏폼', '#평택고덕맛집', '#고덕동데이트', '#스고이', '#고덕돈카츠', '#평택이자카야', '#평택고덕돈카츠', '#고덕스고이']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4058,27 +4058,27 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>당진해장국 명가, 가마솥순대국밥당진시곡점 방문기</t>
+          <t>선릉역 고기집 김돈이 본점 단체회식으로 좋은 제주 흑돼지 맛집</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/youjung4083/223561601438</t>
+          <t>https://blog.naver.com/yblove-/223561094263</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>가마솥순대국밥 당진시곡점</t>
+          <t>김돈이 본점</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>충청남도 당진시 시곡로 350 1층 가마솥순대국밥</t>
+          <t>서울특별시 강남구 선릉로94길 9</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>['#시곡동순대국', '#당진해장국', '#당진해장', '#당진한식', '#당진점심', '#당진음식점', '#당진국밥맛집', '#당진편백찜', '#당진순대국밥', '#당진순대국밥맛집', '#당진순대국맛집', '#당진수육국밥', '#당진수육', '#당진곱창볶음', '#당진수육맛집ㅈ', '#당진순대', '#당진곱창전골', '#시곡동맛집', '#시곡동순대국밥', '#가마솥국밥당진시곡점', '#가마솥순대국밥당진점']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4098,27 +4098,27 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>수내역 룸식당 분당 맛집 고깃집 추천 우정가</t>
+          <t>강남역 소고기 룸식당 한우부티크 서울 강남역 5번출구 맛집</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/leeminji36/223561517585</t>
+          <t>https://blog.naver.com/dkssudh1004/223561078699</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>우정가 수내역점</t>
+          <t>한우부티크 강남점</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>경기도 성남시 분당구 황새울로240번길 10-3 2층</t>
+          <t>서울특별시 서초구 서초대로78길 38 8층</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>['#우정가', '#수내우정가', '#수내역룸식당', '#수내역맛집', '#수내역고깃집', '#수내역회식', '#분당맛집', '#수내역데이트', '#수내역점심']</t>
+          <t>['#강남역소고기', '#강남역맛집', '#강남역소고기맛집', '#한우부티크', '#강남역5번출구맛집']</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4138,27 +4138,27 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>용인 처인구 맛집 추천, 자주 가는 단골 한식 외할머니집</t>
+          <t>부산 장어덮밥 맛집 광안리 밥집 추천 고옥 히츠마부시</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/shgagu/223561502430</t>
+          <t>https://blog.naver.com/1_nly/223560967092</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>외할머니집</t>
+          <t>고옥</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>경기도 용인시 처인구 양지면 중부대로 2545-3</t>
+          <t>부산광역시 수영구 광남로 6</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>['#용인처인구맛집', '#처인구맛집', '#용인처인구맛집추천', '#처인구맛집추천', '#외할머니집', '#용인외할머니집']</t>
+          <t>['#부산장어덮밥', '#부산장어덮밥맛집', '#부산맛집', '#부산밥집', '#부산광안리밥집', '#광안리밥집', '#광안리맛집', '#고옥', '#부산고옥', '#부산히츠마부시', '#고옥히츠마부시', '#부산장어덮밥고옥', '#광안리밥집추천']</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4178,27 +4178,27 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>여의도 오마카세 한우 맛집 고청담 콜키지프리 룸식당 추천!</t>
+          <t>쌍문역 샤브샤브 샤브마을 무제한 신선한 샤브맛집</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/schneesun85/223561431943</t>
+          <t>https://blog.naver.com/1-986/223560885252</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>고청담 여의도점</t>
+          <t>샤브마을</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>서울특별시 영등포구 국제금융로 39 지하1층 101호</t>
+          <t>서울특별시 도봉구 도봉로 445 지상1층 101호</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>['#고청담', '#고청담여의도점', '#오마카세', '#코스', '#회식', '#상견례', '#회식장소', '#모임장소', '#룸식당', '#단체회식', '#콜키지프리', '#프라이빗', '#파인다이닝', '#데이트', '#여의도맛집', '#여의도한우맛집', '#여의도오마카세', '#여의도콜키지프리', '#여의도룸식당']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4218,27 +4218,27 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>성신여대역 맛집 일식 전문점 긴자료코</t>
+          <t>대전 둔산동 한식 쭈꾸미 칼국수 단골 맛집 보끄미 추천</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/mail0059/223561425332</t>
+          <t>https://blog.naver.com/bible3544/223561534463</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>긴자료코 성신여대점</t>
+          <t>보끄미 둔산점</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>서울특별시 성북구 보문로34가길 5 1층</t>
+          <t>대전광역시 서구 대덕대로242번길 15 둔산의 아침</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>['#성신여대역긴자료코', '#성신여대맛집', '#성신여대역에', '#성신여대역일식집']</t>
+          <t>['#대전맛집', '#대전둔산동맛집', '#둔산동맛집', '#둔산동칼국수', '#대전쭈꾸미', '#쭈꾸미맛집', '#대전쭈꾸미맛집', '#대전둔산동칼국수', '#대전둔산동데이트', '#한식맛집', '#둔산동쭈꾸미맛집', '#보끄미', '#쭈꾸미칼국수', '#둔산동단골맛집', '#둔산동맛집추천', '#대전맛집추천']</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -4258,27 +4258,27 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>인천 송도 센트럴파크 맛집 해밀락 송도본점 송도 고기집</t>
+          <t>강남 신세계백화점 맛집 고속터미널 파미에스테이션 맛집 하우스오브신세계 장어덮밥 키쿠카와</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/semanli/223561413625</t>
+          <t>https://blog.naver.com/yen_tudio/223561445499</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>해밀락 송도본점</t>
+          <t>우나기 욘다이메 키쿠카와</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>인천광역시 연수구 인천타워대로 257 아트포레 D동 103, 104호</t>
+          <t>서울특별시 서초구 신반포로 176 지하1층 식품관 하우스 오브 신세계</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>['#해밀락', '#해밀락송도본점', '#송도해밀락', '#송도센트럴파크맛집', '#인천송도센트럴파크맛집', '#송도고기집', '#송도아트포레맛집', '#송도아트포레고기집', '#송도숙성삼겹살', '#송도양념갈비', '#송도맛집', '#송도고깃집', '#인천송도고기집', '#송도데이트', '#송도가족모임', '#송도회식장소']</t>
+          <t>['#강남신세계백화점맛집', '#고속터미널파미에스테이션맛집', '#고터파미에스테이션맛집', '#하우스오브신세계', '#강남신세계장어덮밥', '#키쿠카와', '#키쿠카와장어덮밥', '#파미에스테이션장어덮밥', '#파미에스테이션맛집', '#하우스오브신세계맛집']</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -4298,27 +4298,27 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>광주 충장로 맛집 고급진 분위기 맑은국밥 강추하고 싶은 충장옥</t>
+          <t>인천 부평시장역 맛집 세겹살 단골 부평 고기집</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/ohjug/223561372797</t>
+          <t>https://blog.naver.com/tomorrow_2/223561112495</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>충장옥 구시청본점</t>
+          <t>세겹살</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>광주광역시 동구 문화전당로35번길 29 골목 안쪽</t>
+          <t>인천광역시 부평구 부흥로 257-11 1층</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>['#광주충장로맛집', '#충장로맛집', '#충장로점심', '#충장로밥집', '#구시청맛집', '#문화전당역맛집', '#문화전당역점심', '#충장옥']</t>
+          <t>['#포토덤프챌린지', '#스페셜포토덤프', '#세겹살', '#부평세겹살', '#부평시장역맛집', '#부평고기집', '#부평시장맛집', '#부평역고기집']</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -4338,27 +4338,27 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>창원 상남동 소고기 돼지고기 무한리필 샤브샤브맛집, 샤브20</t>
+          <t>강남역 소고기맛집 프라이빗 룸식당 데이트코스 추천 한우부티크</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/jabmf/223561295946</t>
+          <t>https://blog.naver.com/jo_hee___/223561077772</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>샤브20 창원상남점</t>
+          <t>한우부티크 강남점</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>경상남도 창원시 성산구 마디미동로 46 201, 202, 203호</t>
+          <t>서울특별시 서초구 서초대로78길 38 8층</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>['#창원맛집', '#창원상남동맛집', '#상남동맛집', '#상남동점심추천', '#상남동샤브샤브', '#상남동샤브샤브맛집', '#상남동샤브20', '#창원샤브샤브맛집', '#창원샤브샤브무한리필', '#샤브20', '#창원무한리필샐러드바', '#창원샐러드바맛집', '#창원무한리필맛집']</t>
+          <t>['#강남역소고기맛집', '#강남데이트코스', '#강남역룸식당', '#강남역데이트', '#강남한우맛집', '#한우부티크', '#강남역맛집추천']</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -4378,27 +4378,27 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>곤지암 화담숲 근처 맛집 모듬장작구이 곤지암토담</t>
+          <t>인천 삼산동 점심 맛집 파스타1번지 저녁에는 생맥주이벤트래요</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/withou122/223560282418</t>
+          <t>https://blog.naver.com/hahahasystem/223561068973</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>토담</t>
+          <t>파스타1번지 삼산점</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>경기도 광주시 곤지암읍 광여로 414</t>
+          <t>인천광역시 부평구 충선로209번길 13 SM프라자 2층 파스타1번지</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>['#곤지암화담숲맛집', '#곤지암화담숲근처맛집', '#곤지암토담', '#토담', '#화담숲근처맛집', '#화담숲맛집', '#화담숲토담']</t>
+          <t>['#삼산동맛집', '#부평구청맛집', '#굴포천맛집', '#삼산동파스타', '#굴포천피자', '#굴포천데이트', '#삼산동데이트']</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -4418,27 +4418,27 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>울산 명촌 맛집 울산 보쌈맛집 회식장소 추천 최고집보쌈 명촌직영점</t>
+          <t>인천 삼산동 점심 맛집 파스타1번지 저녁에는 생맥주이벤트래요</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/monde384/223561190886</t>
+          <t>https://blog.naver.com/hahahasystem/223561068973</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>최고집보쌈 명촌직영점</t>
+          <t>파스타1번지 삼산점</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>울산광역시 북구 명촌3길 13-1 1층</t>
+          <t>인천광역시 부평구 충선로209번길 13 SM프라자 2층 파스타1번지</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>['#울산명촌점심맛집', '#울산명촌점심특선맛집', '#울산진장동맛집', '#울산보쌈맛집', '#울산최고집보쌈', '#울산진장보쌈맛집', '#울산명촌보쌈맛집', '#울산회식장소', '#울산단체모임']</t>
+          <t>['#삼산동맛집', '#부평구청맛집', '#굴포천맛집', '#삼산동파스타', '#굴포천피자', '#굴포천데이트', '#삼산동데이트']</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -4458,27 +4458,27 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>마곡맛집 &lt;오복수산참치마곡점&gt; - 퀄리티 좋은 발산역 일식맛집</t>
+          <t>하안동 국수 생각보다 맛있는집 냉콩국수 후기</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/srkang1212/223561152590</t>
+          <t>https://blog.naver.com/sconesss/223561034972</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>오복수산참치 마곡점</t>
+          <t>생각보다맛있는집 광명점</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>서울특별시 강서구 마곡중앙8로 85 2층 206~208호</t>
+          <t>경기도 광명시 범안로 1030 1층</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>['#오복수산참치마곡점', '#마곡맛집', '#발산역초밥', '#일식맛집', '#우장산맛집', '#서울식물원맛집', '#마곡동맛집', '#마곡참치', '#마곡점심', '#발산역데이트', '#마곡회식장소']</t>
+          <t>['#생각보다맛있는집', '#광명맛집', '#광명점심', '#하안동맛집', '#하안동점심', '#하안동포장', '#광명국수']</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -4498,27 +4498,27 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>화성 봉담 2지구 맛집 삼산회관 김치찌개 맛있는 식당</t>
+          <t>제주 중문맛집 중문고등어쌈밥 관광객 단체식당 추천</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/greenmoom46/223561100179</t>
+          <t>https://blog.naver.com/asdre74/223560960808</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>삼산회관 화성봉담2지구점</t>
+          <t>중문고등어쌈밥</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>경기도 화성시 봉담읍 상리3길 188 1층</t>
+          <t>제주특별자치도 서귀포시 일주서로 1240 1층</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>['#봉담맛집', '#봉담2지구맛집', '#김치찌개맛집', '#돼지김치구이맛집', '#봉담김치찌개맛집', '#봉담2지구김치찌개맛집', '#맛띠유', '#맛집탐구기']</t>
+          <t>['#제주맛집', '#제주중문맛집', '#제주단체식당', '#중문단체식당', '#서귀포맛집', '#고등어쌈밥', '#중문고등어쌈밥', '#제주고등어조림', '#제주조림맛집', '#제주고등어쌈밥', '#제주서귀포맛집', '#서귀포고등어조림', '#서귀포단체식당', '#서귀포단체예약']</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -4538,27 +4538,27 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>울산 한우 선물세트 도드람마을 진장점 추석선물세트 후기</t>
+          <t>천안독립기념관맛집 브런치하기 좋은 곳 어나더카페</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/ebong0302/223561044477</t>
+          <t>https://blog.naver.com/localdaek/223560876726</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>도드람마을</t>
+          <t>어나더카페</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>울산광역시 북구 진장로 85</t>
+          <t>충청남도 천안시 동남구 목천읍 서리1길 89 1층</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>['#울산한우선물세트', '#울산추석선물세트', '#울산추석선물', '#울산한우', '#울산도드람마을', '#도드람마을진장점']</t>
+          <t>['#천안목천카페어나더카페', '#천안독립기념관맛집', '#어나더카페']</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -4578,27 +4578,27 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>홍천 카페 : 숲책방 단독 공간(독채) 감성 카페, 운치있는 러스틱라이프〰️☕️🌳</t>
+          <t>[모두랑 수제 찹쌀떡] 운정 해오름 마을 떡 맛집 파주쌀로 만든 수제 크림 찹쌀떡</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/jjuuvv0011/223561020483</t>
+          <t>https://blog.naver.com/alwaysbehappy8493/223561499026</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>러스틱라이프</t>
+          <t>모두랑 수제 찹쌀떡</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>강원특별자치도 홍천군 영귀미면 속새길 70</t>
+          <t>경기도 파주시 해올1길 31 이타워2 지하1층 B03호</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>['#홍천카페', '#홍천단독공간', '#홍천단독공간카페', '#홍천독채카페', '#홍천숲카페', '#홍천가볼만한곳', '#홍천카페러스틱', '#홍천러스틱', '#홍천러스틱라이프', '#홍천수타사', '#수타사가는길', '#홍천숲속카페', '#홍천숲책방', '#홍천유리온실', '#홍천한옥온실', '#홍천감성카페', '#러스틱라이프']</t>
+          <t>['#파주떡집', '#파주교하떡집', '#파주찹쌀떡', '#운정찹쌀떡', '#운정인절미', '#운정찐빵', '#파주찐빵', '#다율동떡집', '#파주인절미', '#파주간식', '#파주답례떡', '#운정답례떡', '#운정떡집', '#운정맛집', '#교하맛집', '#수제찹쌀떡', '#수제인절미', '#수제찐빵']</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -4618,27 +4618,27 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>부산 남포동 로스구이 맛집 ”육대빵 남포점“ 남천동 탑티어 고기집 남포동 상륙 : 내돈내산 전메뉴 후기</t>
+          <t>신사역술집 가로수길술집추천 갓성비술집 생맥주 1900원 단체회식장소로도 좋은 mz느낌 트렌디한 한식주점 도산회동</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/younjoo5596/223560889733</t>
+          <t>https://blog.naver.com/dope_guy/223561458599</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>육대빵 남포점</t>
+          <t>도산회동</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>부산광역시 중구 비프광장로 3 1층</t>
+          <t>서울특별시 강남구 강남대로156길 46 2층3층(신사동)</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>['#육대빵남포점', '#남포동육대빵', '#부산육대빵', '#부산로스구이', '#남포동고기집', '#남포동로스구이', '#남포동맛집', '#남포동고기맛집', '#남포동로컬맛집', '#자갈치역맛집', '#부산로스구이맛집', '#부산고기맛집', '#부산서초갈비', '#서이추', '#서이추환영']</t>
+          <t>['#가로수길맛집', '#신사술집', '#신사역술집', '#가로수길술집추천', '#갓성비술집', '#가성비술집', '#신사역데이트코스', '#신사역단체회식장소', '#신사단체회식', '#신사동단체회식', '#신사동모임장소', '#신사동한식', '#신사역핫플레이스', '#신사동핫플', '#신사동핫플레이스', '#신사애견동반', '#가로수길모임', '#가로수길모임장소', '#신사역핫플', '#도산회동', '#가로수길핫플', '#가로수길맛집추천', '#가로수길데이트코스', '#가로수길단체술집', '#가로수길회식장소', '#가로수길뜨는맛집', '#가로수길뜨는술집']</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -4658,27 +4658,27 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>서초 양재역 갈비 고기집 / 갈비사랑, 정갈한 한정식 생갈비 정식 보리굴비 점심 양재동 맛집 + 룸식당</t>
+          <t>안성 돈까스 맛집 파스타 한경대 아양동 경양카츠</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/bright_kwon/223560852918</t>
+          <t>https://blog.naver.com/taengbong89/223561311877</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>갈비사랑</t>
+          <t>경양카츠 안성점</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>서울특별시 서초구 강남대로 204 갈비사랑</t>
+          <t>경기도 안성시 아양1로 77-31 1층 112호</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>['#갈비사랑', '#양재동맛집', '#양재고기집', '#양재갈비집', '#양재갈비', '#양재동한식', '#양재갈비맛집', '#서초갈비', '#서초고기집', '#양재동점심맛집']</t>
+          <t>['#안성한경대파스타', '#안성아양동파스타', '#안성경양카츠', '#안성파스타맛집', '#안성돈까스맛집', '#안성파스타', '#안성돈까스']</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -4698,27 +4698,27 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>담양 삼겹살 맛집 참푸른식당 농장에서 직접 키워 더 맛있는 보성녹돈</t>
+          <t>제천 리솜 포레스트 식당 바베큐 삼겹살 맛집 더그릴720</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/sunny1982_/223561624437</t>
+          <t>https://blog.naver.com/danjaya/223561240178</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>참푸른식당</t>
+          <t>더그릴720</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>전라남도 담양군 담양읍 월광로 41 나동 2층</t>
+          <t>충청북도 제천시 백운면 평동리 산67-10 해브나인 힐링센터 4층</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>['#담양삼겹살', '#담양고기집', '#담양소고기', '#담양맛집', '#전남맛집', '#담양고깃집', '#담양가볼만한곳', '#담양점심', '#담양데이트', '#담양모임', '#담양룸식당', '#담양회식', '#광주근교고기집', '#광주근교맛집', '#담양국수거리맛집', '#죽녹원맛집', '#담양읍소고기', '#담양읍고기집', '#담양읍룸식당', '#담양읍가족모임']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -4738,27 +4738,27 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>여의도 직장인회식 추천 참치맛집 혜비수참치 룸식당 메뉴 가격, 콜키지가능, 주차가능</t>
+          <t>서울호텔뷔페 추천 페어몬트 앰버서더 서울 스펙트럼 디너 가격 여의도 데이트코스</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/landmark-blog/223561476990</t>
+          <t>https://blog.naver.com/lyj9699/223561233871</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>혜비수참치</t>
+          <t>페어몬트 앰배서더 서울 스펙트럼</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>서울특별시 영등포구 국제금융로6길 33 여의도백화점 7층</t>
+          <t>서울특별시 영등포구 여의대로 108 페어몬트 앰배서더 서울 5층</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>['#여의도맛집', '#여의도점심', '#여의도회식', '#여의도점심맛집', '#여의도줄서는식당', '#여의도소문난식당', '#여의도참치맛집', '#여의도참치', '#여의도횟집', '#여의도직장인회식', '#여의도모임장소', '#여의도단체회식', '#여의도회식맛집', '#여의도모임', '#여의도에비수', '#여의도에비스', '#여의도혜비수']</t>
+          <t>['#여의도뷔페추천', '#서울호텔뷔페', '#여의도호텔뷔페', '#페어몬트앰버서더서울뷔페', '#스펙트럼뷔페메뉴', '#페어몬트앰버서더스펙트럼디너', '#서울호텔뷔페추천', '#내돈내산', '#여의도데이트코스', '#서울기념일데이트']</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -4778,27 +4778,27 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>[부산 광안리] 광안대교 오션뷰가 보이는 광안리밀면맛집 '가온밀면 광안리직영점' 수변공원맛집 부산밀면맛집</t>
+          <t>성수뚝섬맛집 점심 브런치 데이트하기 좋은 성수다락</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/dhkdto63/223561470044</t>
+          <t>https://blog.naver.com/aria9412/223561051709</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>가온밀면 광안리직영점</t>
+          <t>성수다락</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>부산광역시 수영구 민락수변로 109 2층 가온밀면</t>
+          <t>서울특별시 성동구 뚝섬로9길 20 2층</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>['#광안리밀면', '#부산밀면맛집', '#광안리밀면맛집', '#수변공원맛집', '#광안리데이트맛집', '#가온밀면', '#수변공원밀면', '#광안리맛집', '#광안리혼밥', '#수변공원혼밥']</t>
+          <t>['#성수맛집', '#성수브런치', '#성수파스타', '#성수뚝섬맛집', '#성수양식', '#성수데이트코스', '#성수하이볼', '#성수점심식사']</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -4818,27 +4818,27 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>거제 가볼만한곳 이수도 학섬식당펜션 1박3식</t>
+          <t>평택 고덕 돈카츠 이자카야 스고이 등심 안심 모듬카츠</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/iksanall/223546962984</t>
+          <t>https://blog.naver.com/qqltbsl/223561651961</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>학섬식당펜션</t>
+          <t>스고이</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>경상남도 거제시 장목면 이수도길 21-6</t>
+          <t>경기도 평택시 고덕갈평7길 10 1층 스고이</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>['#학섬펜션', '#이수도', '#이수도1박3식', '#학섬펜션1박3식', '#이수도학섬펜션', '#이수도학섬식당펜션', '#거제가볼만한곳']</t>
+          <t>['#협찬', '#하이라이트챌린지', '#체크인', '#체크인챌린지', '#네이버클립', '#네이버숏폼', '#평택고덕맛집', '#고덕동데이트', '#스고이', '#고덕돈카츠', '#평택이자카야', '#평택고덕돈카츠', '#고덕스고이']</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -4858,27 +4858,27 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>밀양 영남루 맛집 꼭 한번 맛봐야 하는 로컬 맛집 밀양돌짬뽕</t>
+          <t>당진해장국 명가, 가마솥순대국밥당진시곡점 방문기</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/tjdal0427/223561182721</t>
+          <t>https://blog.naver.com/youjung4083/223561601438</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>밀양돌짬뽕</t>
+          <t>가마솥순대국밥 당진시곡점</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>경상남도 밀양시 백민로 82-1 1층</t>
+          <t>충청남도 당진시 시곡로 350 1층 가마솥순대국밥</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>['#밀양맛집', '#밀양중국집', '#밀양시청맛집', '#밀양가볼만한곳', '#밀양점심', '#밀양돌짬뽕', '#밀양영남루맛집', '#영남루맛집', '#돌짬뽕', '#돌짜장', '#경남맛집', '#아이와함께가볼만한곳', '#밀양드라이브코스', '#밀양현지인맛집', '#밀양로컬맛집', '#아이와함께', '#밀양밥집']</t>
+          <t>['#시곡동순대국', '#당진해장국', '#당진해장', '#당진한식', '#당진점심', '#당진음식점', '#당진국밥맛집', '#당진편백찜', '#당진순대국밥', '#당진순대국밥맛집', '#당진순대국맛집', '#당진수육국밥', '#당진수육', '#당진곱창볶음', '#당진수육맛집ㅈ', '#당진순대', '#당진곱창전골', '#시곡동맛집', '#시곡동순대국밥', '#가마솥국밥당진시곡점', '#가마솥순대국밥당진점']</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -4898,27 +4898,27 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>예산 시장 맛집 추천 갓 튀겨낸 닭꼬치의 매력 = 아리랑고개 닭꼬치</t>
+          <t>수내역 룸식당 분당 맛집 고깃집 추천 우정가</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/zano0201/223561178849</t>
+          <t>https://blog.naver.com/leeminji36/223561517585</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>아리랑고개 닭꼬치</t>
+          <t>우정가 수내역점</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>충청남도 예산군 예산읍 형제고개로 967 예산시장길2 139호 아리랑고개닭꼬치</t>
+          <t>경기도 성남시 분당구 황새울로240번길 10-3 2층</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>['#아리랑고개닭꼬치', '#예산맛집', '#예산시장맛집', '#예산시장맛집투어', '#백종원시장', '#백종원시장맛집']</t>
+          <t>['#우정가', '#수내우정가', '#수내역룸식당', '#수내역맛집', '#수내역고깃집', '#수내역회식', '#분당맛집', '#수내역데이트', '#수내역점심']</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -4938,27 +4938,27 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>동탄목동 맛집 얌샘김밥 든든한 점심으로 딱이야</t>
+          <t>용인 처인구 맛집 추천, 자주 가는 단골 한식 외할머니집</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/jintamin428/223561169558</t>
+          <t>https://blog.naver.com/shgagu/223561502430</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>얌샘김밥 동탄목동점</t>
+          <t>외할머니집</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>경기도 화성시 동탄신리천로 411 1층</t>
+          <t>경기도 용인시 처인구 양지면 중부대로 2545-3</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>['#김밥', '#동탄목동맛집', '#동탄맛집', '#얌샘김밥']</t>
+          <t>['#용인처인구맛집', '#처인구맛집', '#용인처인구맛집추천', '#처인구맛집추천', '#외할머니집', '#용인외할머니집']</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -4978,27 +4978,27 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>원앙칼국수광릉 포천 명소 탐방 후 한 그릇의 행복을 찾아서</t>
+          <t>여의도 오마카세 한우 맛집 고청담 콜키지프리 룸식당 추천!</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/wonang_kalguksu/223561105274</t>
+          <t>https://blog.naver.com/schneesun85/223561431943</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>국립수목원</t>
+          <t>고청담 여의도점</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>경기도 포천시 소흘읍 광릉수목원로 509</t>
+          <t>서울특별시 영등포구 국제금융로 39 지하1층 101호</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>['#국립수목원', '#광릉수목원', '#고모리저수지', '#광릉', '#봉선사', '#원앙칼국수광릉', '#포천칼국수집', '#포천샤브샤브', '#포천맛집']</t>
+          <t>['#고청담', '#고청담여의도점', '#오마카세', '#코스', '#회식', '#상견례', '#회식장소', '#모임장소', '#룸식당', '#단체회식', '#콜키지프리', '#프라이빗', '#파인다이닝', '#데이트', '#여의도맛집', '#여의도한우맛집', '#여의도오마카세', '#여의도콜키지프리', '#여의도룸식당']</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5018,27 +5018,27 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>강남구청술집 한식안주와 180가지 전통주 페어링 :: 월송</t>
+          <t>성신여대역 맛집 일식 전문점 긴자료코</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/brilliantnice/223561034763</t>
+          <t>https://blog.naver.com/mail0059/223561425332</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>월송</t>
+          <t>긴자료코 성신여대점</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>서울특별시 강남구 학동로50길 13 월송</t>
+          <t>서울특별시 성북구 보문로34가길 5 1층</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['#성신여대역긴자료코', '#성신여대맛집', '#성신여대역에', '#성신여대역일식집']</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5058,27 +5058,27 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>남도해물촌 : 일산 물회 코다리조림 맛있는 술집, 재방문한 백석역 제철 해산물 맛집</t>
+          <t>인천 송도 센트럴파크 맛집 해밀락 송도본점 송도 고기집</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/blossomjinn/223561643853</t>
+          <t>https://blog.naver.com/semanli/223561413625</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>남도해물촌</t>
+          <t>해밀락 송도본점</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>경기도 고양시 일산동구 백석로72번길 14</t>
+          <t>인천광역시 연수구 인천타워대로 257 아트포레 D동 103, 104호</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>['#일산맛집', '#백석역맛집', '#백석맛집', '#백석동횟집', '#백석횟지비', '#백석동맛집', '#백석술집', '#일산낮술', '#일산횟집', '#일산백석역맛집', '#일산백석역술집', '#백석횟집', '#백석동남도해물촌', '#백석남도해물촌', '#일산남도해물촌', '#일산물회', '#일산코다리찜', '#맛집블로그', '#서이추', '#서로이웃추가', '#서로이웃환영', '#서이환영']</t>
+          <t>['#해밀락', '#해밀락송도본점', '#송도해밀락', '#송도센트럴파크맛집', '#인천송도센트럴파크맛집', '#송도고기집', '#송도아트포레맛집', '#송도아트포레고기집', '#송도숙성삼겹살', '#송도양념갈비', '#송도맛집', '#송도고깃집', '#인천송도고기집', '#송도데이트', '#송도가족모임', '#송도회식장소']</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -5098,27 +5098,27 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>2동탄고기맛집 도니랩에서 즐기는 세트후기</t>
+          <t>광주 충장로 맛집 고급진 분위기 맑은국밥 강추하고 싶은 충장옥</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/zero11006/223561639791</t>
+          <t>https://blog.naver.com/ohjug/223561372797</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>도니랩</t>
+          <t>충장옥 구시청본점</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>경기도 화성시 동탄순환대로14길 82-11 1층</t>
+          <t>광주광역시 동구 문화전당로35번길 29 골목 안쪽</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>['#2동탄맛집', '#2동탄고기맛집', '#도니랩']</t>
+          <t>['#광주충장로맛집', '#충장로맛집', '#충장로점심', '#충장로밥집', '#구시청맛집', '#문화전당역맛집', '#문화전당역점심', '#충장옥']</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -5138,27 +5138,27 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>중계역 근처 맛집 노원 한정식 봄이보리밥 점심 3인세트 식사</t>
+          <t>창원 상남동 소고기 돼지고기 무한리필 샤브샤브맛집, 샤브20</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/kolala_rainbow/223561635699</t>
+          <t>https://blog.naver.com/jabmf/223561295946</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>봄이보리밥 노원점</t>
+          <t>샤브20 창원상남점</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>서울특별시 노원구 동일로218길 41 영보빌딩, 201호</t>
+          <t>경상남도 창원시 성산구 마디미동로 46 201, 202, 203호</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>['#중계역근처맛집', '#노원한정식', '#노원점심', '#봄이보리밥', '#봄이보리밥노원', '#노원보리밥']</t>
+          <t>['#창원맛집', '#창원상남동맛집', '#상남동맛집', '#상남동점심추천', '#상남동샤브샤브', '#상남동샤브샤브맛집', '#상남동샤브20', '#창원샤브샤브맛집', '#창원샤브샤브무한리필', '#샤브20', '#창원무한리필샐러드바', '#창원샐러드바맛집', '#창원무한리필맛집']</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -5178,27 +5178,27 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>여수 소호동 고기집 돼지 특수부위 전문점 '동동'</t>
+          <t>곤지암 화담숲 근처 맛집 모듬장작구이 곤지암토담</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/jjinhyang_daily/223561627565</t>
+          <t>https://blog.naver.com/withou122/223560282418</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>동동</t>
+          <t>토담</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>전라남도 여수시 소호4길 5-7 동동 돼지특수부위전문점</t>
+          <t>경기도 광주시 곤지암읍 광여로 414</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>['#여수고기맛집', '#소호동맛집', '#소호동고기집', '#여수저녁식사', '#동동', '#여수동동']</t>
+          <t>['#곤지암화담숲맛집', '#곤지암화담숲근처맛집', '#곤지암토담', '#토담', '#화담숲근처맛집', '#화담숲맛집', '#화담숲토담']</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -5218,27 +5218,27 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>파주 야당 고깃집 맛찬들 왕소금구이 구워주는 야당 삼겹살 맛집</t>
+          <t>울산 명촌 맛집 울산 보쌈맛집 회식장소 추천 최고집보쌈 명촌직영점</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/2ndlifej/223561627207</t>
+          <t>https://blog.naver.com/monde384/223561190886</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>맛찬들왕소금구이 파주직영점</t>
+          <t>최고집보쌈 명촌직영점</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>경기도 파주시 소리천로 29 128~131호</t>
+          <t>울산광역시 북구 명촌3길 13-1 1층</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>['#파주야당고깃집', '#파주맛집', '#야당맛집', '#맛찬들왕소금구이', '#맛찬들', '#파주삼겹살', '#야당고깃집', '#야당역맛집', '#삼쏘']</t>
+          <t>['#울산명촌점심맛집', '#울산명촌점심특선맛집', '#울산진장동맛집', '#울산보쌈맛집', '#울산최고집보쌈', '#울산진장보쌈맛집', '#울산명촌보쌈맛집', '#울산회식장소', '#울산단체모임']</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -5258,27 +5258,27 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>영암 한옥카페 화담카페 월출산둘레길 아늑하고 풍경 뷰 예쁜 카페</t>
+          <t>마곡맛집 &lt;오복수산참치마곡점&gt; - 퀄리티 좋은 발산역 일식맛집</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/drawing0123/223561584806</t>
+          <t>https://blog.naver.com/srkang1212/223561152590</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>화담카페</t>
+          <t>오복수산참치 마곡점</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>전라남도 영암군 군서면 호동길 57-8 화담카페</t>
+          <t>서울특별시 강서구 마곡중앙8로 85 2층 206~208호</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>['#화담카페', '#영암한옥카페', '#영암카페', '#월출산둘레길카페', '#풍경뷰예쁜카페', '#아늑한카페', '#애견동반카페']</t>
+          <t>['#오복수산참치마곡점', '#마곡맛집', '#발산역초밥', '#일식맛집', '#우장산맛집', '#서울식물원맛집', '#마곡동맛집', '#마곡참치', '#마곡점심', '#발산역데이트', '#마곡회식장소']</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -5298,27 +5298,27 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>수내역룸식당 수내역데이트 우정가 다녀왔어요</t>
+          <t>화성 봉담 2지구 맛집 삼산회관 김치찌개 맛있는 식당</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/oyeoyewow/223561516494</t>
+          <t>https://blog.naver.com/greenmoom46/223561100179</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>우정가 수내역점</t>
+          <t>삼산회관 화성봉담2지구점</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>경기도 성남시 분당구 황새울로240번길 10-3 2층</t>
+          <t>경기도 화성시 봉담읍 상리3길 188 1층</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>['#수내역룸식당', '#수내역데이트', '#우정가수내역점']</t>
+          <t>['#봉담맛집', '#봉담2지구맛집', '#김치찌개맛집', '#돼지김치구이맛집', '#봉담김치찌개맛집', '#봉담2지구김치찌개맛집', '#맛띠유', '#맛집탐구기']</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -5338,27 +5338,27 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>건대 분위기 맛집 훠궈 무한리필 가성비 좋은 중경식객</t>
+          <t>울산 한우 선물세트 도드람마을 진장점 추석선물세트 후기</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/erain9292/223561488233</t>
+          <t>https://blog.naver.com/ebong0302/223561044477</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>중경식객 건대점</t>
+          <t>도드람마을</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>서울특별시 광진구 동일로20길 109</t>
+          <t>울산광역시 북구 진장로 85</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>['#건대맛집', '#무한리필훠궈', '#중경식객', '#건대분위기맛집', '#건대입구맛집', '#훠궈맛집', '#건대입구훠궈', '#건대놀거리', '#건대가성비맛집', '#건대입구가성비맛집', '#건대입구점심', '#건대입구마라탕', '#건대입구마라샹궈', '#건대마라샹궈', '#건대훠궈', '#건대꿔바로우']</t>
+          <t>['#울산한우선물세트', '#울산추석선물세트', '#울산추석선물', '#울산한우', '#울산도드람마을', '#도드람마을진장점']</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -5378,27 +5378,27 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>광교 한우 도쿄등심 광교점, 장어 솥밥까지 부모님과 외식 데이트</t>
+          <t>홍천 카페 : 숲책방 단독 공간(독채) 감성 카페, 운치있는 러스틱라이프〰️☕️🌳</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/leesangmii/223561460329</t>
+          <t>https://blog.naver.com/jjuuvv0011/223561020483</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>도쿄등심 광교점</t>
+          <t>러스틱라이프</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>경기도 수원시 영통구 광교호수공원로 80 광교 앨리웨이 3층 310호</t>
+          <t>강원특별자치도 홍천군 영귀미면 속새길 70</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>['#도쿄등심광교', '#도쿄등심광교점', '#광교한우', '#광교솥밥', '#광교콜키지프리']</t>
+          <t>['#홍천카페', '#홍천단독공간', '#홍천단독공간카페', '#홍천독채카페', '#홍천숲카페', '#홍천가볼만한곳', '#홍천카페러스틱', '#홍천러스틱', '#홍천러스틱라이프', '#홍천수타사', '#수타사가는길', '#홍천숲속카페', '#홍천숲책방', '#홍천유리온실', '#홍천한옥온실', '#홍천감성카페', '#러스틱라이프']</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -5418,27 +5418,27 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>서울 상암동 맛집 모임하기좋은 고기집</t>
+          <t>부산 남포동 로스구이 맛집 ”육대빵 남포점“ 남천동 탑티어 고기집 남포동 상륙 : 내돈내산 전메뉴 후기</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/ekwellbeing/223561448678</t>
+          <t>https://blog.naver.com/younjoo5596/223560889733</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>진대감 상암점</t>
+          <t>육대빵 남포점</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>서울특별시 마포구 매봉산로2안길 12-6 1층</t>
+          <t>부산광역시 중구 비프광장로 3 1층</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>['#상암동맛집', '#진대감상암점', '#상암동고기집', '#서울상암동맛집']</t>
+          <t>['#육대빵남포점', '#남포동육대빵', '#부산육대빵', '#부산로스구이', '#남포동고기집', '#남포동로스구이', '#남포동맛집', '#남포동고기맛집', '#남포동로컬맛집', '#자갈치역맛집', '#부산로스구이맛집', '#부산고기맛집', '#부산서초갈비', '#서이추', '#서이추환영']</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -5458,27 +5458,27 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>강남 프라이빗 룸식당 선릉역 소고기 맛집 도쿄등심</t>
+          <t>서초 양재역 갈비 고기집 / 갈비사랑, 정갈한 한정식 생갈비 정식 보리굴비 점심 양재동 맛집 + 룸식당</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/5greenina/223561438685</t>
+          <t>https://blog.naver.com/bright_kwon/223560852918</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>도쿄등심 선릉점</t>
+          <t>갈비사랑</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>서울특별시 강남구 테헤란로78길 16 B1층</t>
+          <t>서울특별시 서초구 강남대로 204 갈비사랑</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>['#강남룸식당', '#강남룸맛집', '#강남룸있는식당', '#강남한우룸식당', '#선릉역맛집', '#선릉맛집', '#선릉한우', '#선릉고기집', '#선릉역한우', '#선릉역소고기', '#선릉역고기집', '#선릉고기맛집', '#서이추환영']</t>
+          <t>['#갈비사랑', '#양재동맛집', '#양재고기집', '#양재갈비집', '#양재갈비', '#양재동한식', '#양재갈비맛집', '#서초갈비', '#서초고기집', '#양재동점심맛집']</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -5498,27 +5498,27 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>광주 용봉동 맛집 웨이팅 있는 돼지갈비 원기옥 비엔날레점</t>
+          <t>담양 삼겹살 맛집 참푸른식당 농장에서 직접 키워 더 맛있는 보성녹돈</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/fkalqhal/223561429784</t>
+          <t>https://blog.naver.com/sunny1982_/223561624437</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>원기옥 비엔날레점</t>
+          <t>참푸른식당</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>광주광역시 북구 비엔날레로 134 1층 원기옥 비엔날레점</t>
+          <t>전라남도 담양군 담양읍 월광로 41 나동 2층</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>['#광주용봉동맛집', '#용봉동맛집', '#광주돼지갈비맛집', '#용봉동돼지갈비', '#용봉동고기집', '#광주돼지갈비', '#광주비엔날레맛집', '#광주북구맛집']</t>
+          <t>['#담양삼겹살', '#담양고기집', '#담양소고기', '#담양맛집', '#전남맛집', '#담양고깃집', '#담양가볼만한곳', '#담양점심', '#담양데이트', '#담양모임', '#담양룸식당', '#담양회식', '#광주근교고기집', '#광주근교맛집', '#담양국수거리맛집', '#죽녹원맛집', '#담양읍소고기', '#담양읍고기집', '#담양읍룸식당', '#담양읍가족모임']</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -5538,27 +5538,27 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>청주 지웰시티 맛집 미인계 당일숙성 파김치도리탕 먹어본 후기</t>
+          <t>여의도 직장인회식 추천 참치맛집 혜비수참치 룸식당 메뉴 가격, 콜키지가능, 주차가능</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/nuri3886/223561174414</t>
+          <t>https://blog.naver.com/landmark-blog/223561476990</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>미인계 청주지웰시티점</t>
+          <t>혜비수참치</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>충청북도 청주시 흥덕구 진재로109번길 27 1층</t>
+          <t>서울특별시 영등포구 국제금융로6길 33 여의도백화점 7층</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>['#복대동맛집', '#청주닭볶음탕', '#지웰시티맛집', '#청주지웰시티맛집', '#복대동닭볶음탕', '#청주미인계']</t>
+          <t>['#여의도맛집', '#여의도점심', '#여의도회식', '#여의도점심맛집', '#여의도줄서는식당', '#여의도소문난식당', '#여의도참치맛집', '#여의도참치', '#여의도횟집', '#여의도직장인회식', '#여의도모임장소', '#여의도단체회식', '#여의도회식맛집', '#여의도모임', '#여의도에비수', '#여의도에비스', '#여의도혜비수']</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -5578,27 +5578,27 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>소사역 맛집 황금풍천장어 가성비 좋고 부담없이 가족외식 추천 재방문 내돈내산</t>
+          <t>[부산 광안리] 광안대교 오션뷰가 보이는 광안리밀면맛집 '가온밀면 광안리직영점' 수변공원맛집 부산밀면맛집</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/dsn8186/223561372839</t>
+          <t>https://blog.naver.com/dhkdto63/223561470044</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>황금풍천장어숯불꼼장어</t>
+          <t>가온밀면 광안리직영점</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>경기도 부천시 소사구 소사본동 소사로 242 소사로 242</t>
+          <t>부산광역시 수영구 민락수변로 109 2층 가온밀면</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>['#황금풍천장어', '#소사역맛집', '#보양식장어', '#부천가족외식식사', '#류오정보통']</t>
+          <t>['#광안리밀면', '#부산밀면맛집', '#광안리밀면맛집', '#수변공원맛집', '#광안리데이트맛집', '#가온밀면', '#수변공원밀면', '#광안리맛집', '#광안리혼밥', '#수변공원혼밥']</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -5618,27 +5618,27 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>상무지구 맛집 [신락원]에서 탕수육, 짜장면, 냉콩국수 먹었어요!</t>
+          <t>거제 가볼만한곳 이수도 학섬식당펜션 1박3식</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/boboworld85/223561077898</t>
+          <t>https://blog.naver.com/iksanall/223546962984</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>신락원 상무점</t>
+          <t>학섬식당펜션</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>광주광역시 서구 상무시민로 95-2 2층</t>
+          <t>경상남도 거제시 장목면 이수도길 21-6</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>['#상무지구맛집', '#상무지구중국집', '#신락원']</t>
+          <t>['#학섬펜션', '#이수도', '#이수도1박3식', '#학섬펜션1박3식', '#이수도학섬펜션', '#이수도학섬식당펜션', '#거제가볼만한곳']</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -5658,19 +5658,27 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>전라남도 목포 여행 투어 콜밴 대형택시 기사포함 렌트카 엄마랑 가려고 한다면</t>
+          <t>밀양 영남루 맛집 꼭 한번 맛봐야 하는 로컬 맛집 밀양돌짬뽕</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/healthlifereview/223561364976</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr"/>
-      <c r="F133" t="inlineStr"/>
+          <t>https://blog.naver.com/tjdal0427/223561182721</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>밀양돌짬뽕</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>경상남도 밀양시 백민로 82-1 1층</t>
+        </is>
+      </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>['#전라남도목포여행투어콜밴대형택시기사포함렌트카', '#모스트노블레스']</t>
+          <t>['#밀양맛집', '#밀양중국집', '#밀양시청맛집', '#밀양가볼만한곳', '#밀양점심', '#밀양돌짬뽕', '#밀양영남루맛집', '#영남루맛집', '#돌짬뽕', '#돌짜장', '#경남맛집', '#아이와함께가볼만한곳', '#밀양드라이브코스', '#밀양현지인맛집', '#밀양로컬맛집', '#아이와함께', '#밀양밥집']</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -5690,27 +5698,27 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>테디뵈르하우스 여의도 더현대서울 디저트 맛집</t>
+          <t>예산 시장 맛집 추천 갓 튀겨낸 닭꼬치의 매력 = 아리랑고개 닭꼬치</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/stiearth/223561363049</t>
+          <t>https://blog.naver.com/zano0201/223561178849</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>테디뵈르하우스 더현대서울점</t>
+          <t>아리랑고개 닭꼬치</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>서울특별시 영등포구 여의대로 108 B1</t>
+          <t>충청남도 예산군 예산읍 형제고개로 967 예산시장길2 139호 아리랑고개닭꼬치</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>['#테디베어하우스여의도', '#테디뵈르하우스여의도', '#여의도디저트카페추천', '#여의도카페테디뵈르', '#더현대서울테디뵈르하우스', '#더현대테디베어하우스', '#테디뵈르하우스더현대서울', '#서이추', '#서로이웃환영']</t>
+          <t>['#아리랑고개닭꼬치', '#예산맛집', '#예산시장맛집', '#예산시장맛집투어', '#백종원시장', '#백종원시장맛집']</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -5730,27 +5738,27 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>천안 신방동 야식맛집 곤드레찜드레 포장후기</t>
+          <t>동탄목동 맛집 얌샘김밥 든든한 점심으로 딱이야</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/kcy2736/223561353591</t>
+          <t>https://blog.naver.com/jintamin428/223561169558</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>곤드레찜드레 신방점</t>
+          <t>얌샘김밥 동탄목동점</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>충청남도 천안시 동남구 수곡1길 5 1층</t>
+          <t>경기도 화성시 동탄신리천로 411 1층</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>['#서이추환영', '#신방동먹자골목맛집', '#신방동곤드레찜드레', '#신방동야식']</t>
+          <t>['#김밥', '#동탄목동맛집', '#동탄맛집', '#얌샘김밥']</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -5770,27 +5778,27 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>주말 체크인 돼지런한 주말 외식 일상 가락동 맛집 모음</t>
+          <t>원앙칼국수광릉 포천 명소 탐방 후 한 그릇의 행복을 찾아서</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/growggumi/223561321275</t>
+          <t>https://blog.naver.com/wonang_kalguksu/223561105274</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>해은양꼬치</t>
+          <t>국립수목원</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>서울특별시 송파구 송파대로28길 35 송파NSuite</t>
+          <t>경기도 포천시 소흘읍 광릉수목원로 509</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>['#블로그씨의질문', '#주말체크인', '#가락동맛집', '#가락시장맛집']</t>
+          <t>['#국립수목원', '#광릉수목원', '#고모리저수지', '#광릉', '#봉선사', '#원앙칼국수광릉', '#포천칼국수집', '#포천샤브샤브', '#포천맛집']</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -5810,27 +5818,27 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>브런치가 있는 동성로 신상 카페 이스베이커리</t>
+          <t>강남구청술집 한식안주와 180가지 전통주 페어링 :: 월송</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/id_huieun/223561300165</t>
+          <t>https://blog.naver.com/brilliantnice/223561034763</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>이스베이커리 동성로</t>
+          <t>월송</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>대구광역시 중구 동성로6길 43 1층</t>
+          <t>서울특별시 강남구 학동로50길 13 월송</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>['#동성로카페', '#동성로베이커리', '#대구신상카페', '#동성로신상카페', '#동성로빵집', '#동성로디저트', '#동성로브런치', '#대구브런치맛집', '#동성로베이글', '#동성로데이트']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -5850,27 +5858,27 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>판교파스타맛집 김영모다이닝테이블 분위기좋은 저녁 데이트</t>
+          <t>남도해물촌 : 일산 물회 코다리조림 맛있는 술집, 재방문한 백석역 제철 해산물 맛집</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/banana_seller/223561212558</t>
+          <t>https://blog.naver.com/blossomjinn/223561643853</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>대한민국명장 김영모 다이닝테이블</t>
+          <t>남도해물촌</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>경기도 성남시 수정구 설개로14번길 25 대한민국명장 김영모 다이닝테이블</t>
+          <t>경기도 고양시 일산동구 백석로72번길 14</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>['#김영모다이닝테이블', '#대한민국명장', '#판교파스타맛집']</t>
+          <t>['#일산맛집', '#백석역맛집', '#백석맛집', '#백석동횟집', '#백석횟지비', '#백석동맛집', '#백석술집', '#일산낮술', '#일산횟집', '#일산백석역맛집', '#일산백석역술집', '#백석횟집', '#백석동남도해물촌', '#백석남도해물촌', '#일산남도해물촌', '#일산물회', '#일산코다리찜', '#맛집블로그', '#서이추', '#서로이웃추가', '#서로이웃환영', '#서이환영']</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -5890,27 +5898,27 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>제주공항 근처 아침식사 맛집 일도전복 전복돌솥밥</t>
+          <t>2동탄고기맛집 도니랩에서 즐기는 세트후기</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/brightenedu/223561158216</t>
+          <t>https://blog.naver.com/zero11006/223561639791</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>일도전복 제주공항점</t>
+          <t>도니랩</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>제주특별자치도 제주시 서해안로 216 1층 일도전복 제주공항점</t>
+          <t>경기도 화성시 동탄순환대로14길 82-11 1층</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>['#제주공항근처아침식사', '#제주공항근처아침식사맛집', '#제주공항아침식사', '#일도전복', '#전복돌솥밥']</t>
+          <t>['#2동탄맛집', '#2동탄고기맛집', '#도니랩']</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -5930,27 +5938,27 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>수원 행궁동 카페 추천 미트테일 뷰맛집 재방문 맛평가</t>
+          <t>중계역 근처 맛집 노원 한정식 봄이보리밥 점심 3인세트 식사</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/y_e_012/223561152107</t>
+          <t>https://blog.naver.com/kolala_rainbow/223561635699</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>미트테일</t>
+          <t>봄이보리밥 노원점</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>경기도 수원시 팔달구 신풍로23번길 28 2층 미트테일</t>
+          <t>서울특별시 노원구 동일로218길 41 영보빌딩, 201호</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>['#행궁동카페', '#수원행궁동카페', '#행궁동카페추천', '#행궁동맛집', '#행궁동뷰맛집', '#미트테일', '#행궁동', '#수원맛집', '#맛집']</t>
+          <t>['#중계역근처맛집', '#노원한정식', '#노원점심', '#봄이보리밥', '#봄이보리밥노원', '#노원보리밥']</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -5970,27 +5978,27 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>덕이동 근처 경주 최부잣집 마인드를 실천하고 계신 가성비 장어&amp;한우 전문점 - 일산 탄현 맛집 장어미식가</t>
+          <t>여수 소호동 고기집 돼지 특수부위 전문점 '동동'</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/yambee17/223561116538</t>
+          <t>https://blog.naver.com/jjinhyang_daily/223561627565</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>장어미식가</t>
+          <t>동동</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>경기도 고양시 일산서구 하이파크3로 34 장어미식가</t>
+          <t>전라남도 여수시 소호4길 5-7 동동 돼지특수부위전문점</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>['#일산한우맛집', '#장어엔한우미식가', '#일산한우', '#일산장어', '#탄현한우', '#탄현장어', '#탄현가족모임', '#덕이가족모임', '#탄현단체모임', '#탄현회식장소', '#일산가족모임', '#일산단체모임', '#일산회식장소', '#일산몸보신', '#탄현몸보신', '#덕이몸보신', '#덕이회식장소', '#덕이단체모임', '#덕이맛집', '#일산맛집', '#탄현맛집', '#덕이동맛집', '#덕이동가족모임', '#덕이동회식장소', '#덕이동몸보신', '#덕이동가성비', '#일산가성비', '#덕이가성비', '#탄현가성비']</t>
+          <t>['#여수고기맛집', '#소호동맛집', '#소호동고기집', '#여수저녁식사', '#동동', '#여수동동']</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -6010,27 +6018,27 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>[오산 노래타운] ‘딩고뮤직타운’ 평일 대실 무제한 안주 맛집</t>
+          <t>파주 야당 고깃집 맛찬들 왕소금구이 구워주는 야당 삼겹살 맛집</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/siba_dongback/223560870804</t>
+          <t>https://blog.naver.com/2ndlifej/223561627207</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>딩고뮤직타운</t>
+          <t>맛찬들왕소금구이 파주직영점</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>경기도 오산시 성호대로 130 2층 201호</t>
+          <t>경기도 파주시 소리천로 29 128~131호</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>['#오산노래타운', '#딩고뮤직타운', '#운암노래타운', '#오산2차술집', '#오산3차술집', '#오산단체모임', '#운암단체모임', '#평일무제한', '#오산술집', '#오산노래방', '#오산노래타운추천', '#신혼부부일상', '#오산데이트장소', '#오산모임장소', '#넷플릭스', '#서이추환영', '#서로이웃환영', '#유튜브시청', '#오산운암놀거리', '#오산노타', '#노타추천', '#준코식노래타운']</t>
+          <t>['#파주야당고깃집', '#파주맛집', '#야당맛집', '#맛찬들왕소금구이', '#맛찬들', '#파주삼겹살', '#야당고깃집', '#야당역맛집', '#삼쏘']</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -6050,27 +6058,27 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>청주맛집 산남동 팔각정 중국집 모던중식당 가족모임 식사 회식추천 [내돈내산]</t>
+          <t>영암 한옥카페 화담카페 월출산둘레길 아늑하고 풍경 뷰 예쁜 카페</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/forme85_/223560870184</t>
+          <t>https://blog.naver.com/drawing0123/223561584806</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>팔각정</t>
+          <t>화담카페</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>충청북도 청주시 서원구 두꺼비로60번길 25-10 1층</t>
+          <t>전라남도 영암군 군서면 호동길 57-8 화담카페</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>['#산남동맛집', '#산남동검찰정맛집', '#산남동법원맛집', '#산남동중식당', '#산남동중국집', '#팔각정', '#산남동팔각정', '#산남동회식장소추천', '#산남동모임장소추천', '#크림탕수육', '#깐쇼새우', '#유린기', '#유니짜장', '#차돌짬뽕', '#탕수육']</t>
+          <t>['#화담카페', '#영암한옥카페', '#영암카페', '#월출산둘레길카페', '#풍경뷰예쁜카페', '#아늑한카페', '#애견동반카페']</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -6090,27 +6098,27 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>대구 서구 비산동 맛집 서초갈비식 대패 냉삼이 있는 돈이당</t>
+          <t>수내역룸식당 수내역데이트 우정가 다녀왔어요</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/wldnjssnfk84/223560869061</t>
+          <t>https://blog.naver.com/oyeoyewow/223561516494</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>돈이당</t>
+          <t>우정가 수내역점</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>대구광역시 서구 달서천로57길 43 1층</t>
+          <t>경기도 성남시 분당구 황새울로240번길 10-3 2층</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>['#비산동맛집', '#서초갈비', '#대구냉삼맛집', '#대구대패삼겹살맛집', '#대구서구맛집', '#돈이당']</t>
+          <t>['#수내역룸식당', '#수내역데이트', '#우정가수내역점']</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -6130,27 +6138,27 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>양산 서창 맛집 덕궁 오리고기 전문점</t>
+          <t>건대 분위기 맛집 훠궈 무한리필 가성비 좋은 중경식객</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/oytosk/223561679721</t>
+          <t>https://blog.naver.com/erain9292/223561488233</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>덕궁</t>
+          <t>중경식객 건대점</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>경상남도 양산시 대운로 198 1층</t>
+          <t>서울특별시 광진구 동일로20길 109</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>['#양산오리고기', '#양산서창맛집', '#서창맛집', '#양산오리고기맛집', '#서청오리고기', '#양산맛집']</t>
+          <t>['#건대맛집', '#무한리필훠궈', '#중경식객', '#건대분위기맛집', '#건대입구맛집', '#훠궈맛집', '#건대입구훠궈', '#건대놀거리', '#건대가성비맛집', '#건대입구가성비맛집', '#건대입구점심', '#건대입구마라탕', '#건대입구마라샹궈', '#건대마라샹궈', '#건대훠궈', '#건대꿔바로우']</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -6170,27 +6178,27 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>광교한식맛집 뫼리식당 상현역 한식맛집</t>
+          <t>광교 한우 도쿄등심 광교점, 장어 솥밥까지 부모님과 외식 데이트</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/roria123/223561640359</t>
+          <t>https://blog.naver.com/leesangmii/223561460329</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>뫼리식당</t>
+          <t>도쿄등심 광교점</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>경기도 용인시 수지구 광교마을로 134 지웰홈스 101동 107호 뫼리식당</t>
+          <t>경기도 수원시 영통구 광교호수공원로 80 광교 앨리웨이 3층 310호</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>['#광교맛집', '#광교한식맛집', '#상현역맛집', '#광교한식', '#상현동한식맛집', '#상현역한식맛집', '#뫼리식당', '#상현역점심']</t>
+          <t>['#도쿄등심광교', '#도쿄등심광교점', '#광교한우', '#광교솥밥', '#광교콜키지프리']</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -6210,27 +6218,27 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>[성신여대 술집] 이자카야 이야시 조용한 돈암동 맛집</t>
+          <t>서울 상암동 맛집 모임하기좋은 고기집</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/wihong0109/223561639477</t>
+          <t>https://blog.naver.com/ekwellbeing/223561448678</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>이자카야 이야시 성신여대점</t>
+          <t>진대감 상암점</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>서울특별시 성북구 동소문로20길 37-19 지하1층</t>
+          <t>서울특별시 마포구 매봉산로2안길 12-6 1층</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>['#성신여대술집', '#성신여대이자카야', '#돈암동맛집', '#성신여대이야시', '#성신여대조용한술집']</t>
+          <t>['#상암동맛집', '#진대감상암점', '#상암동고기집', '#서울상암동맛집']</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -6250,27 +6258,27 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>바르미 스시샤브 신도림 디큐브시티! 스시에 소고기도 무제한?!</t>
+          <t>강남 프라이빗 룸식당 선릉역 소고기 맛집 도쿄등심</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/play_eat_fun/223561625799</t>
+          <t>https://blog.naver.com/5greenina/223561438685</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>바르미 스시샤브 현대백화점디큐브시티점</t>
+          <t>도쿄등심 선릉점</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>서울특별시 구로구 경인로 662 별관 3층</t>
+          <t>서울특별시 강남구 테헤란로78길 16 B1층</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>['#바르미스시샤브', '#바르미스시샤브신도림', '#디큐브시티샤브', '#신도림무제한', '#바르미', '#바르미신도림', '#신도림소고기무제한', '#신도림스시무제한', '#신도림샤브무제한']</t>
+          <t>['#강남룸식당', '#강남룸맛집', '#강남룸있는식당', '#강남한우룸식당', '#선릉역맛집', '#선릉맛집', '#선릉한우', '#선릉고기집', '#선릉역한우', '#선릉역소고기', '#선릉역고기집', '#선릉고기맛집', '#서이추환영']</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -6290,27 +6298,27 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>청라초밥 맛집 무한리필 뷔페 쿠우쿠우 가격 할인 오픈 시간 주차 키즈룸 놀이방 식당</t>
+          <t>광주 용봉동 맛집 웨이팅 있는 돼지갈비 원기옥 비엔날레점</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/pklaaa/223561624221</t>
+          <t>https://blog.naver.com/fkalqhal/223561429784</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>쿠우쿠우 청라점</t>
+          <t>원기옥 비엔날레점</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>인천광역시 서구 크리스탈로74번길 17 2층</t>
+          <t>광주광역시 북구 비엔날레로 134 1층 원기옥 비엔날레점</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>['#청라맛집', '#청라부페', '#청라뷔페', '#청라무한리필', '#청라초밥', '#청라초밥맛집', '#청라쿠우쿠우', '#쿠우쿠우청라점', '#청라키즈룸식당', '#청라대형식당', '#청라놀이방식당', '#쿠우쿠우가격', '#쿠우쿠우할인', '#쿠우쿠우오픈시간', '#쿠우쿠우이용시간', '#쿠우쿠우런치']</t>
+          <t>['#광주용봉동맛집', '#용봉동맛집', '#광주돼지갈비맛집', '#용봉동돼지갈비', '#용봉동고기집', '#광주돼지갈비', '#광주비엔날레맛집', '#광주북구맛집']</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -6326,31 +6334,31 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>20240726</v>
+        <v>20240826</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>상남동순두부 창원 상남동솥밥 거옥짬뽕순두부솥밥</t>
+          <t>청주 지웰시티 맛집 미인계 당일숙성 파김치도리탕 먹어본 후기</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/ajg1208/223561617634</t>
+          <t>https://blog.naver.com/nuri3886/223561174414</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>거옥짬뽕순두부솥밥</t>
+          <t>미인계 청주지웰시티점</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>경상남도 창원시 성산구 동산로65번길 26-12 1층 106호</t>
+          <t>충청북도 청주시 흥덕구 진재로109번길 27 1층</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>['동일조건 유지시 변경 허가', '#진격의현민맘', '#직진남의생각제로365일', '#직진맘', '#상남동밥집', '#상남맛집', '#상남동술집', '#사파동맛집', '#상남동짬뽕', '#상남동솥밥', '#상남동순두부']</t>
+          <t>['#복대동맛집', '#청주닭볶음탕', '#지웰시티맛집', '#청주지웰시티맛집', '#복대동닭볶음탕', '#청주미인계']</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -6370,27 +6378,27 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>[압구정맛집] 소바키겐 - 선주후면, 배우신 이자카야</t>
+          <t>소사역 맛집 황금풍천장어 가성비 좋고 부담없이 가족외식 추천 재방문 내돈내산</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/realblue88/223561616429</t>
+          <t>https://blog.naver.com/dsn8186/223561372839</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>소바 키겐</t>
+          <t>황금풍천장어숯불꼼장어</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>서울특별시 강남구 도산대로55길 20 지하1층</t>
+          <t>경기도 부천시 소사구 소사본동 소사로 242 소사로 242</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>['#소바키겐', '#소바맛집', '#압구정이자카야', '#압구정맛집', '#압구정술집', '#선주후면', '#압구정2차', '#압구정소바']</t>
+          <t>['#황금풍천장어', '#소사역맛집', '#보양식장어', '#부천가족외식식사', '#류오정보통']</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -6406,36 +6414,36 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>20240825</v>
+        <v>20240826</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>신사 가로수길 맛집 페어링 좋은 와인바 레부르주아</t>
+          <t>상무지구 맛집 [신락원]에서 탕수육, 짜장면, 냉콩국수 먹었어요!</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/dhsmfqka42/223560243335</t>
+          <t>https://blog.naver.com/boboworld85/223561077898</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>레 부르주아</t>
+          <t>신락원 상무점</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>서울특별시 강남구 강남대로152길 46 2층</t>
+          <t>광주광역시 서구 상무시민로 95-2 2층</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>['#신사가로수길맛집', '#가로수길맛집', '#신사역맛집', '#강남와인바', '#강남실내데이트', '#와인페어링', '#가로수길술집', '#가로수길와인바', '#와인바', '#신사와인바']</t>
+          <t>['#상무지구맛집', '#상무지구중국집', '#신락원']</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>2024-08-25 23:42</t>
+          <t>2024-08-26 21:15</t>
         </is>
       </c>
     </row>
@@ -6446,36 +6454,28 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>20240825</v>
+        <v>20240826</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>인천 주안 횟집 회뜨는수산 주안점 광어회 배달</t>
+          <t>전라남도 목포 여행 투어 콜밴 대형택시 기사포함 렌트카 엄마랑 가려고 한다면</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/phjung5394/223560126187</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>회뜨는수산 주안점</t>
-        </is>
-      </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>인천광역시 미추홀구 인하로 323 1층 1호</t>
-        </is>
-      </c>
+          <t>https://blog.naver.com/healthlifereview/223561364976</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr"/>
+      <c r="F153" t="inlineStr"/>
       <c r="G153" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['#전라남도목포여행투어콜밴대형택시기사포함렌트카', '#모스트노블레스']</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>2024-08-25 23:42</t>
+          <t>2024-08-26 21:15</t>
         </is>
       </c>
     </row>
@@ -6486,36 +6486,36 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>20240825</v>
+        <v>20240826</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>여의도 장어 장어인에서의 장어 정식과 장어 덮밥 후기</t>
+          <t>테디뵈르하우스 여의도 더현대서울 디저트 맛집</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/ez_the_reviewer/223560171897</t>
+          <t>https://blog.naver.com/stiearth/223561363049</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>장어인</t>
+          <t>테디뵈르하우스 더현대서울점</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>서울특별시 영등포구 의사당대로 97 지하1층 아케이드 3호</t>
+          <t>서울특별시 영등포구 여의대로 108 B1</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>['#여의도장어', '#장어장어인', '#장어정식', '#장어덮밥', '#여의도맛집', '#편리한위치', '#맛집추천', '#서울맛집', '#장어사랑']</t>
+          <t>['#테디베어하우스여의도', '#테디뵈르하우스여의도', '#여의도디저트카페추천', '#여의도카페테디뵈르', '#더현대서울테디뵈르하우스', '#더현대테디베어하우스', '#테디뵈르하우스더현대서울', '#서이추', '#서로이웃환영']</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>2024-08-25 23:42</t>
+          <t>2024-08-26 21:15</t>
         </is>
       </c>
     </row>
@@ -6526,36 +6526,36 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>20240825</v>
+        <v>20240826</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>분당 초밥 가성비 갑!! 서현역 회전초밥 오늘초밥</t>
+          <t>천안 신방동 야식맛집 곤드레찜드레 포장후기</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/jjjung1052/223560047849</t>
+          <t>https://blog.naver.com/kcy2736/223561353591</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>오늘초밥</t>
+          <t>곤드레찜드레 신방점</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>경기도 성남시 분당구 분당로53번길 12 2층</t>
+          <t>충청남도 천안시 동남구 수곡1길 5 1층</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>['#서현초밥', '#서현맛집', '#서현역맛집', '#서현역초밥', '#서현데이트', '#서현데이트코스', '#분당초밥', '#분당맛집', '#서현회전초밥']</t>
+          <t>['#서이추환영', '#신방동먹자골목맛집', '#신방동곤드레찜드레', '#신방동야식']</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>2024-08-25 23:42</t>
+          <t>2024-08-26 21:15</t>
         </is>
       </c>
     </row>
@@ -6566,36 +6566,36 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>20240825</v>
+        <v>20240826</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>부산영도데이트 청학동카페 아트센트</t>
+          <t>주말 체크인 돼지런한 주말 외식 일상 가락동 맛집 모음</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/byun_s/223560397849</t>
+          <t>https://blog.naver.com/growggumi/223561321275</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>아트센트</t>
+          <t>해은양꼬치</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>부산광역시 영도구 하나길 807 3층, 4층</t>
+          <t>서울특별시 송파구 송파대로28길 35 송파NSuite</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>['#부산영도맛집', '#청학동카페']</t>
+          <t>['#블로그씨의질문', '#주말체크인', '#가락동맛집', '#가락시장맛집']</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>2024-08-25 23:42</t>
+          <t>2024-08-26 21:15</t>
         </is>
       </c>
     </row>
@@ -6606,36 +6606,36 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>20240825</v>
+        <v>20240826</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>레스토랑 주은 디너 이용 후기 #미슐랭레스토랑 #한식레스토랑 #종로한식파인다이닝 #와인페어링</t>
+          <t>브런치가 있는 동성로 신상 카페 이스베이커리</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/dolmory9/223560198578</t>
+          <t>https://blog.naver.com/id_huieun/223561300165</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>레스토랑 주은</t>
+          <t>이스베이커리 동성로</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>서울특별시 종로구 경희궁길 36 8층</t>
+          <t>대구광역시 중구 동성로6길 43 1층</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>['#캐치테이블', '#네이버예약', '#전화', '#단체모임', '#가족모임', '#내돈내산', '#비타트라일본', '#레스토랑주은', '#주은', '#주은레스토랑', '#디너이용후기', '#주은디너', '#미슐랭레스토랑', '#미슐랭원스타', '#한식레스토랑', '#종로한식파인다이닝', '#와인페어링', '#한식파인다이닝', '#한식와인페어링', '#데이트코스추천', '#기념일레스토랑추천', '#종로레스토랑추천', '#서울한식레스토랑추천', '#서울한식파인다이닝', '#서울데이트코스추천', '#광화물파인다이닝', '#가족모인추천', '#와인모임추천', '#박주은셰프']</t>
+          <t>['#동성로카페', '#동성로베이커리', '#대구신상카페', '#동성로신상카페', '#동성로빵집', '#동성로디저트', '#동성로브런치', '#대구브런치맛집', '#동성로베이글', '#동성로데이트']</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>2024-08-25 23:42</t>
+          <t>2024-08-26 21:15</t>
         </is>
       </c>
     </row>
@@ -6646,36 +6646,36 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>20240825</v>
+        <v>20240826</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>양주 장흥 애견동반 계곡 장흥유원지 폭포수식당 자리 닭볶음탕 맛집</t>
+          <t>판교파스타맛집 김영모다이닝테이블 분위기좋은 저녁 데이트</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/twt6908/223560010054</t>
+          <t>https://blog.naver.com/banana_seller/223561212558</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>장흥폭포수식당</t>
+          <t>대한민국명장 김영모 다이닝테이블</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>경기도 양주시 장흥면 권율로309번길 169</t>
+          <t>경기도 성남시 수정구 설개로14번길 25 대한민국명장 김영모 다이닝테이블</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>['#장흥애견동반계곡', '#장흥폭포수식당', '#경기도계곡', '#서울근교계곡맛집']</t>
+          <t>['#김영모다이닝테이블', '#대한민국명장', '#판교파스타맛집']</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>2024-08-25 23:42</t>
+          <t>2024-08-26 21:15</t>
         </is>
       </c>
     </row>
@@ -6686,36 +6686,36 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>20240825</v>
+        <v>20240826</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>잠실 송리단길 카페ㅣ휴식과 영감의 저장소, 뷰클런즈</t>
+          <t>제주공항 근처 아침식사 맛집 일도전복 전복돌솥밥</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/hyobin_mo/223560415873</t>
+          <t>https://blog.naver.com/brightenedu/223561158216</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>뷰클런즈</t>
+          <t>일도전복 제주공항점</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>서울특별시 송파구 백제고분로43길 10 1층</t>
+          <t>제주특별자치도 제주시 서해안로 216 1층 일도전복 제주공항점</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>['#잠실송리단길카페', '#송리단길조용한카페', '#송리단길카페', '#송리단길카페추천', '#송리단길디저트', '#송리단길디저트카페', '#송리단길데이트', '#송리단길데이트카페', '#송리단길소개팅카페', '#송리단길소개팅', '#스페셜티커피', '#스페셜티', '#송리단길스웨덴커피', '#스웨덴커피', '#스웨덴', '#스웨덴스페셜티커피']</t>
+          <t>['#제주공항근처아침식사', '#제주공항근처아침식사맛집', '#제주공항아침식사', '#일도전복', '#전복돌솥밥']</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>2024-08-25 23:42</t>
+          <t>2024-08-26 21:15</t>
         </is>
       </c>
     </row>
@@ -6726,36 +6726,36 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>20240825</v>
+        <v>20240826</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>광화문 디타워 맛집 5층 한식 점심 저녁 맛집 광화문석갈비</t>
+          <t>수원 행궁동 카페 추천 미트테일 뷰맛집 재방문 맛평가</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/dkssudh1004/223560209180</t>
+          <t>https://blog.naver.com/y_e_012/223561152107</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>광화문석갈비 D타워점</t>
+          <t>미트테일</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>서울특별시 종로구 종로3길 17 D타워 3층 305호</t>
+          <t>경기도 수원시 팔달구 신풍로23번길 28 2층 미트테일</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>['#광화문디타워맛집', '#광화문맛집', '#광화문한정식', '#광화문한정식맛집']</t>
+          <t>['#행궁동카페', '#수원행궁동카페', '#행궁동카페추천', '#행궁동맛집', '#행궁동뷰맛집', '#미트테일', '#행궁동', '#수원맛집', '#맛집']</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>2024-08-25 23:42</t>
+          <t>2024-08-26 21:15</t>
         </is>
       </c>
     </row>
@@ -6766,36 +6766,36 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>20240825</v>
+        <v>20240826</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>대구 동성로 이색 데이트 삼덕동 맛집 웍스터</t>
+          <t>덕이동 근처 경주 최부잣집 마인드를 실천하고 계신 가성비 장어&amp;한우 전문점 - 일산 탄현 맛집 장어미식가</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/juchelin/223560006649</t>
+          <t>https://blog.naver.com/yambee17/223561116538</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>웍스터 대구삼덕</t>
+          <t>장어미식가</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>대구광역시 중구 국채보상로140길 18 1층</t>
+          <t>경기도 고양시 일산서구 하이파크3로 34 장어미식가</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>['#대구데이트', '#동성로데이트', '#동성로맛집', '#삼덕동맛집', '#대구삼덕동맛집', '#대구이색데이트']</t>
+          <t>['#일산한우맛집', '#장어엔한우미식가', '#일산한우', '#일산장어', '#탄현한우', '#탄현장어', '#탄현가족모임', '#덕이가족모임', '#탄현단체모임', '#탄현회식장소', '#일산가족모임', '#일산단체모임', '#일산회식장소', '#일산몸보신', '#탄현몸보신', '#덕이몸보신', '#덕이회식장소', '#덕이단체모임', '#덕이맛집', '#일산맛집', '#탄현맛집', '#덕이동맛집', '#덕이동가족모임', '#덕이동회식장소', '#덕이동몸보신', '#덕이동가성비', '#일산가성비', '#덕이가성비', '#탄현가성비']</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>2024-08-25 23:42</t>
+          <t>2024-08-26 21:15</t>
         </is>
       </c>
     </row>
@@ -6806,36 +6806,36 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>20240825</v>
+        <v>20240826</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>워커힐호텔 카페 브런치 더파빌리온 메뉴 가격 할인정보 공유해요</t>
+          <t>[오산 노래타운] ‘딩고뮤직타운’ 평일 대실 무제한 안주 맛집</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/stiearth/223560379806</t>
+          <t>https://blog.naver.com/siba_dongback/223560870804</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>그랜드 워커힐 서울</t>
+          <t>딩고뮤직타운</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>서울특별시 광진구 워커힐로 177 그랜드워커힐 서울</t>
+          <t>경기도 오산시 성호대로 130 2층 201호</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>['#워커힐호텔로비라운지카페', '#워커힐호텔발렛파킹카드', '#서이추', '#서로이웃환영']</t>
+          <t>['#오산노래타운', '#딩고뮤직타운', '#운암노래타운', '#오산2차술집', '#오산3차술집', '#오산단체모임', '#운암단체모임', '#평일무제한', '#오산술집', '#오산노래방', '#오산노래타운추천', '#신혼부부일상', '#오산데이트장소', '#오산모임장소', '#넷플릭스', '#서이추환영', '#서로이웃환영', '#유튜브시청', '#오산운암놀거리', '#오산노타', '#노타추천', '#준코식노래타운']</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>2024-08-25 23:42</t>
+          <t>2024-08-26 21:15</t>
         </is>
       </c>
     </row>
@@ -6846,36 +6846,36 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>20240825</v>
+        <v>20240826</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>서울 와인샵 추천 비노클럽 본점 달달한 스파클링 와인 구입</t>
+          <t>청주맛집 산남동 팔각정 중국집 모던중식당 가족모임 식사 회식추천 [내돈내산]</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/honeydate/223560368660</t>
+          <t>https://blog.naver.com/forme85_/223560870184</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>비노클럽 본점</t>
+          <t>팔각정</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>서울특별시 마포구 월드컵로42길 40 상암근린상가 120호</t>
+          <t>충청북도 청주시 서원구 두꺼비로60번길 25-10 1층</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>['#서울근처와인샵추천', '#서울와인샵추천', '#비노클럽상암점', '#비노클럽본점', '#서울와인샵비노클럽', '#스파클링와인', '#파이퍼하이직', '#파이퍼하이직뀌베브릿', '#스파클링와인추천', '#달달한스파클링와인']</t>
+          <t>['#산남동맛집', '#산남동검찰정맛집', '#산남동법원맛집', '#산남동중식당', '#산남동중국집', '#팔각정', '#산남동팔각정', '#산남동회식장소추천', '#산남동모임장소추천', '#크림탕수육', '#깐쇼새우', '#유린기', '#유니짜장', '#차돌짬뽕', '#탕수육']</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>2024-08-25 23:42</t>
+          <t>2024-08-26 21:15</t>
         </is>
       </c>
     </row>
@@ -6886,36 +6886,36 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>20240825</v>
+        <v>20240826</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>두물머리 연핫도그 이영자 추천 맛집 공영주차장 주차 팁 내돈내산 리뷰</t>
+          <t>대구 서구 비산동 맛집 서초갈비식 대패 냉삼이 있는 돈이당</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/minwoo932/223559925629</t>
+          <t>https://blog.naver.com/wldnjssnfk84/223560869061</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>두물머리연핫도그</t>
+          <t>돈이당</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>경기도 양평군 양서면 두물머리길 103-8</t>
+          <t>대구광역시 서구 달서천로57길 43 1층</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>['#이영자핫도그', '#이영자추천맛집', '#두물머리공영주차장', '#두물머리주차팁', '#두물머리주차', '#두물머리연핫도그주차', '#두물머리연핫도그공영주차장', '#두물머리연핫도그주차팁', '#두물머리연핫도그내돈내산', '#연핫도그내돈내산', '#두물머리맛집', '#두물머리맛집리뷰', '#두물머리맛집내돈내산']</t>
+          <t>['#비산동맛집', '#서초갈비', '#대구냉삼맛집', '#대구대패삼겹살맛집', '#대구서구맛집', '#돈이당']</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>2024-08-25 23:42</t>
+          <t>2024-08-26 21:15</t>
         </is>
       </c>
     </row>
@@ -6926,36 +6926,36 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>20240825</v>
+        <v>20240826</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>송도맛집 더팜 바베큐 송도 야경 보며 몽바 즐기기</t>
+          <t>양산 서창 맛집 덕궁 오리고기 전문점</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/2bommom/223560037485</t>
+          <t>https://blog.naver.com/oytosk/223561679721</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>더팜 바베큐 송도점</t>
+          <t>덕궁</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>인천광역시 연수구 지식기반로 60 더팜 바베큐 송도점</t>
+          <t>경상남도 양산시 대운로 198 1층</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>['#송도국제캠핑장']</t>
+          <t>['#양산오리고기', '#양산서창맛집', '#서창맛집', '#양산오리고기맛집', '#서청오리고기', '#양산맛집']</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>2024-08-25 23:42</t>
+          <t>2024-08-26 21:15</t>
         </is>
       </c>
     </row>
@@ -6966,36 +6966,36 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>20240825</v>
+        <v>20240826</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>밀양 계곡 글램핑 추천 애견동반 가능 탐스팜 대구 근교 나들이</t>
+          <t>광교한식맛집 뫼리식당 상현역 한식맛집</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/fox3901/223560009523</t>
+          <t>https://blog.naver.com/roria123/223561640359</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>탐스팜</t>
+          <t>뫼리식당</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>경상남도 밀양시 단장면 단장로 798 탐스팜</t>
+          <t>경기도 용인시 수지구 광교마을로 134 지웰홈스 101동 107호 뫼리식당</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>['#밀양탐스팜', '#밀양계곡', '#밀양글램핑', '#대구근교계곡', '#대구근교글램핑', '#밀양애견동반', '#밀양애견동반식당', '#대구근교나들이']</t>
+          <t>['#광교맛집', '#광교한식맛집', '#상현역맛집', '#광교한식', '#상현동한식맛집', '#상현역한식맛집', '#뫼리식당', '#상현역점심']</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>2024-08-25 23:42</t>
+          <t>2024-08-26 21:15</t>
         </is>
       </c>
     </row>
@@ -7006,36 +7006,36 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>20240825</v>
+        <v>20240826</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>여의도 맛집, 모츠나베와 아사히가 맛있는 야마야</t>
+          <t>[성신여대 술집] 이자카야 이야시 조용한 돈암동 맛집</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/al_dente/223559953424</t>
+          <t>https://blog.naver.com/wihong0109/223561639477</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>야마야 여의도점</t>
+          <t>이자카야 이야시 성신여대점</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>서울특별시 영등포구 여의대로 66 하이투자증권 B동 2층</t>
+          <t>서울특별시 성북구 동소문로20길 37-19 지하1층</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>['#여의도야마야', '#야마야여의도점', '#여의도아사히']</t>
+          <t>['#성신여대술집', '#성신여대이자카야', '#돈암동맛집', '#성신여대이야시', '#성신여대조용한술집']</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>2024-08-25 23:42</t>
+          <t>2024-08-26 21:15</t>
         </is>
       </c>
     </row>
@@ -7046,36 +7046,36 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>20240825</v>
+        <v>20240826</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>광교 법조타운 맛집 샌프란시스코국밥 빨간 고기국밥 솔직후기</t>
+          <t>바르미 스시샤브 신도림 디큐브시티! 스시에 소고기도 무제한?!</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/dpwls_e/223560373126</t>
+          <t>https://blog.naver.com/play_eat_fun/223561625799</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>샌프란시스코국밥</t>
+          <t>바르미 스시샤브 현대백화점디큐브시티점</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>경기도 수원시 영통구 광교중앙로266번길 40 1층 103~107호</t>
+          <t>서울특별시 구로구 경인로 662 별관 3층</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>['#맛집', '#광교맛집', '#광교법조타운', '#샌프란시스코국밥', '#빨간고기국밥', '#광교신상맛집']</t>
+          <t>['#바르미스시샤브', '#바르미스시샤브신도림', '#디큐브시티샤브', '#신도림무제한', '#바르미', '#바르미신도림', '#신도림소고기무제한', '#신도림스시무제한', '#신도림샤브무제한']</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>2024-08-25 23:42</t>
+          <t>2024-08-26 21:15</t>
         </is>
       </c>
     </row>
@@ -7086,36 +7086,36 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>20240825</v>
+        <v>20240826</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>강원도 고성 교암리해수욕장 근처 맛집 녹원식당은 백반기행에 나온 가오리찜이 매콤한 생선찜집</t>
+          <t>청라초밥 맛집 무한리필 뷔페 쿠우쿠우 가격 할인 오픈 시간 주차 키즈룸 놀이방 식당</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/rokag4/223560298225</t>
+          <t>https://blog.naver.com/pklaaa/223561624221</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>녹원식당</t>
+          <t>쿠우쿠우 청라점</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>강원특별자치도 고성군 토성면 교암길 60 녹원식당</t>
+          <t>인천광역시 서구 크리스탈로74번길 17 2층</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>['#고성녹원식당', '#강원도고성맛집', '#고성생선찜', '#교암리해수욕장근처맛집', '#교암리해수욕장맛집', '#강원도백반기행']</t>
+          <t>['#청라맛집', '#청라부페', '#청라뷔페', '#청라무한리필', '#청라초밥', '#청라초밥맛집', '#청라쿠우쿠우', '#쿠우쿠우청라점', '#청라키즈룸식당', '#청라대형식당', '#청라놀이방식당', '#쿠우쿠우가격', '#쿠우쿠우할인', '#쿠우쿠우오픈시간', '#쿠우쿠우이용시간', '#쿠우쿠우런치']</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>2024-08-25 23:42</t>
+          <t>2024-08-26 21:15</t>
         </is>
       </c>
     </row>
@@ -7126,36 +7126,36 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>20240825</v>
+        <v>20240726</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>블루스퀘어 맛집 휴135 : 배터지는 한남동 한우 오마카세</t>
+          <t>상남동순두부 창원 상남동솥밥 거옥짬뽕순두부솥밥</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/teumnol/223560235925</t>
+          <t>https://blog.naver.com/ajg1208/223561617634</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>휴135</t>
+          <t>거옥짬뽕순두부솥밥</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>서울특별시 용산구 이태원로55나길 6 1층 휴135</t>
+          <t>경상남도 창원시 성산구 동산로65번길 26-12 1층 106호</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>['#한남동데이트', '#한남동발렛', '#한남동한우오마카세', '#한남동한우', '#한남동소고기']</t>
+          <t>['동일조건 유지시 변경 허가', '#진격의현민맘', '#직진남의생각제로365일', '#직진맘', '#상남동밥집', '#상남맛집', '#상남동술집', '#사파동맛집', '#상남동짬뽕', '#상남동솥밥', '#상남동순두부']</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>2024-08-25 23:42</t>
+          <t>2024-08-26 21:15</t>
         </is>
       </c>
     </row>
@@ -7166,36 +7166,36 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>20240825</v>
+        <v>20240826</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>광명 일직동 맛집 떡갈비 미역국 다 맛있는 본초미역 광명 본점</t>
+          <t>[압구정맛집] 소바키겐 - 선주후면, 배우신 이자카야</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/danjaya/223560213996</t>
+          <t>https://blog.naver.com/realblue88/223561616429</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>본초미역 광명본점</t>
+          <t>소바 키겐</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>경기도 광명시 새빛공원로 67 광명역 자이타워 B동 201호~203호</t>
+          <t>서울특별시 강남구 도산대로55길 20 지하1층</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>['#광명역맛집', '#본초미역', '#광명미역국', '#본초미역광명']</t>
+          <t>['#소바키겐', '#소바맛집', '#압구정이자카야', '#압구정맛집', '#압구정술집', '#선주후면', '#압구정2차', '#압구정소바']</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>2024-08-25 23:42</t>
+          <t>2024-08-26 21:15</t>
         </is>
       </c>
     </row>
@@ -7210,27 +7210,27 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>구미 봉곡동 맛집 해탄 구미봉곡점 푸짐한 한상차림</t>
+          <t>신사 가로수길 맛집 페어링 좋은 와인바 레부르주아</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/behappy317/223559962788</t>
+          <t>https://blog.naver.com/dhsmfqka42/223560243335</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>해탄 구미봉곡점</t>
+          <t>레 부르주아</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>경상북도 구미시 야은로 269 1층 101호, 102호</t>
+          <t>서울특별시 강남구 강남대로152길 46 2층</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>['#해탄', '#구미봉곡동맛집', '#구미봉곡동해탄', '#구미오징어맛집']</t>
+          <t>['#신사가로수길맛집', '#가로수길맛집', '#신사역맛집', '#강남와인바', '#강남실내데이트', '#와인페어링', '#가로수길술집', '#가로수길와인바', '#와인바', '#신사와인바']</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -7250,27 +7250,27 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>&lt;내방역 맛집&gt; 서초구 방배동, 고기가 남다른 '돌짱'</t>
+          <t>인천 주안 횟집 회뜨는수산 주안점 광어회 배달</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/jonghwa42/223560299772</t>
+          <t>https://blog.naver.com/phjung5394/223560126187</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>돌짱</t>
+          <t>회뜨는수산 주안점</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>서울특별시 서초구 서초대로23길 5 1층</t>
+          <t>인천광역시 미추홀구 인하로 323 1층 1호</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>['#내방역맛집', '#내방역돌짱', '#방배동돌짱', '#내방역데이트', '#방배동데이트', '#반포세무서맛집', '#내방역점심', '#반포세무서점심', '#내방역황태해장국', '#돌짱대표메뉴', '#돌짱이벤트']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -7290,27 +7290,27 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>광주 하남 맛집 부산갈매기 광주하남점 마늘듬뿍갈매기살은 꼭 먹기!</t>
+          <t>여의도 장어 장어인에서의 장어 정식과 장어 덮밥 후기</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/ming30hoon34/223560089097</t>
+          <t>https://blog.naver.com/ez_the_reviewer/223560171897</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>부산갈매기 광주하남점</t>
+          <t>장어인</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>광주광역시 광산구 사암로 210 1층</t>
+          <t>서울특별시 영등포구 의사당대로 97 지하1층 아케이드 3호</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>['#광주맛집', '#광주하남맛집', '#광주고기집', '#광주하남고기집', '#부살갈매기', '#부살갈매기광주하남점']</t>
+          <t>['#여의도장어', '#장어장어인', '#장어정식', '#장어덮밥', '#여의도맛집', '#편리한위치', '#맛집추천', '#서울맛집', '#장어사랑']</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -7330,27 +7330,27 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>김해 내외동 맛집 요미우돈교자</t>
+          <t>분당 초밥 가성비 갑!! 서현역 회전초밥 오늘초밥</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/oytosk/223560453890</t>
+          <t>https://blog.naver.com/jjjung1052/223560047849</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>요미우돈교자 김해점</t>
+          <t>오늘초밥</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>경상남도 김해시 내외중앙로 88 1층</t>
+          <t>경기도 성남시 분당구 분당로53번길 12 2층</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>['#김해맛집', '#김해내외동맛집', '#김해요미우돈교자', '#내외동요미우돈교자']</t>
+          <t>['#서현초밥', '#서현맛집', '#서현역맛집', '#서현역초밥', '#서현데이트', '#서현데이트코스', '#분당초밥', '#분당맛집', '#서현회전초밥']</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -7370,27 +7370,27 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>평택 팽성 스테이크 맛집 가족 외식하기 좋은 더빅바이트 패밀리레스토랑</t>
+          <t>부산영도데이트 청학동카페 아트센트</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/s016653/223560407382</t>
+          <t>https://blog.naver.com/byun_s/223560397849</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>더빅바이트 패밀리레스토랑</t>
+          <t>아트센트</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>경기도 평택시 팽성읍 안정순환로 187</t>
+          <t>부산광역시 영도구 하나길 807 3층, 4층</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>['#평택양식', '#더빅바이트', '#평택데이트', '#팽성맛집', '#스테이크맛집', '#평택레스토랑', '#평택스테이크', '#평택가족외식', '#평택더빅바이트']</t>
+          <t>['#부산영도맛집', '#청학동카페']</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -7410,27 +7410,27 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>군산 수송동 맛집 태성반점 짬뽕</t>
+          <t>레스토랑 주은 디너 이용 후기 #미슐랭레스토랑 #한식레스토랑 #종로한식파인다이닝 #와인페어링</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/luvjay96/223560402617</t>
+          <t>https://blog.naver.com/dolmory9/223560198578</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>태성반점</t>
+          <t>레스토랑 주은</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>전북특별자치도 군산시 축동로 112</t>
+          <t>서울특별시 종로구 경희궁길 36 8층</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>['#군산수송동맛집', '#군산짬뽕', '#태성반점', '#군산현지인맛집', '#군산3대짬뽕', '#해물짬뽕']</t>
+          <t>['#캐치테이블', '#네이버예약', '#전화', '#단체모임', '#가족모임', '#내돈내산', '#비타트라일본', '#레스토랑주은', '#주은', '#주은레스토랑', '#디너이용후기', '#주은디너', '#미슐랭레스토랑', '#미슐랭원스타', '#한식레스토랑', '#종로한식파인다이닝', '#와인페어링', '#한식파인다이닝', '#한식와인페어링', '#데이트코스추천', '#기념일레스토랑추천', '#종로레스토랑추천', '#서울한식레스토랑추천', '#서울한식파인다이닝', '#서울데이트코스추천', '#광화물파인다이닝', '#가족모인추천', '#와인모임추천', '#박주은셰프']</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -7450,27 +7450,27 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>요거트월드 복숭아 요거트아이스크림 여름 신메뉴 토핑추천 꿀조합</t>
+          <t>양주 장흥 애견동반 계곡 장흥유원지 폭포수식당 자리 닭볶음탕 맛집</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/zzangzy92/223560341372</t>
+          <t>https://blog.naver.com/twt6908/223560010054</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>요거트월드 공릉점</t>
+          <t>장흥폭포수식당</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>서울특별시 노원구 노원로1나길 9 요거트월드</t>
+          <t>경기도 양주시 장흥면 권율로309번길 169</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>['#복숭아요거트아이스크림']</t>
+          <t>['#장흥애견동반계곡', '#장흥폭포수식당', '#경기도계곡', '#서울근교계곡맛집']</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -7490,27 +7490,27 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>강남역 빙수 상큼한 과일이 가득한 디저트 카페 빙달</t>
+          <t>잠실 송리단길 카페ㅣ휴식과 영감의 저장소, 뷰클런즈</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/11167/223560304538</t>
+          <t>https://blog.naver.com/hyobin_mo/223560415873</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>빙달 강남점</t>
+          <t>뷰클런즈</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>서울특별시 강남구 도곡로3길 19 상가 108호</t>
+          <t>서울특별시 송파구 백제고분로43길 10 1층</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>['#강남빙수', '#강남역내돈내산', '#강남역디저트카페', '#강남역카페']</t>
+          <t>['#잠실송리단길카페', '#송리단길조용한카페', '#송리단길카페', '#송리단길카페추천', '#송리단길디저트', '#송리단길디저트카페', '#송리단길데이트', '#송리단길데이트카페', '#송리단길소개팅카페', '#송리단길소개팅', '#스페셜티커피', '#스페셜티', '#송리단길스웨덴커피', '#스웨덴커피', '#스웨덴', '#스웨덴스페셜티커피']</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -7530,27 +7530,27 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>망포 파스타 어글리스토프 브런치 데이트</t>
+          <t>광화문 디타워 맛집 5층 한식 점심 저녁 맛집 광화문석갈비</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/dalgam89/223560242882</t>
+          <t>https://blog.naver.com/dkssudh1004/223560209180</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>어글리스토브 영통망포점</t>
+          <t>광화문석갈비 D타워점</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>경기도 수원시 영통구 덕영대로 1566</t>
+          <t>서울특별시 종로구 종로3길 17 D타워 3층 305호</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['#광화문디타워맛집', '#광화문맛집', '#광화문한정식', '#광화문한정식맛집']</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -7570,27 +7570,27 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>상봉역 맛집 브런치 라라브레드 샌드위치 리뷰</t>
+          <t>대구 동성로 이색 데이트 삼덕동 맛집 웍스터</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/hacifer/223560180360</t>
+          <t>https://blog.naver.com/juchelin/223560006649</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>라라브레드 상봉역점</t>
+          <t>웍스터 대구삼덕</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>서울특별시 중랑구 망우로 322 1층 105호</t>
+          <t>대구광역시 중구 국채보상로140길 18 1층</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>['#라라브레드상봉역점', '#라라브레드샌드위치', '#상봉역맛집브런치']</t>
+          <t>['#대구데이트', '#동성로데이트', '#동성로맛집', '#삼덕동맛집', '#대구삼덕동맛집', '#대구이색데이트']</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -7610,27 +7610,27 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>대전꼼꼼한 시력검사는 이미지안경 태평점 상담받아보세요</t>
+          <t>워커힐호텔 카페 브런치 더파빌리온 메뉴 가격 할인정보 공유해요</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/rocolife/223560145604</t>
+          <t>https://blog.naver.com/stiearth/223560379806</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>이미지안경 태평점</t>
+          <t>그랜드 워커힐 서울</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>대전광역시 중구 동서대로 1217 태평오거리</t>
+          <t>서울특별시 광진구 워커힐로 177 그랜드워커힐 서울</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>['#근시억제', '#마이오스마트안경', '#유천동안경원']</t>
+          <t>['#워커힐호텔로비라운지카페', '#워커힐호텔발렛파킹카드', '#서이추', '#서로이웃환영']</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -7650,27 +7650,27 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>[광주동구맛집] 종착역 금남점 · 칙칙폭폭 초벌역 지나온 고기 찐맛집 · 광주맛집</t>
+          <t>서울 와인샵 추천 비노클럽 본점 달달한 스파클링 와인 구입</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/ssswould/223560111974</t>
+          <t>https://blog.naver.com/honeydate/223560368660</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>종착역 금남점</t>
+          <t>비노클럽 본점</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>광주광역시 동구 금남로 161-20 1층</t>
+          <t>서울특별시 마포구 월드컵로42길 40 상암근린상가 120호</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>['#광주맛집', '#광주동구맛집', '#광주고깃집', '#광주동구고깃집', '#대인동맛집', '#충장로삼겹살', '#종착역금남점', '#광주고기맛집', '#광주회식장소추천', '#광주단체모임', '#광주점심메뉴']</t>
+          <t>['#서울근처와인샵추천', '#서울와인샵추천', '#비노클럽상암점', '#비노클럽본점', '#서울와인샵비노클럽', '#스파클링와인', '#파이퍼하이직', '#파이퍼하이직뀌베브릿', '#스파클링와인추천', '#달달한스파클링와인']</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -7690,27 +7690,27 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>쌍문역 카페 컴포즈커피 메뉴 아이스 아메리카노 칼로리 정리</t>
+          <t>두물머리 연핫도그 이영자 추천 맛집 공영주차장 주차 팁 내돈내산 리뷰</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/edge0028/223560101633</t>
+          <t>https://blog.naver.com/minwoo932/223559925629</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>컴포즈커피 강북힘찬병원점</t>
+          <t>두물머리연핫도그</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>서울특별시 도봉구 도봉로 446 강북힘찬병원 1층</t>
+          <t>경기도 양평군 양서면 두물머리길 103-8</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>['#컴포즈커피매각', '#컴포즈커피칼로리', '#컴포즈커피용량', '#쌍문역카페', '#쌍문동커피', '#컴포즈커피강북힘찬병원점']</t>
+          <t>['#이영자핫도그', '#이영자추천맛집', '#두물머리공영주차장', '#두물머리주차팁', '#두물머리주차', '#두물머리연핫도그주차', '#두물머리연핫도그공영주차장', '#두물머리연핫도그주차팁', '#두물머리연핫도그내돈내산', '#연핫도그내돈내산', '#두물머리맛집', '#두물머리맛집리뷰', '#두물머리맛집내돈내산']</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -7730,27 +7730,27 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>청기와 타운 갈비 마포맛집 인정 K-BBQ 고기와 함께 먹는 와인은 꿀맛</t>
+          <t>송도맛집 더팜 바베큐 송도 야경 보며 몽바 즐기기</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/luvluvwine/223560021917</t>
+          <t>https://blog.naver.com/2bommom/223560037485</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>청기와타운 마포점</t>
+          <t>더팜 바베큐 송도점</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>서울특별시 마포구 토정로 296 1층</t>
+          <t>인천광역시 연수구 지식기반로 60 더팜 바베큐 송도점</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>['#마포역갈비', '#마포역회식', '#마포고깃집', '#청기와타운맛집', '#청기와타운마포', '#청기와타운수원왕갈비', '#청기와타운와인', '#마포핫플']</t>
+          <t>['#송도국제캠핑장']</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -7770,27 +7770,27 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>동화고옥 선릉점 만찬 B코스 한정식 레스토랑 완벽한 구성과 분위기</t>
+          <t>밀양 계곡 글램핑 추천 애견동반 가능 탐스팜 대구 근교 나들이</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/ckwldms426/223560015636</t>
+          <t>https://blog.naver.com/fox3901/223560009523</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>동화고옥 선릉점</t>
+          <t>탐스팜</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>서울특별시 강남구 테헤란로 337 화남빌딩 14층</t>
+          <t>경상남도 밀양시 단장면 단장로 798 탐스팜</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>['#동화고옥만찬B코스', '#동화고옥코스', '#동화고옥향연양념갈비', '#동화고옥선릉예약', '#선릉역레스토랑', '#선릉역한정식', '#선릉한정식', '#선릉레스토랑', '#선릉역식사']</t>
+          <t>['#밀양탐스팜', '#밀양계곡', '#밀양글램핑', '#대구근교계곡', '#대구근교글램핑', '#밀양애견동반', '#밀양애견동반식당', '#대구근교나들이']</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -7810,27 +7810,27 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>창원 귀산 고기집 순식당 가성비 좋은 짚불구이 흑돼지삼겹살 맛집</t>
+          <t>여의도 맛집, 모츠나베와 아사히가 맛있는 야마야</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/norajo89/223559956534</t>
+          <t>https://blog.naver.com/al_dente/223559953424</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>순식당</t>
+          <t>야마야 여의도점</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>경상남도 창원시 성산구 삼귀로 375-30 2층</t>
+          <t>서울특별시 영등포구 여의대로 66 하이투자증권 B동 2층</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>['#귀산고기집', '#신상맛집', '#데이트', '#드라이브', '#창원가볼만한곳', '#짚불구이', '#흑돼지삼겹살', '#솔직후기', '#찐후기', '#가족모임', '#회식', '#내돈내산', '#찐맛집', '#가성비', '#점심특선']</t>
+          <t>['#여의도야마야', '#야마야여의도점', '#여의도아사히']</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -7850,27 +7850,27 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>인천 떡볶이 맛집 학익동 얼레꼴레만두 내돈내산</t>
+          <t>광교 법조타운 맛집 샌프란시스코국밥 빨간 고기국밥 솔직후기</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/ddmjk/223560441834</t>
+          <t>https://blog.naver.com/dpwls_e/223560373126</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>얼레꼴레만두</t>
+          <t>샌프란시스코국밥</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>인천광역시 미추홀구 한나루로 420 월드타워 1층 114호</t>
+          <t>경기도 수원시 영통구 광교중앙로266번길 40 1층 103~107호</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>['#인천떡볶이맛집']</t>
+          <t>['#맛집', '#광교맛집', '#광교법조타운', '#샌프란시스코국밥', '#빨간고기국밥', '#광교신상맛집']</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -7890,27 +7890,27 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>강남구청맛집 비비고 막회는 바로 여기!! 실내포차 박고볼래</t>
+          <t>강원도 고성 교암리해수욕장 근처 맛집 녹원식당은 백반기행에 나온 가오리찜이 매콤한 생선찜집</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/yn_jay/223560422351</t>
+          <t>https://blog.naver.com/rokag4/223560298225</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>박고볼래 실내포차 논현점</t>
+          <t>녹원식당</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>서울특별시 강남구 선릉로129길 3-6 박고볼래 실내포차 논현점</t>
+          <t>강원특별자치도 고성군 토성면 교암길 60 녹원식당</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>['#강남구청역술집', '#강남구청술집', '#실내포차']</t>
+          <t>['#고성녹원식당', '#강원도고성맛집', '#고성생선찜', '#교암리해수욕장근처맛집', '#교암리해수욕장맛집', '#강원도백반기행']</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -7930,27 +7930,27 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>오감만족 : 고양 화정역 맛집, 일산 화정 가성비 좋은 고기집 돼지고기 반판 추천</t>
+          <t>블루스퀘어 맛집 휴135 : 배터지는 한남동 한우 오마카세</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/blossomjinn/223560419174</t>
+          <t>https://blog.naver.com/teumnol/223560235925</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>오감만족</t>
+          <t>휴135</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>경기도 고양시 덕양구 화신로272번길 38 성보월드프라자 3층</t>
+          <t>서울특별시 용산구 이태원로55나길 6 1층 휴135</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>['#오감만족', '#화정맛집', '#고양화정맛집', '#고양화정역맛집', '#일산화정맛집', '#일산고기집', '#일산가성비고기집', '#일산화정역맛집', '#화정역고기집', '#화정역고깃집', '#화정역맛집', '#화정가성비맛집', '#서이추', '#서이추환영', '#돼지고기맛집', '#화정역돼지고기', '#화정돼지고기']</t>
+          <t>['#한남동데이트', '#한남동발렛', '#한남동한우오마카세', '#한남동한우', '#한남동소고기']</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -7970,27 +7970,27 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>남당리 대하 맛집 만중이네회수산 택배 받은 리얼 후기</t>
+          <t>광명 일직동 맛집 떡갈비 미역국 다 맛있는 본초미역 광명 본점</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/ohjug/223560402590</t>
+          <t>https://blog.naver.com/danjaya/223560213996</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>만중이네회수산</t>
+          <t>본초미역 광명본점</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>충청남도 홍성군 서부면 남당항로213번길 6 5,</t>
+          <t>경기도 광명시 새빛공원로 67 광명역 자이타워 B동 201호~203호</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>['#홍성남당항대하축제', '#남당리대하맛집', '#홍성대하맛집', '#대하구이']</t>
+          <t>['#광명역맛집', '#본초미역', '#광명미역국', '#본초미역광명']</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -8010,27 +8010,27 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>서울 광장시장 맛집투어 광장시장 주차정보 꽈배기 빈대떡 인기 먹거리 전통시장</t>
+          <t>구미 봉곡동 맛집 해탄 구미봉곡점 푸짐한 한상차림</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/rorozoo/223560402172</t>
+          <t>https://blog.naver.com/behappy317/223559962788</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>광장시장</t>
+          <t>해탄 구미봉곡점</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>서울특별시 종로구 창경궁로 88</t>
+          <t>경상북도 구미시 야은로 269 1층 101호, 102호</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>['#광장시장맛집', '#종묘공영주차장', '#광장시장주차', '#광장시장주차장', '#광장시장찹쌀꽈배기', '#광장시장꽈배기', '#광장시장빈대떡', '#광장시장육회', '#광장시장순대', '#광장시장족발', '#강가네떡볶이', '#광장시장달고나', '#박가네빈대떡', '#통큰누이네육회빈대떡', '#순희네빈대떡', '#누나네분식', '#자선네', '#먹자골일번지', '#광장스낵', '#순희네반찬전문', '#광장식품', '#이화폐백', '#제주도란다']</t>
+          <t>['#해탄', '#구미봉곡동맛집', '#구미봉곡동해탄', '#구미오징어맛집']</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -8050,27 +8050,27 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>기장 조개구이무한리필 부산조개창고 롯데월드점</t>
+          <t>&lt;내방역 맛집&gt; 서초구 방배동, 고기가 남다른 '돌짱'</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/thepartyi/223560399723</t>
+          <t>https://blog.naver.com/jonghwa42/223560299772</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>부산조개창고 롯데월드점</t>
+          <t>돌짱</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>부산광역시 기장군 기장읍 동부산관광9로 28 아쿠아팰리스 3층 부산조개창고 롯데월드점</t>
+          <t>서울특별시 서초구 서초대로23길 5 1층</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>['#기장조개구이', '#오시리아조개구이', '#기장조개창고', '#동부산조개창고']</t>
+          <t>['#내방역맛집', '#내방역돌짱', '#방배동돌짱', '#내방역데이트', '#방배동데이트', '#반포세무서맛집', '#내방역점심', '#반포세무서점심', '#내방역황태해장국', '#돌짱대표메뉴', '#돌짱이벤트']</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -8090,27 +8090,27 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>대부도 애견 동반 대형카페 에스텔라 내돈내산 솔직후기</t>
+          <t>광주 하남 맛집 부산갈매기 광주하남점 마늘듬뿍갈매기살은 꼭 먹기!</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/asongsi/223560359112</t>
+          <t>https://blog.naver.com/ming30hoon34/223560089097</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>에스텔라</t>
+          <t>부산갈매기 광주하남점</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>경기도 안산시 단원구 대부황금로 1202 에스텔라</t>
+          <t>광주광역시 광산구 사암로 210 1층</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>['#대부도애견가능카페', '#대부도수플레맛집', '#대부도카페추천']</t>
+          <t>['#광주맛집', '#광주하남맛집', '#광주고기집', '#광주하남고기집', '#부살갈매기', '#부살갈매기광주하남점']</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -8130,27 +8130,27 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>판교역 한우 백현동 정육점 미경산한우 빽포크 전문 토담정육점</t>
+          <t>김해 내외동 맛집 요미우돈교자</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/colorful1702/223560357933</t>
+          <t>https://blog.naver.com/oytosk/223560453890</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>토담정육점</t>
+          <t>요미우돈교자 김해점</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>경기도 성남시 분당구 판교역로10번길 27-1 101호 토담정육점</t>
+          <t>경상남도 김해시 내외중앙로 88 1층</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>['#판교역한우', '#백현동정육점', '#토담정육점', '#미경산한우', '#빽포크']</t>
+          <t>['#김해맛집', '#김해내외동맛집', '#김해요미우돈교자', '#내외동요미우돈교자']</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -8170,27 +8170,27 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>담양 돼지갈비 맛집 한상근대통밥 죽녹원 점심 식당</t>
+          <t>평택 팽성 스테이크 맛집 가족 외식하기 좋은 더빅바이트 패밀리레스토랑</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/sharp-storm/223560354690</t>
+          <t>https://blog.naver.com/s016653/223560407382</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>한상근대통밥집</t>
+          <t>더빅바이트 패밀리레스토랑</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>전라남도 담양군 월산면 담장로 113 1층</t>
+          <t>경기도 평택시 팽성읍 안정순환로 187</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>['#담양대통밥', '#담양돼지갈비', '#담양돼지갈비맛집', '#담양갈비맛집', '#담양한상근', '#담양죽녹원맛집', '#죽녹원맛집', '#담양죽녹원식당']</t>
+          <t>['#평택양식', '#더빅바이트', '#평택데이트', '#팽성맛집', '#스테이크맛집', '#평택레스토랑', '#평택스테이크', '#평택가족외식', '#평택더빅바이트']</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -8210,27 +8210,27 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>일산 호수공원 맛집 플레이그라운드 브루어리 탭하우스 본점 수제 맥주가 맛있는 곳</t>
+          <t>군산 수송동 맛집 태성반점 짬뽕</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/mango_0201/223560344152</t>
+          <t>https://blog.naver.com/luvjay96/223560402617</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>플레이그라운드브루어리 탭하우스 본점</t>
+          <t>태성반점</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>경기도 고양시 일산서구 한류월드로 300 1층 1204호, 1205호</t>
+          <t>전북특별자치도 군산시 축동로 112</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>['#일산펍']</t>
+          <t>['#군산수송동맛집', '#군산짬뽕', '#태성반점', '#군산현지인맛집', '#군산3대짬뽕', '#해물짬뽕']</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -8250,27 +8250,27 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>대구 수성못 근처 맛집 먼데이 오프 플리즈 수성구 피자 추천</t>
+          <t>요거트월드 복숭아 요거트아이스크림 여름 신메뉴 토핑추천 꿀조합</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/mukppi/223560339977</t>
+          <t>https://blog.naver.com/zzangzy92/223560341372</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>먼데이오프플리즈 대구</t>
+          <t>요거트월드 공릉점</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>대구광역시 수성구 수성못2길 27-5 1층, 2층</t>
+          <t>서울특별시 노원구 노원로1나길 9 요거트월드</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>['#대구수성못맛집', '#대구수성못피자', '#수성못피맥', '#수성못애견동반', '#수성못피자맛집']</t>
+          <t>['#복숭아요거트아이스크림']</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -8290,27 +8290,27 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>#60. [Cafe/커피숍] 부산 영도 오션 뷰 커피 하우스 ‘카페 385/385 Roasters’</t>
+          <t>강남역 빙수 상큼한 과일이 가득한 디저트 카페 빙달</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/silkroadunhuang/223560334433</t>
+          <t>https://blog.naver.com/11167/223560304538</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>카페 385</t>
+          <t>빙달 강남점</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>부산광역시 영도구 태종로 539</t>
+          <t>서울특별시 강남구 도곡로3길 19 상가 108호</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>['#오늘', '#일요일', '#주말', '#부산여행', '#여자혼자여행', '#아르떼뮤지엄부산', '#아르떼뮤지엄부산카페', '#미술관근처카페', '#부산감성카페', '#부산영도오션뷰카페', '#부산영도대형카페', '#카페385', '#빵맛집', '#베이커리카페', '#바다전망', '#북카페', '#4층대형서가', '#카페라떼', '#커피로스터기', '#커피맛집', '#서재', '#독서', '#이재위', '#작가', '#에세이집', '#오늘파도는좋아', '#재독', '#바다노을', '#홀로움']</t>
+          <t>['#강남빙수', '#강남역내돈내산', '#강남역디저트카페', '#강남역카페']</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -8330,22 +8330,22 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>제주도 협재해수욕장 카페 이국적인 오션뷰 호텔샌드</t>
+          <t>망포 파스타 어글리스토프 브런치 데이트</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/rbrmf/223560322526</t>
+          <t>https://blog.naver.com/dalgam89/223560242882</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>호텔샌드</t>
+          <t>어글리스토브 영통망포점</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>제주특별자치도 제주시 한림읍 한림로 339</t>
+          <t>경기도 수원시 영통구 덕영대로 1566</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
@@ -8366,34 +8366,834 @@
         </is>
       </c>
       <c r="B201" t="n">
+        <v>20240825</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>상봉역 맛집 브런치 라라브레드 샌드위치 리뷰</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>https://blog.naver.com/hacifer/223560180360</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>라라브레드 상봉역점</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>서울특별시 중랑구 망우로 322 1층 105호</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>['#라라브레드상봉역점', '#라라브레드샌드위치', '#상봉역맛집브런치']</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>2024-08-25 23:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Naver Blog</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>20240825</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>대전꼼꼼한 시력검사는 이미지안경 태평점 상담받아보세요</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>https://blog.naver.com/rocolife/223560145604</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>이미지안경 태평점</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>대전광역시 중구 동서대로 1217 태평오거리</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>['#근시억제', '#마이오스마트안경', '#유천동안경원']</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>2024-08-25 23:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Naver Blog</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>20240825</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>[광주동구맛집] 종착역 금남점 · 칙칙폭폭 초벌역 지나온 고기 찐맛집 · 광주맛집</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>https://blog.naver.com/ssswould/223560111974</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>종착역 금남점</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>광주광역시 동구 금남로 161-20 1층</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>['#광주맛집', '#광주동구맛집', '#광주고깃집', '#광주동구고깃집', '#대인동맛집', '#충장로삼겹살', '#종착역금남점', '#광주고기맛집', '#광주회식장소추천', '#광주단체모임', '#광주점심메뉴']</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>2024-08-25 23:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Naver Blog</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>20240825</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>쌍문역 카페 컴포즈커피 메뉴 아이스 아메리카노 칼로리 정리</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>https://blog.naver.com/edge0028/223560101633</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>컴포즈커피 강북힘찬병원점</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>서울특별시 도봉구 도봉로 446 강북힘찬병원 1층</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>['#컴포즈커피매각', '#컴포즈커피칼로리', '#컴포즈커피용량', '#쌍문역카페', '#쌍문동커피', '#컴포즈커피강북힘찬병원점']</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>2024-08-25 23:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Naver Blog</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>20240825</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>청기와 타운 갈비 마포맛집 인정 K-BBQ 고기와 함께 먹는 와인은 꿀맛</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>https://blog.naver.com/luvluvwine/223560021917</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>청기와타운 마포점</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>서울특별시 마포구 토정로 296 1층</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>['#마포역갈비', '#마포역회식', '#마포고깃집', '#청기와타운맛집', '#청기와타운마포', '#청기와타운수원왕갈비', '#청기와타운와인', '#마포핫플']</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>2024-08-25 23:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Naver Blog</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>20240825</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>동화고옥 선릉점 만찬 B코스 한정식 레스토랑 완벽한 구성과 분위기</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>https://blog.naver.com/ckwldms426/223560015636</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>동화고옥 선릉점</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>서울특별시 강남구 테헤란로 337 화남빌딩 14층</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>['#동화고옥만찬B코스', '#동화고옥코스', '#동화고옥향연양념갈비', '#동화고옥선릉예약', '#선릉역레스토랑', '#선릉역한정식', '#선릉한정식', '#선릉레스토랑', '#선릉역식사']</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>2024-08-25 23:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Naver Blog</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>20240825</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>창원 귀산 고기집 순식당 가성비 좋은 짚불구이 흑돼지삼겹살 맛집</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>https://blog.naver.com/norajo89/223559956534</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>순식당</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>경상남도 창원시 성산구 삼귀로 375-30 2층</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>['#귀산고기집', '#신상맛집', '#데이트', '#드라이브', '#창원가볼만한곳', '#짚불구이', '#흑돼지삼겹살', '#솔직후기', '#찐후기', '#가족모임', '#회식', '#내돈내산', '#찐맛집', '#가성비', '#점심특선']</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>2024-08-25 23:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Naver Blog</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>20240825</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>인천 떡볶이 맛집 학익동 얼레꼴레만두 내돈내산</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>https://blog.naver.com/ddmjk/223560441834</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>얼레꼴레만두</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>인천광역시 미추홀구 한나루로 420 월드타워 1층 114호</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>['#인천떡볶이맛집']</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>2024-08-25 23:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Naver Blog</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>20240825</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>강남구청맛집 비비고 막회는 바로 여기!! 실내포차 박고볼래</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>https://blog.naver.com/yn_jay/223560422351</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>박고볼래 실내포차 논현점</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>서울특별시 강남구 선릉로129길 3-6 박고볼래 실내포차 논현점</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>['#강남구청역술집', '#강남구청술집', '#실내포차']</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>2024-08-25 23:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Naver Blog</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>20240825</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>오감만족 : 고양 화정역 맛집, 일산 화정 가성비 좋은 고기집 돼지고기 반판 추천</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>https://blog.naver.com/blossomjinn/223560419174</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>오감만족</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>경기도 고양시 덕양구 화신로272번길 38 성보월드프라자 3층</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>['#오감만족', '#화정맛집', '#고양화정맛집', '#고양화정역맛집', '#일산화정맛집', '#일산고기집', '#일산가성비고기집', '#일산화정역맛집', '#화정역고기집', '#화정역고깃집', '#화정역맛집', '#화정가성비맛집', '#서이추', '#서이추환영', '#돼지고기맛집', '#화정역돼지고기', '#화정돼지고기']</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>2024-08-25 23:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Naver Blog</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>20240825</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>남당리 대하 맛집 만중이네회수산 택배 받은 리얼 후기</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>https://blog.naver.com/ohjug/223560402590</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>만중이네회수산</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>충청남도 홍성군 서부면 남당항로213번길 6 5,</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>['#홍성남당항대하축제', '#남당리대하맛집', '#홍성대하맛집', '#대하구이']</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>2024-08-25 23:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Naver Blog</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>20240825</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>서울 광장시장 맛집투어 광장시장 주차정보 꽈배기 빈대떡 인기 먹거리 전통시장</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>https://blog.naver.com/rorozoo/223560402172</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>광장시장</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>서울특별시 종로구 창경궁로 88</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>['#광장시장맛집', '#종묘공영주차장', '#광장시장주차', '#광장시장주차장', '#광장시장찹쌀꽈배기', '#광장시장꽈배기', '#광장시장빈대떡', '#광장시장육회', '#광장시장순대', '#광장시장족발', '#강가네떡볶이', '#광장시장달고나', '#박가네빈대떡', '#통큰누이네육회빈대떡', '#순희네빈대떡', '#누나네분식', '#자선네', '#먹자골일번지', '#광장스낵', '#순희네반찬전문', '#광장식품', '#이화폐백', '#제주도란다']</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>2024-08-25 23:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Naver Blog</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>20240825</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>기장 조개구이무한리필 부산조개창고 롯데월드점</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>https://blog.naver.com/thepartyi/223560399723</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>부산조개창고 롯데월드점</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>부산광역시 기장군 기장읍 동부산관광9로 28 아쿠아팰리스 3층 부산조개창고 롯데월드점</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>['#기장조개구이', '#오시리아조개구이', '#기장조개창고', '#동부산조개창고']</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>2024-08-25 23:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Naver Blog</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>20240825</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>대부도 애견 동반 대형카페 에스텔라 내돈내산 솔직후기</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>https://blog.naver.com/asongsi/223560359112</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>에스텔라</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>경기도 안산시 단원구 대부황금로 1202 에스텔라</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>['#대부도애견가능카페', '#대부도수플레맛집', '#대부도카페추천']</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>2024-08-25 23:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Naver Blog</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>20240825</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>판교역 한우 백현동 정육점 미경산한우 빽포크 전문 토담정육점</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>https://blog.naver.com/colorful1702/223560357933</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>토담정육점</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>경기도 성남시 분당구 판교역로10번길 27-1 101호 토담정육점</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>['#판교역한우', '#백현동정육점', '#토담정육점', '#미경산한우', '#빽포크']</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>2024-08-25 23:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Naver Blog</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>20240825</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>담양 돼지갈비 맛집 한상근대통밥 죽녹원 점심 식당</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>https://blog.naver.com/sharp-storm/223560354690</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>한상근대통밥집</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>전라남도 담양군 월산면 담장로 113 1층</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>['#담양대통밥', '#담양돼지갈비', '#담양돼지갈비맛집', '#담양갈비맛집', '#담양한상근', '#담양죽녹원맛집', '#죽녹원맛집', '#담양죽녹원식당']</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>2024-08-25 23:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Naver Blog</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>20240825</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>일산 호수공원 맛집 플레이그라운드 브루어리 탭하우스 본점 수제 맥주가 맛있는 곳</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>https://blog.naver.com/mango_0201/223560344152</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>플레이그라운드브루어리 탭하우스 본점</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>경기도 고양시 일산서구 한류월드로 300 1층 1204호, 1205호</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>['#일산펍']</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>2024-08-25 23:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Naver Blog</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>20240825</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>대구 수성못 근처 맛집 먼데이 오프 플리즈 수성구 피자 추천</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>https://blog.naver.com/mukppi/223560339977</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>먼데이오프플리즈 대구</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>대구광역시 수성구 수성못2길 27-5 1층, 2층</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>['#대구수성못맛집', '#대구수성못피자', '#수성못피맥', '#수성못애견동반', '#수성못피자맛집']</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>2024-08-25 23:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Naver Blog</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>20240825</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>#60. [Cafe/커피숍] 부산 영도 오션 뷰 커피 하우스 ‘카페 385/385 Roasters’</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>https://blog.naver.com/silkroadunhuang/223560334433</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>카페 385</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>부산광역시 영도구 태종로 539</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>['#오늘', '#일요일', '#주말', '#부산여행', '#여자혼자여행', '#아르떼뮤지엄부산', '#아르떼뮤지엄부산카페', '#미술관근처카페', '#부산감성카페', '#부산영도오션뷰카페', '#부산영도대형카페', '#카페385', '#빵맛집', '#베이커리카페', '#바다전망', '#북카페', '#4층대형서가', '#카페라떼', '#커피로스터기', '#커피맛집', '#서재', '#독서', '#이재위', '#작가', '#에세이집', '#오늘파도는좋아', '#재독', '#바다노을', '#홀로움']</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>2024-08-25 23:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Naver Blog</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>20240825</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>제주도 협재해수욕장 카페 이국적인 오션뷰 호텔샌드</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>https://blog.naver.com/rbrmf/223560322526</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>호텔샌드</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>제주특별자치도 제주시 한림읍 한림로 339</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>2024-08-25 23:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Naver Blog</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
         <v>20240821</v>
       </c>
-      <c r="C201" t="inlineStr">
+      <c r="C221" t="inlineStr">
         <is>
           <t>전주 비빔밥 맛집[전주식당]</t>
         </is>
       </c>
-      <c r="D201" t="inlineStr">
+      <c r="D221" t="inlineStr">
         <is>
           <t>https://blog.naver.com/nneikk1345/223560295997</t>
         </is>
       </c>
-      <c r="E201" t="inlineStr">
+      <c r="E221" t="inlineStr">
         <is>
           <t>전주식당</t>
         </is>
       </c>
-      <c r="F201" t="inlineStr">
+      <c r="F221" t="inlineStr">
         <is>
           <t>전북특별자치도 전주시 완산구 어진길 15</t>
         </is>
       </c>
-      <c r="G201" t="inlineStr">
+      <c r="G221" t="inlineStr">
         <is>
           <t>['#전주비빔밥', '#전주비빔밥맛집', '#전주한정식맛집', '#전주가볼만한곳', '#전주한옥마을', '#전주한옥마을맛집추천', '#전주맛집추천', '#전주식당', '#전주전주식당', '#전주식당전주', '#전주식당비빔밥', '#전주식당육회비빔밥', '#전주전주식당비빔밥', '#전망대카페', '#전주전망대카페', '#전주여행코스', '#전주맛집전주식당', '#서이추', '#서로이웃추가', '#서이추환영', '#전주한옥마을맛진전주식당', '#전주전주비빔밥', '#전주비빔밥맛집추천', '#전주날씨']</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
+      <c r="H221" t="inlineStr">
         <is>
           <t>2024-08-25 23:42</t>
         </is>
